--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.327</v>
+        <v>16.679</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3781356675.445</v>
+        <v>-0.433</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1744949.329</v>
+        <v>33.967</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.965</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.043</v>
+        <v>9.305</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2964572.527093385</v>
+        <v>14.71188511146938</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2579093.516384382</v>
+        <v>14.72888229572056</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1153511.082122642</v>
+        <v>14.74276300307211</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3692848.176499371</v>
+        <v>14.68828566907449</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1856764.837984176</v>
+        <v>14.73112251335832</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1361107.735947722</v>
+        <v>14.74078149642632</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3456417.776812739</v>
+        <v>14.6991374225575</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-416066.7039415682</v>
+        <v>14.76385634060341</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>312907.257621615</v>
+        <v>14.77380903257157</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-858823.7157486662</v>
+        <v>14.74861137311613</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-607612.1665075148</v>
+        <v>14.76067317083084</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>116737.6754778015</v>
+        <v>14.77312883239493</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-2271079.856761004</v>
+        <v>14.70684238506109</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1684777.454486415</v>
+        <v>14.73541602905454</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-631156.3856399405</v>
+        <v>14.76648747958147</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1408332.602924766</v>
+        <v>14.73168118199675</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>126441.1836981065</v>
+        <v>14.7620243480864</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1170755.067178329</v>
+        <v>14.79126159377867</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2066332.331467089</v>
+        <v>14.69224004760321</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1230507.707722615</v>
+        <v>14.74164710707382</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-108603.6603969886</v>
+        <v>14.76956871577545</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2161455.744878561</v>
+        <v>14.69620287608215</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>138403.5380468832</v>
+        <v>14.78535428476544</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1606207.874151322</v>
+        <v>14.81881294887565</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>140256.9468404902</v>
+        <v>14.78505750230048</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1056007.939464808</v>
+        <v>14.84024911211502</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2295757.024295324</v>
+        <v>14.86009383691185</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-1487907.510580907</v>
+        <v>14.70270089487795</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>291149.3615889786</v>
+        <v>14.78907748536059</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1232867.174665182</v>
+        <v>14.83018341228971</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-1048030.463170595</v>
+        <v>14.72273310702826</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>231293.469859433</v>
+        <v>14.77199809557469</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1180881.220828566</v>
+        <v>14.80396450823221</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1703868.637091379</v>
+        <v>14.67969089703654</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-710328.8392854464</v>
+        <v>14.75129616502829</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>133575.553769044</v>
+        <v>14.77767833384567</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-1820046.369276907</v>
+        <v>14.68903898878557</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>753091.0592397376</v>
+        <v>14.80836344065905</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1838114.538366933</v>
+        <v>14.84933315579475</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>720622.9419895243</v>
+        <v>14.85049103858772</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1442220.443487616</v>
+        <v>14.89875060735685</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2224904.151563299</v>
+        <v>14.92890019755712</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-1038329.895620529</v>
+        <v>14.70784573725103</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>630841.5970944173</v>
+        <v>14.8361496071192</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1324373.537204605</v>
+        <v>14.88386644485233</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-2737603.113300757</v>
+        <v>14.7289768728126</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>683253.7614891509</v>
+        <v>14.77878889630001</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2094834.734843088</v>
+        <v>14.79517416044102</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-2516177.25070058</v>
+        <v>14.72006279430261</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1321577.759095965</v>
+        <v>14.78834271134905</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1949108.069266115</v>
+        <v>14.80519864492876</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-2174275.619306492</v>
+        <v>14.73379808312237</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4735846.167716147</v>
+        <v>14.84100175439939</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5481477.553670773</v>
+        <v>14.85279125673414</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2453194.973024319</v>
+        <v>14.8347025839741</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2530588.329490703</v>
+        <v>14.85048948154391</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2721955.340635328</v>
+        <v>14.86124690453133</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-1809008.082439271</v>
+        <v>14.72531473186801</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>865734.7765186044</v>
+        <v>14.81430723286612</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2092104.259546352</v>
+        <v>14.84392419081799</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1587292.236675296</v>
+        <v>14.72542811108321</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>355354.7343592313</v>
+        <v>14.79793342389173</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>953491.5173384722</v>
+        <v>14.82497225083407</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1755327.221109224</v>
+        <v>14.6919606386596</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-407785.010855716</v>
+        <v>14.77775492407683</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>293223.875366826</v>
+        <v>14.81007897419663</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1815463.029029919</v>
+        <v>14.70017901209726</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1086330.785429847</v>
+        <v>14.84359894661798</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1967998.79841988</v>
+        <v>14.87433808183855</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>845452.2235912812</v>
+        <v>14.84482393160888</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1418267.571435986</v>
+        <v>14.89898151537956</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1910276.833826492</v>
+        <v>14.92456372241432</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-1247115.964547788</v>
+        <v>14.69870865737707</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>855494.4866934678</v>
+        <v>14.8559546816524</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1296417.782978037</v>
+        <v>14.88435336213665</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-1290542.353447964</v>
+        <v>14.71939234013577</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>555226.2816839719</v>
+        <v>14.81798471214542</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1243525.281126831</v>
+        <v>14.85505377483388</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-1499004.788213532</v>
+        <v>14.6788202706016</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>168616.9733765379</v>
+        <v>14.79541222566886</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>667689.4851842087</v>
+        <v>14.83313107293818</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1353788.196252825</v>
+        <v>14.69490464532387</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1744490.526087292</v>
+        <v>14.87727036423554</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2953619.42122203</v>
+        <v>14.92438456297942</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1194162.044649972</v>
+        <v>14.92805231131491</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1814891.041514956</v>
+        <v>14.97321028035254</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2252479.645620707</v>
+        <v>15.01397339023645</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1105714.444750147</v>
+        <v>14.70087871050817</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1098890.97592693</v>
+        <v>14.91517879790958</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1571158.460793119</v>
+        <v>14.95216728947295</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-1054913.785230659</v>
+        <v>14.73190207892625</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>537495.0360704715</v>
+        <v>14.76944993875871</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1842416.666792311</v>
+        <v>14.78321834303026</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-2417813.460975527</v>
+        <v>14.72132573329591</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>375303.1369428452</v>
+        <v>14.77705862511024</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>792914.8628265504</v>
+        <v>14.79057192122075</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-2024774.431578042</v>
+        <v>14.7333624716697</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3732691.348868328</v>
+        <v>14.8280753540234</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3974150.321213963</v>
+        <v>14.83709926162618</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1312617.338446888</v>
+        <v>14.82595797246939</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2053431.955470622</v>
+        <v>14.84359762109341</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1998037.263810748</v>
+        <v>14.84579646675899</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-955226.3425502293</v>
+        <v>14.73747657281036</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>222336.8943512614</v>
+        <v>14.8035485899279</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>798247.4144498573</v>
+        <v>14.82853968594008</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-623110.6974739454</v>
+        <v>14.74712637306451</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>850724.9935789887</v>
+        <v>14.80704743613166</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1285380.014519885</v>
+        <v>14.83172886921972</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1412625.449013075</v>
+        <v>14.71133144003912</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-44786.86787404081</v>
+        <v>14.78517718871312</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>431773.6949734932</v>
+        <v>14.81393833335988</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-1440708.258084039</v>
+        <v>14.71845173944958</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1481970.324033049</v>
+        <v>14.8492505281882</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2268297.32523091</v>
+        <v>14.87756395143752</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1062256.630857031</v>
+        <v>14.85977025358566</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1639201.626820262</v>
+        <v>14.91409903815335</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1928316.089994138</v>
+        <v>14.92803473562895</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-396695.4367448864</v>
+        <v>14.73348777985816</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>899340.1982731664</v>
+        <v>14.86204892215034</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1233536.647101959</v>
+        <v>14.88791286793295</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-275098.920975143</v>
+        <v>14.74107423554748</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>785858.8900660081</v>
+        <v>14.82699557131188</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1486671.08917292</v>
+        <v>14.86124027871791</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-1267141.029321089</v>
+        <v>14.6967067832225</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>217175.4722015598</v>
+        <v>14.80155116306826</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>603803.2701676884</v>
+        <v>14.83554055485076</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-1144234.249242761</v>
+        <v>14.71262434544524</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1676096.942254405</v>
+        <v>14.88232120004519</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2838013.610560852</v>
+        <v>14.92645397800492</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1343798.458547101</v>
+        <v>14.94302453145316</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1863189.982588283</v>
+        <v>14.98916883771102</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2249085.217439713</v>
+        <v>15.01727797010586</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-282091.1717360595</v>
+        <v>14.73926670366705</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1113847.342010743</v>
+        <v>14.92413560722153</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1568731.334563512</v>
+        <v>14.95895245270029</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-2636449.942592354</v>
+        <v>14.72400738551566</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-2310492.459021281</v>
+        <v>14.73453564258563</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-956945.1043720721</v>
+        <v>14.74732394100616</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-3501815.278842306</v>
+        <v>14.70221021793336</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-1975935.535294334</v>
+        <v>14.73800040463788</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-1773949.304694366</v>
+        <v>14.74718039682153</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-3087323.473932603</v>
+        <v>14.71232251224483</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-300767.4544973212</v>
+        <v>14.77011872274261</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>374633.0979732563</v>
+        <v>14.77891952440529</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-369599.5120039065</v>
+        <v>14.75600172097707</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-378249.3635771224</v>
+        <v>14.76629009572562</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>404361.2446126054</v>
+        <v>14.78356369845028</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2605538.222015113</v>
+        <v>14.7398339163803</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2472444.627594593</v>
+        <v>14.75838038687831</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3101645.166500436</v>
+        <v>14.78698382609932</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-1550442.504231334</v>
+        <v>14.73631007974429</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>101079.7461696226</v>
+        <v>14.75848477197361</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1071248.194815625</v>
+        <v>14.78603281254984</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-2272477.596525919</v>
+        <v>14.69650974777962</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-1315050.349643523</v>
+        <v>14.73771631421947</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-498055.7044317029</v>
+        <v>14.76450666267013</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-2214333.368693271</v>
+        <v>14.69965498638407</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-212049.4410854111</v>
+        <v>14.77976294020514</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1396347.288466234</v>
+        <v>14.81147629536501</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-334656.5005637045</v>
+        <v>14.77243300269918</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>890209.0214029037</v>
+        <v>14.8249549531123</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1757245.956607046</v>
+        <v>14.85221593963698</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-1487808.619018849</v>
+        <v>14.71836378654611</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>222843.5649549455</v>
+        <v>14.7899506644163</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>713453.653992804</v>
+        <v>14.82717830609174</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-706671.8349753282</v>
+        <v>14.73462856141692</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>250705.0820350837</v>
+        <v>14.77423591363191</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1071609.134443645</v>
+        <v>14.80587317215729</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1815273.712462703</v>
+        <v>14.69039124215877</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-819640.4968072546</v>
+        <v>14.75194606350744</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-312304.6682788358</v>
+        <v>14.77918692517638</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-1604580.326542099</v>
+        <v>14.70156412899069</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>460993.7556500154</v>
+        <v>14.8105554321564</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1812674.497144885</v>
+        <v>14.85137442278103</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>344736.5397052023</v>
+        <v>14.84640259247852</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1024153.960390209</v>
+        <v>14.89321641238601</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1808424.210345146</v>
+        <v>14.9319988633749</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-743561.8034833488</v>
+        <v>14.73489574811144</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>650836.8111895132</v>
+        <v>14.84571827971345</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1161342.486473131</v>
+        <v>14.89015891839228</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-3010124.463172217</v>
+        <v>14.73695471750006</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-426986.7212178274</v>
+        <v>14.76444805186496</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1106791.864686974</v>
+        <v>14.77659379592863</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-3421222.20972263</v>
+        <v>14.7185137675711</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>451060.6583257054</v>
+        <v>14.77118636566016</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1097696.114748275</v>
+        <v>14.78089480411409</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-2379694.328789074</v>
+        <v>14.73303760489536</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>5035813.923254583</v>
+        <v>14.8106212896711</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>5589645.078134252</v>
+        <v>14.81860786343489</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1222491.533188829</v>
+        <v>14.79314610778375</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1682451.789328103</v>
+        <v>14.80552703892077</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2053068.349257093</v>
+        <v>14.81930181861906</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-1498232.773761088</v>
+        <v>14.73919344961773</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-1161662.121273638</v>
+        <v>14.77480925766981</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-608097.7452639743</v>
+        <v>14.80109175044199</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-196524.2035859268</v>
+        <v>14.75987690359801</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1561228.706316652</v>
+        <v>14.80641325837482</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1788256.008721166</v>
+        <v>14.82953617088645</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1540414.072117678</v>
+        <v>14.72572226911464</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>186851.4024566741</v>
+        <v>14.79185388442579</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>846083.4777510504</v>
+        <v>14.81568307799231</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1326113.536330643</v>
+        <v>14.73397389276555</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2222741.01560894</v>
+        <v>14.84238834839888</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2963999.732696792</v>
+        <v>14.86906830677583</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1477796.348316601</v>
+        <v>14.84647306120927</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2330132.696433397</v>
+        <v>14.90145016270494</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2907429.519397467</v>
+        <v>14.92243560548868</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>79349.57152463563</v>
+        <v>14.75237800759761</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1325511.7118606</v>
+        <v>14.85031334759262</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1800783.350791741</v>
+        <v>14.8803433028712</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-154344.4088647672</v>
+        <v>14.74124566704381</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1111179.665278088</v>
+        <v>14.80570586747226</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1714618.201838397</v>
+        <v>14.83458190096803</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-1485762.607163725</v>
+        <v>14.70120016826806</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-60051.56219732056</v>
+        <v>14.78816446651488</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>563211.4525102621</v>
+        <v>14.81389790765163</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-1244657.554771339</v>
+        <v>14.71670283587507</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1982270.908106426</v>
+        <v>14.85440818409026</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>3162947.660670711</v>
+        <v>14.89218770518591</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1347877.709954356</v>
+        <v>14.89646628953913</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>2104908.131148374</v>
+        <v>14.94564829314483</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2616409.333180714</v>
+        <v>14.98004553623067</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-92988.95337213941</v>
+        <v>14.74089811313307</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1300091.223197778</v>
+        <v>14.88115340660868</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1979112.511188318</v>
+        <v>14.91956730884676</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-1777587.96309005</v>
+        <v>14.72235654070305</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-499482.9187632803</v>
+        <v>14.77915785032413</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>487963.8314389589</v>
+        <v>14.79483565630072</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-1370016.234754167</v>
+        <v>14.70273579374255</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>631705.4860629153</v>
+        <v>14.78490596693268</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>944577.3110047044</v>
+        <v>14.80159800741249</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-1016596.060945996</v>
+        <v>14.7275125350033</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>3023622.903607122</v>
+        <v>14.85875846223611</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>3170578.966064454</v>
+        <v>14.86799326196981</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>889025.822381036</v>
+        <v>14.81853893466786</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1044938.657423522</v>
+        <v>14.83178208831601</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1056522.117903268</v>
+        <v>14.84360505689791</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-751668.042585984</v>
+        <v>14.70277219894408</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-913315.5996969475</v>
+        <v>14.77881767643333</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-747003.1593025781</v>
+        <v>14.80715687541118</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-391570.8729398987</v>
+        <v>14.75640560435945</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>801647.971344384</v>
+        <v>14.85759504899713</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>917654.8269466701</v>
+        <v>14.88067447119953</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-821569.791996479</v>
+        <v>14.70493393523917</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>371348.0306437145</v>
+        <v>14.82801320463117</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>601922.8452544977</v>
+        <v>14.85732066110264</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-811142.1218906603</v>
+        <v>14.72608574934838</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1492535.68240313</v>
+        <v>14.91984511506076</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1644639.066985193</v>
+        <v>14.94644901185193</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>800209.8427086357</v>
+        <v>14.91032668984317</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1158055.203071657</v>
+        <v>14.98022137195459</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1362550.120271437</v>
+        <v>15.00370037700419</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-240442.715696555</v>
+        <v>14.74770273791898</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>956776.8006010194</v>
+        <v>14.93501492868789</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1115392.628713309</v>
+        <v>14.95499777272321</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-165497.7518412103</v>
+        <v>14.73374312849783</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>710965.6937386782</v>
+        <v>14.86216372441556</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>997604.5283787496</v>
+        <v>14.89882320589766</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-767406.2403179391</v>
+        <v>14.6727838427241</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>232470.4305510434</v>
+        <v>14.82745759419519</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>407993.9345434843</v>
+        <v>14.8651988067019</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-594800.2820375274</v>
+        <v>14.70281476406311</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1273038.187436851</v>
+        <v>14.93979691468081</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1747492.543144835</v>
+        <v>14.98822277546865</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>823940.1075458537</v>
+        <v>14.98406657760561</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1203729.131978882</v>
+        <v>15.04523100701403</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1366737.826934641</v>
+        <v>15.08708061222107</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-305556.3731961399</v>
+        <v>14.72685518238341</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>850755.3419694488</v>
+        <v>14.98030383985982</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1059984.11315712</v>
+        <v>15.01073194793561</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1412227.13996241</v>
+        <v>14.67887628184854</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-1635078.689881432</v>
+        <v>14.69428055969547</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-960788.6576095249</v>
+        <v>14.71584863306765</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-1722034.612488573</v>
+        <v>14.6512931235197</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-1189243.502188666</v>
+        <v>14.69622275179576</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-960927.1020818019</v>
+        <v>14.71490246277465</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-1656088.294075241</v>
+        <v>14.67098351975046</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-396026.373292477</v>
+        <v>14.75231507541591</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-172696.0034489782</v>
+        <v>14.76807170997665</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-350384.9368143578</v>
+        <v>14.72563381387265</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-62109.95139810995</v>
+        <v>14.74491488781463</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>37975.63564439335</v>
+        <v>14.75514914517046</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-936937.4302079028</v>
+        <v>14.66600749699541</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-1104125.556587141</v>
+        <v>14.69923446518304</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-719550.0493660448</v>
+        <v>14.73733614725147</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-776977.1754932121</v>
+        <v>14.72030937393677</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-108075.3045464919</v>
+        <v>14.75819220368601</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>340290.1235228206</v>
+        <v>14.8015754248302</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-986591.8267807101</v>
+        <v>14.66432952482729</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-452555.7398885817</v>
+        <v>14.72560112492828</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-14539.02878275781</v>
+        <v>14.77084851003593</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-988402.4241112219</v>
+        <v>14.67825793475233</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>84357.58467851089</v>
+        <v>14.7977731539404</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>697585.0029902512</v>
+        <v>14.84660812143829</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>138327.8994173892</v>
+        <v>14.78724107510796</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>504021.6201451794</v>
+        <v>14.85946163792178</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>848195.7889816953</v>
+        <v>14.8852430631771</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-569847.8774637467</v>
+        <v>14.68545420197</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>137319.0609387368</v>
+        <v>14.79975292954006</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>425057.9385248107</v>
+        <v>14.84882737719875</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-592982.9903897115</v>
+        <v>14.71554758000713</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-5684.126470411678</v>
+        <v>14.78406400900158</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>445721.6395210217</v>
+        <v>14.83279647254021</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-857308.459360937</v>
+        <v>14.65573715368138</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-220556.1135205514</v>
+        <v>14.75376301116689</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>140603.8197920923</v>
+        <v>14.79840030599682</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-787479.166280535</v>
+        <v>14.67813398482366</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>426330.5144875859</v>
+        <v>14.84374165762208</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>983848.5151889415</v>
+        <v>14.90458404003583</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>524477.1062155301</v>
+        <v>14.89951375439118</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>869645.7966672481</v>
+        <v>14.96561656993905</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1052074.270619327</v>
+        <v>15.00011192646795</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-359617.3492020481</v>
+        <v>14.7125347860695</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>407996.0871242759</v>
+        <v>14.89150323802972</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>745962.7216236995</v>
+        <v>14.94867719766638</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-2919229.725062655</v>
+        <v>14.69150049372795</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-2656197.727913212</v>
+        <v>14.70057577277211</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-1819944.600854809</v>
+        <v>14.7171618309117</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-2905393.608062522</v>
+        <v>14.66969097911254</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-1785934.412621089</v>
+        <v>14.70513663513818</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-1725951.785237711</v>
+        <v>14.71778615178184</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-2989265.918415729</v>
+        <v>14.67859636963214</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-928599.5198919151</v>
+        <v>14.7421376566669</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-950389.1425418755</v>
+        <v>14.75454846746262</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-1074458.573713788</v>
+        <v>14.7108758823549</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-963032.5436803438</v>
+        <v>14.72484072625714</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-682346.4963062205</v>
+        <v>14.74254090717428</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-1577907.245405612</v>
+        <v>14.66753311867227</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-1461268.647496008</v>
+        <v>14.68787684669429</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1129402.839869691</v>
+        <v>14.71540922030508</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1646480.60968733</v>
+        <v>14.67679739603309</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-1318236.18398722</v>
+        <v>14.69695682967086</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-533887.8319489426</v>
+        <v>14.73092551338002</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-1527174.515221079</v>
+        <v>14.63507097215939</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-1527703.509231646</v>
+        <v>14.67462010503339</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-854070.6643662936</v>
+        <v>14.70775958121797</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-1839900.502700206</v>
+        <v>14.63461474234079</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-1350031.437697507</v>
+        <v>14.72152166896457</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-100855.0035275484</v>
+        <v>14.76073079582229</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-1081333.971202217</v>
+        <v>14.69535205974985</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-133628.0912421705</v>
+        <v>14.76003987588907</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>818817.2238073468</v>
+        <v>14.79179170048516</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-1256439.295344972</v>
+        <v>14.61176725751219</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-887664.7479187562</v>
+        <v>14.68867530692757</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-714672.7173616649</v>
+        <v>14.72497772197117</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1588773.572674939</v>
+        <v>14.67041945999256</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-1300676.946742784</v>
+        <v>14.71011753076011</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-59002.4785032106</v>
+        <v>14.75240174206189</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1418239.331294475</v>
+        <v>14.62621009756715</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-1207240.644689652</v>
+        <v>14.68883313556107</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-424509.7073645901</v>
+        <v>14.72576157721789</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1588526.489375986</v>
+        <v>14.63290444349207</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-876562.774495573</v>
+        <v>14.75217552775253</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1064474.780151509</v>
+        <v>14.80584561838516</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-586501.1581927154</v>
+        <v>14.77505935124496</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>720992.5706821971</v>
+        <v>14.83482961733004</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1359084.133798706</v>
+        <v>14.88334598424488</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1264773.197798111</v>
+        <v>14.6210629931758</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-542476.6708710067</v>
+        <v>14.74576647833073</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-174960.4689701626</v>
+        <v>14.79296141686881</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1701248.807364528</v>
+        <v>14.72242845258347</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-692615.4453605685</v>
+        <v>14.77978033653711</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>1146236.864078788</v>
+        <v>14.80599436230694</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1609368.395759483</v>
+        <v>14.71678281706146</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1160286.947716399</v>
+        <v>14.80358690434635</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1728431.607929261</v>
+        <v>14.82660100935678</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-1433042.146697423</v>
+        <v>14.73951111659632</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>3525221.627640306</v>
+        <v>14.8664290774137</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>4188905.333381758</v>
+        <v>14.88705061774725</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1316686.710026387</v>
+        <v>14.86147618666158</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1573021.685568198</v>
+        <v>14.88199869372987</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1636668.364275458</v>
+        <v>14.88985861974284</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>339186.2945550056</v>
+        <v>14.75600721636105</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>623519.5298289417</v>
+        <v>14.84329255830417</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2389921.246865025</v>
+        <v>14.88864065277085</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-917945.4035022517</v>
+        <v>14.70219806122684</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>148109.7398823472</v>
+        <v>14.78910595758961</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>390746.6826007918</v>
+        <v>14.82510348522843</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1155517.566310678</v>
+        <v>14.65933004413871</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-55988.9311493777</v>
+        <v>14.7712810782765</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>96686.19369466712</v>
+        <v>14.80804009375175</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1185862.245789861</v>
+        <v>14.67991675814231</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>890137.0654026406</v>
+        <v>14.85304790847992</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1207275.778014031</v>
+        <v>14.89352846967184</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>548808.2086828953</v>
+        <v>14.85755086422121</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>871080.3505929053</v>
+        <v>14.92606539003226</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1067595.04953273</v>
+        <v>14.941896538189</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-232914.0710252423</v>
+        <v>14.70684171174878</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>613115.6151313265</v>
+        <v>14.87796668049172</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>796834.0285963581</v>
+        <v>14.91856911610342</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-537689.3663065872</v>
+        <v>14.69260532984811</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>166169.5530089337</v>
+        <v>14.80823406744792</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>721414.245727591</v>
+        <v>14.85538986629457</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-857419.6629452816</v>
+        <v>14.64601232792555</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>220736.5787542677</v>
+        <v>14.79303827091932</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>437543.0677400926</v>
+        <v>14.83498257929048</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-770455.64803502</v>
+        <v>14.67411026234875</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1151623.151441156</v>
+        <v>14.89093031367405</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1931607.041877782</v>
+        <v>14.94963231227173</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>864594.9711618961</v>
+        <v>14.94824818169542</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1169319.162299425</v>
+        <v>15.00656199417664</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1439430.64890895</v>
+        <v>15.04097403367178</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-210320.0918503684</v>
+        <v>14.70910882588426</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>739232.6041029156</v>
+        <v>14.9445280872524</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1214717.375263179</v>
+        <v>14.996988510363</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1939228.345448635</v>
+        <v>14.6940469493974</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1824557.954894562</v>
+        <v>14.70685860663662</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1169944.305230708</v>
+        <v>14.72378301515515</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-2320857.106615783</v>
+        <v>14.66508895007086</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2095867.952507812</v>
+        <v>14.69633938811399</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1816494.81490098</v>
+        <v>14.71312920710704</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-2186690.358867787</v>
+        <v>14.67890215395376</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-1062686.72214417</v>
+        <v>14.745942198821</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-595213.5632108658</v>
+        <v>14.75839516559969</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-752712.5643353059</v>
+        <v>14.72532908984923</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-595867.0080226408</v>
+        <v>14.73808747969987</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-289534.9688388509</v>
+        <v>14.75407596752418</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-1467992.680291963</v>
+        <v>14.65494584054846</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-1677878.508984387</v>
+        <v>14.70297558710199</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1273167.935607828</v>
+        <v>14.72618713881275</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-1383172.731004605</v>
+        <v>14.69663963301245</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-713473.4240191168</v>
+        <v>14.7239494310234</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-39800.82834431301</v>
+        <v>14.76121994899062</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1538335.6196034</v>
+        <v>14.6459496045754</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1260580.929372753</v>
+        <v>14.68535883968379</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-530653.5813128758</v>
+        <v>14.72857723277834</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1646210.358795726</v>
+        <v>14.65047474674248</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-787925.5530530716</v>
+        <v>14.74465129752963</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>161350.3854712582</v>
+        <v>14.78643152953788</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-648467.0955563056</v>
+        <v>14.72302709980896</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-157309.5528933733</v>
+        <v>14.77689148542798</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>362001.7829120353</v>
+        <v>14.8158260045981</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1160938.702660601</v>
+        <v>14.62428222169041</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-468017.5976076781</v>
+        <v>14.73382348267554</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-46416.91746211499</v>
+        <v>14.76912316848275</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-898133.0719882676</v>
+        <v>14.7018965309183</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-413341.2130847997</v>
+        <v>14.75261418517794</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>306692.3115600051</v>
+        <v>14.79729266415803</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1203468.169919366</v>
+        <v>14.64588544599525</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-876689.0586663903</v>
+        <v>14.7131425929843</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-288832.8081925179</v>
+        <v>14.75851042523137</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1095538.101183535</v>
+        <v>14.65888911630655</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-300361.6112494574</v>
+        <v>14.78930858242507</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>647600.2011558554</v>
+        <v>14.84471110794705</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-142013.8753667198</v>
+        <v>14.82728413557902</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>319703.3895080133</v>
+        <v>14.87464864017721</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>822408.3996049096</v>
+        <v>14.92330308302442</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-587115.1129987887</v>
+        <v>14.6525956262592</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>4798.146605290951</v>
+        <v>14.81478225038058</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>414234.525844481</v>
+        <v>14.85780340571275</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2861522.642508661</v>
+        <v>14.67901039278733</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-3077282.86676947</v>
+        <v>14.7063082502106</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-2140193.188277904</v>
+        <v>14.71538092128564</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2756773.819853385</v>
+        <v>14.66350504549601</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-2456108.589113527</v>
+        <v>14.70466051565573</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-2218622.05345159</v>
+        <v>14.71637090974093</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-2895447.477578092</v>
+        <v>14.67065179095533</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-1457453.774626828</v>
+        <v>14.75558042543127</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-1324237.91573431</v>
+        <v>14.75958782858569</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-1367454.492611711</v>
+        <v>14.72672384919637</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-1352867.536480711</v>
+        <v>14.73686680033643</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-1020712.963696832</v>
+        <v>14.7437007429008</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1935121.988863951</v>
+        <v>14.64442177982404</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-2329582.589685251</v>
+        <v>14.69185116755045</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-2280312.576712705</v>
+        <v>14.70869204515889</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-678003.7659259157</v>
+        <v>14.73693910788762</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>435509.9888699063</v>
+        <v>14.79177121188161</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>730575.2097968634</v>
+        <v>14.81069966550618</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-1151496.50930714</v>
+        <v>14.70240972121318</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-171216.7391343876</v>
+        <v>14.76694070922709</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>242644.3719494868</v>
+        <v>14.79361100390985</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-1078680.132773543</v>
+        <v>14.70328311345319</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1167320.140163141</v>
+        <v>14.82978059845621</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1639849.508441232</v>
+        <v>14.85179300563455</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>666877.4649350366</v>
+        <v>14.8260903725652</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1054514.817420892</v>
+        <v>14.87567079663994</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1375016.201096349</v>
+        <v>14.89640898689392</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-491837.7069323746</v>
+        <v>14.70692827519239</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>675371.3631015026</v>
+        <v>14.8260548157444</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>942156.7228760585</v>
+        <v>14.84207018479926</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-428271.1641398543</v>
+        <v>14.73195253391424</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>495002.1801868714</v>
+        <v>14.81165319775585</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1152000.99591488</v>
+        <v>14.84206373074162</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-1153605.646170734</v>
+        <v>14.68666255130453</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>35644.37700336667</v>
+        <v>14.77987028570345</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>476932.6616557657</v>
+        <v>14.81433088122461</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-1038239.154783527</v>
+        <v>14.69692820361919</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1226946.865612603</v>
+        <v>14.86150520290432</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>2134765.610517683</v>
+        <v>14.90180769973974</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>985870.2595567021</v>
+        <v>14.91130584538271</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1368567.145513079</v>
+        <v>14.95280806737639</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1749981.547897719</v>
+        <v>14.98816947475142</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-537662.6265643846</v>
+        <v>14.71281140105003</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>863425.1559146335</v>
+        <v>14.88807861449036</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1168292.761839904</v>
+        <v>14.91300831727565</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-1693420.503216926</v>
+        <v>14.7150717318163</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-1653149.090484265</v>
+        <v>14.7240587627562</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-996795.1625798652</v>
+        <v>14.73615595955397</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-2377551.484753187</v>
+        <v>14.69573252531303</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-1731945.781185125</v>
+        <v>14.72188835833882</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1450373.4110308</v>
+        <v>14.73349549314008</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-1599669.22958565</v>
+        <v>14.70525447464299</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>53975.29040544003</v>
+        <v>14.76511779506396</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-60399.70683431577</v>
+        <v>14.77286825985786</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-290572.1802498149</v>
+        <v>14.74459438895627</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-65975.69022500503</v>
+        <v>14.75105242126108</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>211940.5949351355</v>
+        <v>14.76079259755803</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-1199115.773691525</v>
+        <v>14.70089987043686</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-1286310.67606272</v>
+        <v>14.72774942827752</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-669291.9949523262</v>
+        <v>14.748410303732</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-1646635.493983164</v>
+        <v>14.693638805782</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-1239331.389122834</v>
+        <v>14.71061760482031</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-566236.3792737254</v>
+        <v>14.737000247608</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1742331.10222896</v>
+        <v>14.6455426624059</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-1707829.73884417</v>
+        <v>14.67436797284916</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-947797.678048165</v>
+        <v>14.70400704814663</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1968593.275643131</v>
+        <v>14.64750805876526</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-1388198.822858497</v>
+        <v>14.72672313199974</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-290851.9272280655</v>
+        <v>14.75741348241925</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-815754.6553019029</v>
+        <v>14.6970859985611</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-428890.9271118175</v>
+        <v>14.73500211437733</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>242096.6996151318</v>
+        <v>14.76048605744688</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-1232700.864518113</v>
+        <v>14.634340948415</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-771194.0751070145</v>
+        <v>14.70460854232713</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-333109.8648780977</v>
+        <v>14.72809965187126</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-619630.7548075058</v>
+        <v>14.71936839450258</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-71699.41624106724</v>
+        <v>14.76114915256555</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>434785.3124339617</v>
+        <v>14.79358363733967</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1388184.734322254</v>
+        <v>14.66372632370858</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-779161.8176501073</v>
+        <v>14.72168153572242</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-346003.7690629572</v>
+        <v>14.75359095963347</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1130703.206926087</v>
+        <v>14.675379854061</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>247245.0143380741</v>
+        <v>14.79197833924358</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1155642.566628118</v>
+        <v>14.83436202904516</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>118668.6080378037</v>
+        <v>14.82083555283903</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>508824.8533585902</v>
+        <v>14.85133265582229</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1063922.034297343</v>
+        <v>14.88597394170414</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-551921.5110927607</v>
+        <v>14.68610227390539</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>88042.28780610838</v>
+        <v>14.80520744325058</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>367333.0270369005</v>
+        <v>14.83385859333079</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2319408.969588212</v>
+        <v>14.69799830831954</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2689214.732628459</v>
+        <v>14.69268121342632</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2276762.282561773</v>
+        <v>14.69908403213435</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2436717.280694576</v>
+        <v>14.67628588638889</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2623511.803478365</v>
+        <v>14.68579627884305</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-2451630.509098866</v>
+        <v>14.69268129176794</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1879250.037365746</v>
+        <v>14.68209219622106</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-1750512.84109135</v>
+        <v>14.72726952973551</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-1835279.178397058</v>
+        <v>14.72886796229808</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1463901.027037385</v>
+        <v>14.69217427089987</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1610809.935594333</v>
+        <v>14.69201824573464</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1422402.578717384</v>
+        <v>14.70214380849403</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1473742.229251614</v>
+        <v>14.66590775172656</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1872140.794255864</v>
+        <v>14.67066696285414</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1575139.652991317</v>
+        <v>14.68342793287571</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1544822.569880871</v>
+        <v>14.68744664844574</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1466684.282246703</v>
+        <v>14.68713556147303</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1311682.620804696</v>
+        <v>14.7058806767561</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1466339.141285209</v>
+        <v>14.63841298951539</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1691097.344223892</v>
+        <v>14.64789806521996</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1396351.125079871</v>
+        <v>14.67105086973551</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1620152.496450523</v>
+        <v>14.635802994703</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1654627.399976628</v>
+        <v>14.6970073067961</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1364062.954713463</v>
+        <v>14.71932246042245</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-1123409.849993883</v>
+        <v>14.65179555913436</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-911224.904179158</v>
+        <v>14.68067982531185</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-803032.8770657382</v>
+        <v>14.70802877167207</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1174279.670971957</v>
+        <v>14.60868195863675</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-1111255.498774668</v>
+        <v>14.65051277096192</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-1014743.189436709</v>
+        <v>14.66426140158967</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-480056.5173012558</v>
+        <v>14.71563546377391</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-317650.6749795013</v>
+        <v>14.73839871744163</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-32900.76722004997</v>
+        <v>14.765101032111</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-1108610.594189953</v>
+        <v>14.65677170132956</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-877596.3720506135</v>
+        <v>14.69306320446549</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-614715.5569229448</v>
+        <v>14.72092328596971</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-832029.4532872413</v>
+        <v>14.66578278753952</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-208476.7263523604</v>
+        <v>14.76291344139068</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>292250.9419332453</v>
+        <v>14.79918081028809</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-148449.5259978386</v>
+        <v>14.77802404949957</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>45421.92123519369</v>
+        <v>14.80128562573422</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>333797.5723818988</v>
+        <v>14.83825154364468</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-402318.2362800523</v>
+        <v>14.66430766724523</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-242175.6926402538</v>
+        <v>14.75311635581037</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-3589.735670563897</v>
+        <v>14.77358749304534</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-937863.3355506923</v>
+        <v>14.74348606980806</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>228907.6045492236</v>
+        <v>14.76078976115943</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>1484568.229795079</v>
+        <v>14.77636837549831</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-2439221.954066707</v>
+        <v>14.71474138215074</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-661694.8270398293</v>
+        <v>14.76045774992614</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-20238.61611720074</v>
+        <v>14.77077489708177</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-1548339.202975066</v>
+        <v>14.72924553230351</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1934954.98487623</v>
+        <v>14.80091944518463</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>2543547.944200747</v>
+        <v>14.81191285804486</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>761881.2025855808</v>
+        <v>14.79382820692644</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1090658.875900299</v>
+        <v>14.80412103040577</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1421255.697393988</v>
+        <v>14.81541455428396</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-118708.7260770586</v>
+        <v>14.75616942385821</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>1018524.001223621</v>
+        <v>14.786763994764</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1681483.285037618</v>
+        <v>14.81625149148521</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-879200.0144673873</v>
+        <v>14.71449158429171</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-245962.1837736427</v>
+        <v>14.7420247110171</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>265189.6038951139</v>
+        <v>14.77277672036271</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-1651482.788987461</v>
+        <v>14.657141883428</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1451118.302628468</v>
+        <v>14.7054014033243</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-946998.3020250698</v>
+        <v>14.73387219008101</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-1507745.016794488</v>
+        <v>14.66494247173402</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-538977.3799069267</v>
+        <v>14.75920415759023</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>104063.088270297</v>
+        <v>14.79448363429388</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-375035.3677485634</v>
+        <v>14.75278521855523</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-21463.04442892346</v>
+        <v>14.80697692806019</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>414669.3618019704</v>
+        <v>14.8238323906417</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-760762.6424849858</v>
+        <v>14.67851184573929</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-281856.6740094598</v>
+        <v>14.7633512632565</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30489.60853109775</v>
+        <v>14.79971236389947</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-395049.9452458798</v>
+        <v>14.72815889245099</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>181917.4235163665</v>
+        <v>14.77657145838293</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>1005013.132615291</v>
+        <v>14.81240030177169</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1221951.541534042</v>
+        <v>14.66780672898249</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-659427.7987537661</v>
+        <v>14.74074780713338</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-242562.566997691</v>
+        <v>14.76962656810544</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-1068160.550246656</v>
+        <v>14.68252110385392</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>490287.4489842709</v>
+        <v>14.81055748780234</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1302747.085770962</v>
+        <v>14.85653361021311</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>539145.359442753</v>
+        <v>14.8571470035999</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>968055.2249166574</v>
+        <v>14.90331875312859</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1236449.77881578</v>
+        <v>14.9323545457055</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-334334.9907325858</v>
+        <v>14.71351537852544</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>403021.7623538371</v>
+        <v>14.8433728932242</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>775218.1139134538</v>
+        <v>14.88862403697219</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-1417399.656729884</v>
+        <v>14.74710428216652</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1050173.857555269</v>
+        <v>14.78296600247343</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>2318914.950712298</v>
+        <v>14.79783846024421</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-2064723.268154472</v>
+        <v>14.7299383669961</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>861578.4752651706</v>
+        <v>14.78374057352591</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1438648.423371833</v>
+        <v>14.79927273158149</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-1402720.952157503</v>
+        <v>14.74599689167039</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>4173471.149934923</v>
+        <v>14.83300955186838</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>4936866.726248425</v>
+        <v>14.84384485459825</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>2348456.800222238</v>
+        <v>14.83414796290896</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>2434458.301696063</v>
+        <v>14.84581456438229</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>3139581.515545854</v>
+        <v>14.86114655143636</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1085806.423717028</v>
+        <v>14.73983015276242</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>967468.0618878985</v>
+        <v>14.81521268477948</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>1970069.410653697</v>
+        <v>14.8420366707282</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1152138.511622465</v>
+        <v>14.72832187203396</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>226588.1409936903</v>
+        <v>14.7794667268659</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>811732.5439692299</v>
+        <v>14.80773591689184</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-1521071.321979308</v>
+        <v>14.6886003254056</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-562813.1234856768</v>
+        <v>14.75225659171008</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>62663.15240663967</v>
+        <v>14.78599001744135</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-1665317.552001595</v>
+        <v>14.69609750062353</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>557800.1974084616</v>
+        <v>14.81019931433434</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1466121.30882351</v>
+        <v>14.84230556705116</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>562942.3086337337</v>
+        <v>14.81109970634411</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>954450.8938658811</v>
+        <v>14.85691289123998</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1397403.290466704</v>
+        <v>14.88939466740317</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-975871.5614701225</v>
+        <v>14.68569204764496</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>386178.1124664627</v>
+        <v>14.81607840981353</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>883382.0724800592</v>
+        <v>14.84719392456524</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-1015304.287653169</v>
+        <v>14.71957834099629</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>222589.550707617</v>
+        <v>14.79456239256661</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>1027389.931790699</v>
+        <v>14.83188862696142</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-1458417.369912049</v>
+        <v>14.67133965325663</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-221021.014781793</v>
+        <v>14.76304560565681</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>353711.0300745065</v>
+        <v>14.80169039360235</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-1491110.555420859</v>
+        <v>14.6873215937792</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>795214.0759517205</v>
+        <v>14.83713901513655</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>2125730.196718177</v>
+        <v>14.88426861786192</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>804624.2820200265</v>
+        <v>14.88714295932878</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1309561.673245399</v>
+        <v>14.92578197999533</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1975703.340066693</v>
+        <v>14.97158422844538</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-984294.1276528288</v>
+        <v>14.68602377802331</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>641825.8188560504</v>
+        <v>14.86848139342164</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1217484.710587806</v>
+        <v>14.90824712404066</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-3031567.790952927</v>
+        <v>14.73285370483628</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-482225.3897563256</v>
+        <v>14.76581709948068</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>2089141.582013874</v>
+        <v>14.78177904087356</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-2999268.261210197</v>
+        <v>14.71835952465107</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>2124924.057006219</v>
+        <v>14.77681614233047</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>2953773.540192933</v>
+        <v>14.78871284294163</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-2363438.601848938</v>
+        <v>14.73018348910132</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>5630581.36578358</v>
+        <v>14.81273744639383</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>6941669.525411405</v>
+        <v>14.8248172977032</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>2027146.787980287</v>
+        <v>14.80574928520371</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>2125287.37737159</v>
+        <v>14.81891028093286</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2445005.907912119</v>
+        <v>14.83015204317096</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-1098458.158133415</v>
+        <v>14.74281202068887</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>672621.3434932479</v>
+        <v>14.79358546278124</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>3443380.577732249</v>
+        <v>14.82802736706949</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-1150629.190421841</v>
+        <v>14.7270199573195</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>574114.5770237814</v>
+        <v>14.77689424544645</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1117697.846118138</v>
+        <v>14.80404000158934</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-2000438.157243041</v>
+        <v>14.69281973472421</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-462650.9253284997</v>
+        <v>14.76218405900786</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>426.8298710977964</v>
+        <v>14.78798898292083</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-2205366.053203625</v>
+        <v>14.69913027013499</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1090241.837296927</v>
+        <v>14.81019498825803</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>1983441.519232364</v>
+        <v>14.84129279525845</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>544817.4090706805</v>
+        <v>14.81416818975017</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1236067.278921798</v>
+        <v>14.86917701092356</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1979378.719878563</v>
+        <v>14.88555739874805</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-1196041.803271781</v>
+        <v>14.70925528255063</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>490714.2971195991</v>
+        <v>14.82096692119685</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1160249.978835726</v>
+        <v>14.8595121731667</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-1024384.237515042</v>
+        <v>14.71523715622228</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>394080.0807321862</v>
+        <v>14.7842980925129</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1348390.570065204</v>
+        <v>14.81634894421221</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1603369.607236293</v>
+        <v>14.67782009036136</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>-16768.56825893967</v>
+        <v>14.76984168981295</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>539312.8054411341</v>
+        <v>14.79628429998952</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-1764077.937927086</v>
+        <v>14.68916008803273</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1577016.809063209</v>
+        <v>14.83061288734691</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2911749.27553043</v>
+        <v>14.87161670581571</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1281888.162616953</v>
+        <v>14.87314279196966</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1869689.736404955</v>
+        <v>14.92034280163039</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2544096.414159679</v>
+        <v>14.95009546133481</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-1140847.705703397</v>
+        <v>14.70508849414406</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>724738.9942064788</v>
+        <v>14.8605497992121</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1598765.320847403</v>
+        <v>14.90693134006516</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-1625174.134694772</v>
+        <v>14.74848377821274</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>493124.4413453371</v>
+        <v>14.76327912650198</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>4885664.973424654</v>
+        <v>14.77403845251286</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-2188298.033839215</v>
+        <v>14.74879618787634</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6354184.890318518</v>
+        <v>14.78419523702645</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>7456766.258844906</v>
+        <v>14.79115346905561</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-1258154.75807201</v>
+        <v>14.74788238599514</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>9189171.120608712</v>
+        <v>14.79815268159829</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>11394610.45356726</v>
+        <v>14.80618352776582</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>3378392.712347623</v>
+        <v>14.79155710389486</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>3752862.156287096</v>
+        <v>14.79918962180382</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>4643526.249129579</v>
+        <v>14.81067621736586</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>702745.3038180227</v>
+        <v>14.76094148609798</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>635905.1525803804</v>
+        <v>14.78090613930011</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>4377507.910473734</v>
+        <v>14.80640455636288</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-255153.1614995513</v>
+        <v>14.75009152788264</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1826596.657512915</v>
+        <v>14.77357141630723</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>3114979.127379266</v>
+        <v>14.79395192128613</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1738914.274609558</v>
+        <v>14.7460319183184</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>3120803.260187839</v>
+        <v>14.78482128219796</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>4254172.191457411</v>
+        <v>14.80340351887534</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-1679999.537640299</v>
+        <v>14.73294894176697</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>2599033.677186417</v>
+        <v>14.80004822541958</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>4675453.449522625</v>
+        <v>14.8235644006538</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1364545.437560539</v>
+        <v>14.8010426720048</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2562147.602539066</v>
+        <v>14.83865442443921</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>3566368.013572576</v>
+        <v>14.85510245098211</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-567771.9319872453</v>
+        <v>14.74075250981836</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1177808.928914525</v>
+        <v>14.80056960135164</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>2331397.509709577</v>
+        <v>14.83163064247888</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-496573.4308485697</v>
+        <v>14.74539699603818</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1153576.887217296</v>
+        <v>14.78153230157688</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>2503380.021659865</v>
+        <v>14.80423699844644</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1468177.549960207</v>
+        <v>14.74098760804432</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>3229481.098703854</v>
+        <v>14.79469158647105</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>3446677.071405821</v>
+        <v>14.81253594810768</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-1346326.426369203</v>
+        <v>14.73170751833279</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>3391400.111798638</v>
+        <v>14.81966105989656</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>5340593.787706759</v>
+        <v>14.84918546203653</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2654877.457402816</v>
+        <v>14.85154770926719</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>3505817.007731248</v>
+        <v>14.88402259677957</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>4588557.691333774</v>
+        <v>14.90937217591344</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-706090.2829384388</v>
+        <v>14.74651673241626</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1400808.157518008</v>
+        <v>14.83517956183992</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3117415.780377417</v>
+        <v>14.87199802491689</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-2846868.350534325</v>
+        <v>14.73271141575585</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-251711.7489274133</v>
+        <v>14.76626546413574</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1636244.740689298</v>
+        <v>14.78074043558361</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-3598243.67917241</v>
+        <v>14.71195591355682</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-342657.267123975</v>
+        <v>14.7629656631436</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36554.16095091555</v>
+        <v>14.77568267159312</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-3384330.665125403</v>
+        <v>14.72655644094688</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>3206185.339586942</v>
+        <v>14.80939991354585</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>4318374.85957274</v>
+        <v>14.82003534445136</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2393439.845399154</v>
+        <v>14.81395016644906</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2195261.021345331</v>
+        <v>14.82582052151934</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>2513355.857420312</v>
+        <v>14.83426621317898</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-2705069.151727254</v>
+        <v>14.71824740505967</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>367038.4665642234</v>
+        <v>14.79123161976021</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1302898.081278305</v>
+        <v>14.81454456947606</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-1463576.707871094</v>
+        <v>14.71430146631382</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>209758.5933226479</v>
+        <v>14.76460928471586</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>652412.5033703457</v>
+        <v>14.78968760022704</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-2007619.913822028</v>
+        <v>14.67162451892582</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-604093.6454263453</v>
+        <v>14.73434217240433</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-224487.679912856</v>
+        <v>14.76179107495489</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-2187424.640697565</v>
+        <v>14.67863361496008</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>707375.9421343168</v>
+        <v>14.78981565421519</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1541310.890902086</v>
+        <v>14.8183396796229</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>573695.8947207921</v>
+        <v>14.79686626190414</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>963454.1971730781</v>
+        <v>14.84361445060992</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>1428467.793266646</v>
+        <v>14.86332356324654</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-1433571.869055328</v>
+        <v>14.66477721689419</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>355102.7593068395</v>
+        <v>14.79447018584152</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>811840.2499863831</v>
+        <v>14.82099175379737</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-1254066.460504375</v>
+        <v>14.70894880385477</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>132465.5520741458</v>
+        <v>14.78070504814111</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1023203.7343816</v>
+        <v>14.81351663014157</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1846011.711401504</v>
+        <v>14.66104036666185</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-302256.6430513407</v>
+        <v>14.74885789202337</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>101792.8411166913</v>
+        <v>14.77989423261619</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1940164.945012748</v>
+        <v>14.67488839659042</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>947751.5969902133</v>
+        <v>14.81873185441627</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2242073.816792861</v>
+        <v>14.86047883337955</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1078489.688635777</v>
+        <v>14.86827171474861</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1702395.252488341</v>
+        <v>14.90828218755358</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2159426.754051163</v>
+        <v>14.94031557602089</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-1348188.676374962</v>
+        <v>14.6641355989992</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>701718.4690617872</v>
+        <v>14.84395066793347</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1290501.135505754</v>
+        <v>14.87878600318577</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-2396211.369786944</v>
+        <v>14.7111904966455</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-2387958.448442053</v>
+        <v>14.72253421211954</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-962180.6892392784</v>
+        <v>14.73466762993725</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-3210761.178753482</v>
+        <v>14.68691357712126</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-2006638.190996274</v>
+        <v>14.72083932583038</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-1513174.526464438</v>
+        <v>14.72967957217809</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-2497721.489013283</v>
+        <v>14.70222874626439</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-396686.0092664985</v>
+        <v>14.75884632537853</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>464040.5816497702</v>
+        <v>14.76723004600065</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-681948.6260039331</v>
+        <v>14.74439904195997</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-478615.6812573017</v>
+        <v>14.74966266072638</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-85353.39636234885</v>
+        <v>14.75573711811414</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-2104393.043610985</v>
+        <v>14.6957185621799</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-1805833.303954768</v>
+        <v>14.72030969717065</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-989710.2773538112</v>
+        <v>14.74148664007224</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-1891789.166686079</v>
+        <v>14.7198998032626</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-638947.234396202</v>
+        <v>14.74451143963684</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>275842.5957981301</v>
+        <v>14.77074779811444</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-2275843.363854369</v>
+        <v>14.67738122533146</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-1401674.712804113</v>
+        <v>14.71879692154167</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-575339.7824834263</v>
+        <v>14.74501823876965</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-2544893.284010718</v>
+        <v>14.68596716109079</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-693272.3041635705</v>
+        <v>14.76646539570636</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>641237.4844856728</v>
+        <v>14.79656149898715</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>-180576.1463035747</v>
+        <v>14.7644055892954</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>229338.9733907302</v>
+        <v>14.80547598946711</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>919761.7500727958</v>
+        <v>14.81873755487174</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-1781827.006735888</v>
+        <v>14.67723641042303</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-388889.770809761</v>
+        <v>14.75849102703263</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>296604.9798752226</v>
+        <v>14.78805614548363</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-1310825.924693103</v>
+        <v>14.71663788666262</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-261987.1845315509</v>
+        <v>14.76081748431042</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>645042.4910900495</v>
+        <v>14.79090027192583</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-1937033.411327777</v>
+        <v>14.67092886511192</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-890136.8190579964</v>
+        <v>14.73550692605486</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-250031.6746553923</v>
+        <v>14.76148892678381</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-1820576.996714195</v>
+        <v>14.68540928469001</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>260112.759209045</v>
+        <v>14.79618128876882</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1368410.342647906</v>
+        <v>14.83487623051989</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>408220.1136015185</v>
+        <v>14.83653005537073</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>887790.1363164433</v>
+        <v>14.87123997884221</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1197980.131419196</v>
+        <v>14.89153074452551</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-1346159.284377013</v>
+        <v>14.68764827270322</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>35073.63286485554</v>
+        <v>14.81343991654635</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>861088.9316919991</v>
+        <v>14.84989675611859</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-4103900.87935999</v>
+        <v>14.72450194118363</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-3428586.119204716</v>
+        <v>14.73607521314038</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-392921.6232118668</v>
+        <v>14.74792167510394</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-6056767.118010999</v>
+        <v>14.71578791327925</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-689782.6716195412</v>
+        <v>14.74747020488492</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-441750.7530115535</v>
+        <v>14.75538782018721</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-4078343.198098271</v>
+        <v>14.71917075237659</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>2692605.851005544</v>
+        <v>14.76553101226257</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>3992666.852113215</v>
+        <v>14.7747028847963</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>424777.0950293422</v>
+        <v>14.75581798565315</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>745240.4977265234</v>
+        <v>14.76330916288415</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>2332862.864284969</v>
+        <v>14.77594244581292</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-2731932.998283665</v>
+        <v>14.72625039343472</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-2176493.379050894</v>
+        <v>14.74414163049423</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>357998.2457739994</v>
+        <v>14.7699016936441</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-2778671.560204737</v>
+        <v>14.71788297758068</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-783386.4396740992</v>
+        <v>14.736879696339</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1405711.959048308</v>
+        <v>14.76033176944739</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-2635697.030555096</v>
+        <v>14.70151534581221</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-1836865.811708523</v>
+        <v>14.7352742751543</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>751245.1873051025</v>
+        <v>14.75696828999669</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-3839825.905887324</v>
+        <v>14.69499055070393</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-699705.7520733804</v>
+        <v>14.75669312029211</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2378333.180269544</v>
+        <v>14.78340043130619</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-648068.6519426421</v>
+        <v>14.75248035321309</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>919794.9793799523</v>
+        <v>14.78990845965586</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>2556663.852918337</v>
+        <v>14.8085683307788</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-2977983.12295008</v>
+        <v>14.69305571905533</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-741897.9356040531</v>
+        <v>14.74944906082368</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>846519.7826027041</v>
+        <v>14.78302191056556</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-2334357.043918577</v>
+        <v>14.70882838002886</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-963487.050973414</v>
+        <v>14.74017290781234</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>778330.5907157367</v>
+        <v>14.76571311731312</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-2600470.580833642</v>
+        <v>14.69054443724945</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-1191939.839697481</v>
+        <v>14.73888678042364</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-201572.8846605152</v>
+        <v>14.75955953854229</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-3437561.905694373</v>
+        <v>14.68850477247728</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>311411.0752156168</v>
+        <v>14.77065453774306</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>2662676.645842123</v>
+        <v>14.80304874222267</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1118823.600409193</v>
+        <v>14.79672834725765</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1741264.1469575</v>
+        <v>14.82868507161657</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>3065755.306844701</v>
+        <v>14.85571901475071</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-2723429.609323611</v>
+        <v>14.69279217714077</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>-568317.39252336</v>
+        <v>14.77725176074274</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>1601850.192508254</v>
+        <v>14.81674718746296</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-1117988.165788288</v>
+        <v>14.75068095134534</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>283899.4175510088</v>
+        <v>14.77954125981388</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>2074105.083164416</v>
+        <v>14.79787007336282</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-2139322.250207691</v>
+        <v>14.73167316656294</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>1956559.745183423</v>
+        <v>14.79257401517306</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>2722706.860168735</v>
+        <v>14.80844433970255</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-964631.3634651422</v>
+        <v>14.75437337434687</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>5623922.642462438</v>
+        <v>14.83561853796574</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>5946071.237291904</v>
+        <v>14.84943565772783</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1755399.20163612</v>
+        <v>14.82829612325407</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>2050174.682138131</v>
+        <v>14.84144591872947</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>2385417.695446295</v>
+        <v>14.85311868442903</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>223631.2445175051</v>
+        <v>14.77382552356881</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>669771.112137445</v>
+        <v>14.81323483346169</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>3508450.565648369</v>
+        <v>14.85551098171155</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-223551.3029696466</v>
+        <v>14.74980643130626</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>807887.81329573</v>
+        <v>14.79309325243578</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>1254301.123697228</v>
+        <v>14.82142792428644</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-1279895.044328213</v>
+        <v>14.70458575884057</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34284.71293571447</v>
+        <v>14.77457522420365</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>529486.3451266482</v>
+        <v>14.80389461764656</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-1225729.579419415</v>
+        <v>14.71713914086737</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1337286.575505679</v>
+        <v>14.82539571300381</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1967901.226001944</v>
+        <v>14.85735362717127</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>888086.2575861297</v>
+        <v>14.82341152295212</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1210346.747614271</v>
+        <v>14.87481496575115</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1650995.376392815</v>
+        <v>14.8943374448758</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-318070.9050223127</v>
+        <v>14.73425730144262</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>761721.288713054</v>
+        <v>14.83074298266706</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>1256514.300716778</v>
+        <v>14.87511046962661</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-320249.7347204083</v>
+        <v>14.73870606889052</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>574470.2237702948</v>
+        <v>14.80420261786855</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>1254229.929364205</v>
+        <v>14.83504006727734</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-1219930.428974789</v>
+        <v>14.69063266666666</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>144799.060946868</v>
+        <v>14.78760143696071</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>620881.5507459306</v>
+        <v>14.81544022345731</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-1127668.5866254</v>
+        <v>14.7115290417702</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1617267.277133471</v>
+        <v>14.85400099703552</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>2584550.058325727</v>
+        <v>14.89361980175983</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1196187.58301145</v>
+        <v>14.89568879435375</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1648929.107207492</v>
+        <v>14.94079920116914</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>2155633.569493345</v>
+        <v>14.97047970454092</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-444167.4257968322</v>
+        <v>14.74002057942437</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>826894.4409924556</v>
+        <v>14.88366212603397</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1585871.846913971</v>
+        <v>14.93405230241121</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-3060300.41654127</v>
+        <v>14.72763657107557</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-912047.5700207921</v>
+        <v>14.76177608854963</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>955740.7901974964</v>
+        <v>14.77728611800818</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-3315944.831153096</v>
+        <v>14.70772803702964</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>-334444.8670489374</v>
+        <v>14.76106888391262</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>-35218.39134417185</v>
+        <v>14.77374787549402</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-3407240.791253328</v>
+        <v>14.72228619660993</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2373759.798978195</v>
+        <v>14.80661726922577</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>3671963.826885843</v>
+        <v>14.81861913218483</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1774714.114440529</v>
+        <v>14.81020575378427</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>2125117.715745398</v>
+        <v>14.82402273483971</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>2299442.062890682</v>
+        <v>14.82954973253255</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-2748426.936747534</v>
+        <v>14.71308848163875</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>282712.8403045713</v>
+        <v>14.78697690627697</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>944715.0078805606</v>
+        <v>14.81181207620627</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-1388373.077177217</v>
+        <v>14.71825380565674</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>254119.9112931791</v>
+        <v>14.76956241236162</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>656664.26872087</v>
+        <v>14.79660400422221</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-1811435.254102755</v>
+        <v>14.67826296378709</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-500438.6260419984</v>
+        <v>14.74357913979448</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>-22236.05468545343</v>
+        <v>14.77173676240139</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1854523.251215019</v>
+        <v>14.68441827571051</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>930374.5502419674</v>
+        <v>14.79773728591254</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1868570.29929046</v>
+        <v>14.82883985231336</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>691047.6930833857</v>
+        <v>14.80670811917732</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1140128.350660171</v>
+        <v>14.85642401464397</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1530249.467368821</v>
+        <v>14.87321295264643</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-1339779.390982326</v>
+        <v>14.67017842622688</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>452492.4449491922</v>
+        <v>14.80271292446208</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>940915.0633601558</v>
+        <v>14.83189275920595</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-1240594.118520541</v>
+        <v>14.70537468727793</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>91495.74697494162</v>
+        <v>14.77811828213854</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>870180.0405864737</v>
+        <v>14.81241182774533</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-1753914.105450304</v>
+        <v>14.66044065045298</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>-242773.063243246</v>
+        <v>14.75094948475303</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42820.77313465373</v>
+        <v>14.7819638987194</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-1869440.307005821</v>
+        <v>14.67276528731755</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>880243.5797587188</v>
+        <v>14.8188775604352</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>2029280.285213634</v>
+        <v>14.86276544785501</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>947085.3736417107</v>
+        <v>14.86803924683413</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1561334.151824401</v>
+        <v>14.91153504404409</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>2016911.493955085</v>
+        <v>14.94070462932822</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-1322312.785390628</v>
+        <v>14.65941236777366</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>603188.0099047339</v>
+        <v>14.84252216181157</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1267439.241829711</v>
+        <v>14.88014073566712</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.552</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.679</v>
+        <v>16.327</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.433</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.967</v>
+        <v>16.164</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.88</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.305</v>
+        <v>5.043</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.71188511146938</v>
+        <v>5.770550917822931</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14.72888229572056</v>
+        <v>7.902586585066953</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14.74276300307211</v>
+        <v>15.78730277454786</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.68828566907449</v>
+        <v>-1.356935460608764</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.73112251335832</v>
+        <v>10.33926378749242</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.74078149642632</v>
+        <v>13.49669357433602</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.6991374225575</v>
+        <v>2.269607174158658</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>14.76385634060341</v>
+        <v>19.77204397703051</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14.77380903257157</v>
+        <v>23.96853983799932</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.74861137311613</v>
+        <v>14.79707310089943</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.76067317083084</v>
+        <v>16.95287141602094</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14.77312883239493</v>
+        <v>23.16895572276372</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.70684238506109</v>
+        <v>2.30638282673825</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.73541602905454</v>
+        <v>7.433643620748482</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14.76648747958147</v>
+        <v>16.6476430467825</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.73168118199675</v>
+        <v>8.412262883667561</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14.7620243480864</v>
+        <v>23.40205561432058</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14.79126159377867</v>
+        <v>33.60163603167821</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.69224004760321</v>
+        <v>-1.076857077627857</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.74164710707382</v>
+        <v>8.325247004214413</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14.76956871577545</v>
+        <v>20.94542870637462</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14.69620287608215</v>
+        <v>0.1946653302795944</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14.78535428476544</v>
+        <v>23.57407668687594</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.81881294887565</v>
+        <v>38.49516408537546</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>14.78505750230048</v>
+        <v>24.29246114184285</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>14.84024911211502</v>
+        <v>38.16971231952766</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>14.86009383691185</v>
+        <v>56.95681665909648</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>14.70270089487795</v>
+        <v>-0.8101977931251483</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>14.78907748536059</v>
+        <v>26.66311879323518</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>14.83018341228971</v>
+        <v>41.20571831232865</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.72273310702826</v>
+        <v>10.01657782894633</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>14.77199809557469</v>
+        <v>24.84863141349757</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>14.80396450823221</v>
+        <v>35.85783404152149</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>14.67969089703654</v>
+        <v>-0.5847334328626062</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>14.75129616502829</v>
+        <v>12.68202030546181</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>14.77767833384567</v>
+        <v>23.95068995117464</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14.68903898878557</v>
+        <v>0.2044557786659773</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>14.80836344065905</v>
+        <v>31.25468398520801</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14.84933315579475</v>
+        <v>44.34773772691044</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>14.85049103858772</v>
+        <v>35.12989447291503</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>14.89875060735685</v>
+        <v>48.11036927039517</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>14.92890019755712</v>
+        <v>62.18969483067268</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.70784573725103</v>
+        <v>3.133115689676487</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>14.8361496071192</v>
+        <v>33.73102298633378</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>14.88386644485233</v>
+        <v>46.44429187654687</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14.7289768728126</v>
+        <v>2.53680466325104</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>14.77878889630001</v>
+        <v>27.06656194046246</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>14.79517416044102</v>
+        <v>37.18851089093672</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14.72006279430261</v>
+        <v>1.386559847713244</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>14.78834271134905</v>
+        <v>33.08181354610908</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>14.80519864492876</v>
+        <v>38.26446130072203</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.73379808312237</v>
+        <v>5.939595018093179</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>14.84100175439939</v>
+        <v>57.51291641645824</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>14.85279125673414</v>
+        <v>63.07789606482907</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>14.8347025839741</v>
+        <v>49.46097837135861</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>14.85048948154391</v>
+        <v>50.32204513250345</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>14.86124690453133</v>
+        <v>52.45116551181937</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.72531473186801</v>
+        <v>1.656946965505856</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>14.81430723286612</v>
+        <v>31.98261578318587</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>14.84392419081799</v>
+        <v>45.8869336004507</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.72542811108321</v>
+        <v>2.068146685696707</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>14.79793342389173</v>
+        <v>26.66671078982283</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>14.82497225083407</v>
+        <v>34.24055524974314</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14.6919606386596</v>
+        <v>-3.432539666194636</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>14.77775492407683</v>
+        <v>16.21991882192427</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>14.81007897419663</v>
+        <v>26.44338190268287</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>14.70017901209726</v>
+        <v>-1.759727091037789</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>14.84359894661798</v>
+        <v>36.48428749564393</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>14.87433808183855</v>
+        <v>48.10417729669754</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14.84482393160888</v>
+        <v>38.7773003196322</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14.89898151537956</v>
+        <v>50.03125892731079</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>14.92456372241432</v>
+        <v>59.69764076287259</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.69870865737707</v>
+        <v>-2.80160954850076</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>14.8559546816524</v>
+        <v>39.29476497015636</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>14.88435336213665</v>
+        <v>48.12249252351121</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14.71939234013577</v>
+        <v>2.768985536140743</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>14.81798471214542</v>
+        <v>30.51257438508722</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>14.85505377483388</v>
+        <v>40.85833716500288</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>14.6788202706016</v>
+        <v>-3.783612493767684</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>14.79541222566886</v>
+        <v>25.0860409149747</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14.83313107293818</v>
+        <v>33.72592003719247</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>14.69490464532387</v>
+        <v>0.9874317580778715</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>14.87727036423554</v>
+        <v>49.45898264302262</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>14.92438456297942</v>
+        <v>68.37540625087479</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>14.92805231131491</v>
+        <v>50.01671935431308</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>14.97321028035254</v>
+        <v>64.4931737901358</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>15.01397339023645</v>
+        <v>74.69848322624406</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>14.70087871050817</v>
+        <v>-4.111544008082692</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>14.91517879790958</v>
+        <v>48.28302269977107</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>14.95216728947295</v>
+        <v>59.50691338229223</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.73190207892625</v>
+        <v>14.60277593924847</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>14.76944993875871</v>
+        <v>26.02137756519545</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>14.78321834303026</v>
+        <v>35.3785100144611</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>14.72132573329591</v>
+        <v>2.198926781535974</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>14.77705862511024</v>
+        <v>25.26672004979794</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>14.79057192122075</v>
+        <v>28.71569205700565</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.7333624716697</v>
+        <v>7.055389072351005</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>14.8280753540234</v>
+        <v>50.02592451105951</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>14.83709926162618</v>
+        <v>51.82804053290536</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.82595797246939</v>
+        <v>36.77108437423826</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>14.84359762109341</v>
+        <v>45.01327559082441</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>14.84579646675899</v>
+        <v>44.39696264214231</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.73747657281036</v>
+        <v>11.33694375463458</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>14.8035485899279</v>
+        <v>24.68790667600635</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>14.82853968594008</v>
+        <v>31.21745834585641</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.74712637306451</v>
+        <v>14.27699458945603</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>14.80704743613166</v>
+        <v>32.93928489020379</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>14.83172886921972</v>
+        <v>38.44305863562142</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14.71133144003912</v>
+        <v>1.565398282374147</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>14.78517718871312</v>
+        <v>21.51385758089603</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>14.81393833335988</v>
+        <v>28.46398248768744</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>14.71845173944958</v>
+        <v>3.179330554982865</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>14.8492505281882</v>
+        <v>41.69859466316603</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>14.87756395143752</v>
+        <v>52.06194341450067</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>14.85977025358566</v>
+        <v>43.03680180560238</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>14.91409903815335</v>
+        <v>54.37189456788199</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>14.92803473562895</v>
+        <v>60.05205347717555</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>14.73348777985816</v>
+        <v>14.22466415598452</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>14.86204892215034</v>
+        <v>40.17260018428568</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>14.88791286793295</v>
+        <v>46.86354898290691</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>14.74107423554748</v>
+        <v>18.03202801810119</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>14.82699557131188</v>
+        <v>33.97919319110812</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>14.86124027871791</v>
+        <v>44.51304079382135</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>14.6967067832225</v>
+        <v>0.2303830725234235</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>14.80155116306826</v>
+        <v>25.92667939992142</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>14.83554055485076</v>
+        <v>32.61993010134223</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>14.71262434544524</v>
+        <v>4.265834289263861</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>14.88232120004519</v>
+        <v>48.38898753410768</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>14.92645397800492</v>
+        <v>66.56679139203277</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>14.94302453145316</v>
+        <v>53.50649466473402</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>14.98916883771102</v>
+        <v>65.61958712554913</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>15.01727797010586</v>
+        <v>74.61931939606058</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>14.73926670366705</v>
+        <v>15.46265467406746</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>14.92413560722153</v>
+        <v>48.63847511458257</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>14.95895245270029</v>
+        <v>59.44923039469154</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>14.72400738551566</v>
+        <v>7.201553167150639</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.73453564258563</v>
+        <v>9.051833788644625</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>14.74732394100616</v>
+        <v>16.73517461317195</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>14.70221021793336</v>
+        <v>-0.7271560291413941</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.73800040463788</v>
+        <v>9.248824435401948</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>14.74718039682153</v>
+        <v>10.56938111694402</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.71232251224483</v>
+        <v>3.926588430242482</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>14.77011872274261</v>
+        <v>20.3902138115979</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>14.77891952440529</v>
+        <v>24.38063840765214</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>14.75600172097707</v>
+        <v>18.91191546267075</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>14.76629009572562</v>
+        <v>18.83573210747561</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>14.78356369845028</v>
+        <v>25.72855580953307</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>14.7398339163803</v>
+        <v>45.55251234925592</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14.75838038687831</v>
+        <v>44.35796380756132</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>14.78698382609932</v>
+        <v>50.00519716583109</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14.73631007974429</v>
+        <v>6.625737995062082</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>14.75848477197361</v>
+        <v>23.18033442237416</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>14.78603281254984</v>
+        <v>32.90514868385145</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>14.69650974777962</v>
+        <v>-4.068592173102537</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>14.73771631421947</v>
+        <v>6.984876625408464</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>14.76450666267013</v>
+        <v>16.41705525705416</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>14.69965498638407</v>
+        <v>-0.9353419273619359</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>14.77976294020514</v>
+        <v>19.95477558958729</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>14.81147629536501</v>
+        <v>36.73541105838012</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>14.77243300269918</v>
+        <v>16.96215440866644</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>14.8249549531123</v>
+        <v>36.01225946524882</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>14.85221593963698</v>
+        <v>49.49712323793139</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>14.71836378654611</v>
+        <v>-1.413406107480821</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>14.7899506644163</v>
+        <v>25.69886441686867</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14.82717830609174</v>
+        <v>33.47458503417758</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14.73462856141692</v>
+        <v>13.75852884404036</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>14.77423591363191</v>
+        <v>25.15017869248482</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>14.80587317215729</v>
+        <v>34.91796331111648</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>14.69039124215877</v>
+        <v>-2.710322556878474</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>14.75194606350744</v>
+        <v>10.93430514586971</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>14.77918692517638</v>
+        <v>17.88707489248585</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>14.70156412899069</v>
+        <v>2.294863711370073</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>14.8105554321564</v>
+        <v>27.876334126283</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>14.85137442278103</v>
+        <v>44.61646520996835</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>14.84640259247852</v>
+        <v>28.5314620313901</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>14.89321641238601</v>
+        <v>41.07485850395068</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>14.9319988633749</v>
+        <v>55.55404668387784</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>14.73489574811144</v>
+        <v>8.177800803828529</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>14.84571827971345</v>
+        <v>34.4115657022338</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>14.89015891839228</v>
+        <v>44.01605449314799</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.73695471750006</v>
+        <v>5.518608919078492</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14.76444805186496</v>
+        <v>19.80561715104756</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>14.77659379592863</v>
+        <v>28.28875257465855</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>14.7185137675711</v>
+        <v>0.3733734865596183</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>14.77118636566016</v>
+        <v>25.04055008995249</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>14.78089480411409</v>
+        <v>29.15974064114003</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.73303760489536</v>
+        <v>8.467997969010897</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>14.8106212896711</v>
+        <v>51.15697086449995</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>14.81860786343489</v>
+        <v>54.34521937771787</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>14.79314610778375</v>
+        <v>32.65809868053493</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>14.80552703892077</v>
+        <v>36.60529596586333</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>14.81930181861906</v>
+        <v>39.78578093108306</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>14.73919344961773</v>
+        <v>9.064991580612883</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>14.77480925766981</v>
+        <v>12.00832850745918</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>14.80109175044199</v>
+        <v>16.84929267725338</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>14.75987690359801</v>
+        <v>20.24772482188809</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>14.80641325837482</v>
+        <v>37.41530483973521</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>14.82953617088645</v>
+        <v>39.63262978814443</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.72572226911464</v>
+        <v>4.839142609952521</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>14.79185388442579</v>
+        <v>24.26897191572961</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.81568307799231</v>
+        <v>31.68460482474639</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>14.73397389276555</v>
+        <v>8.686406221629943</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>14.84238834839888</v>
+        <v>44.7625831558056</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>14.86906830677583</v>
+        <v>52.29791046783833</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>14.84647306120927</v>
+        <v>44.56147573623818</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>14.90145016270494</v>
+        <v>57.47774411700292</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14.92243560548868</v>
+        <v>66.22607535647299</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>14.75237800759761</v>
+        <v>23.39237305351881</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14.85031334759262</v>
+        <v>42.63639359887075</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14.8803433028712</v>
+        <v>49.9758375509621</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>14.74124566704381</v>
+        <v>20.37767489201462</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>14.80570586747226</v>
+        <v>35.04973753041928</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>14.83458190096803</v>
+        <v>42.04580199709994</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>14.70120016826806</v>
+        <v>2.327640076768493</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>14.78816446651488</v>
+        <v>21.36518379403829</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>14.81389790765163</v>
+        <v>29.68762537976096</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>14.71670283587507</v>
+        <v>7.147712598100243</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>14.85440818409026</v>
+        <v>46.08728266074593</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>14.89218770518591</v>
+        <v>60.33459110179285</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>14.89646628953913</v>
+        <v>46.41328263634831</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>14.94564829314483</v>
+        <v>60.03114340060263</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>14.98004553623067</v>
+        <v>69.23229563308324</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>14.74089811313307</v>
+        <v>20.46234437642047</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>14.88115340660868</v>
+        <v>45.99916805543383</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>14.91956730884676</v>
+        <v>58.44643935923376</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>14.72235654070305</v>
+        <v>1.570179971893662</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>14.77915785032413</v>
+        <v>16.37958367290437</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>14.79483565630072</v>
+        <v>27.82112959427176</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>14.70273579374255</v>
+        <v>3.883720246822534</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>14.78490596693268</v>
+        <v>30.59737834436707</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>14.80159800741249</v>
+        <v>34.77275940404729</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>14.7275125350033</v>
+        <v>9.906798870032521</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>14.85875846223611</v>
+        <v>58.63237457926626</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>14.86799326196981</v>
+        <v>60.40468415209337</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>14.81853893466786</v>
+        <v>38.15002055136429</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>14.83178208831601</v>
+        <v>40.9530501777151</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.84360505689791</v>
+        <v>41.16129976083328</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>14.70277219894408</v>
+        <v>8.395891335599915</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.77881767643333</v>
+        <v>5.43440199881444</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>14.80715687541118</v>
+        <v>8.481355058950044</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>14.75640560435945</v>
+        <v>14.15493289953662</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.85759504899713</v>
+        <v>38.56947881682437</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>14.88067447119953</v>
+        <v>40.94310433940895</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>14.70493393523917</v>
+        <v>2.805654680605254</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>14.82801320463117</v>
+        <v>30.91804106778912</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>14.85732066110264</v>
+        <v>36.35178357416316</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>14.72608574934838</v>
+        <v>4.892334686921544</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>14.91984511506076</v>
+        <v>53.95276339488725</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>14.94644901185193</v>
+        <v>57.19204331572519</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>14.91032668984317</v>
+        <v>47.57094559440512</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>14.98022137195459</v>
+        <v>58.93147930755536</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>15.00370037700419</v>
+        <v>65.42358919172196</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>14.74770273791898</v>
+        <v>14.38787567183383</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14.93501492868789</v>
+        <v>53.12009121208973</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>14.95499777272321</v>
+        <v>58.25159997795107</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>14.73374312849783</v>
+        <v>18.14714320526221</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>14.86216372441556</v>
+        <v>39.43499618319039</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>14.89882320589766</v>
+        <v>46.39698119278263</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>14.6727838427241</v>
+        <v>0.6992021453461916</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>14.82745759419519</v>
+        <v>28.66988880984355</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>14.8651988067019</v>
+        <v>33.5800073029177</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>14.70281476406311</v>
+        <v>7.130167241514677</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>14.93979691468081</v>
+        <v>54.34934531823937</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>14.98822277546865</v>
+        <v>66.34360771168805</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>14.98406657760561</v>
+        <v>53.21700653726307</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>15.04523100701403</v>
+        <v>67.52949865281566</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>15.08708061222107</v>
+        <v>73.67254258307095</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>14.72685518238341</v>
+        <v>10.43213809504027</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>14.98030383985982</v>
+        <v>54.83827406573161</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>15.01073194793561</v>
+        <v>62.87334033764036</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.67887628184854</v>
+        <v>5.803615987382393</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>14.69428055969547</v>
+        <v>3.221434982154527</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>14.71584863306765</v>
+        <v>11.03443387751692</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>14.6512931235197</v>
+        <v>-0.8140848921511008</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>14.69622275179576</v>
+        <v>6.296193929299282</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>14.71490246277465</v>
+        <v>9.343154047225902</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>14.67098351975046</v>
+        <v>2.194437858368204</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>14.75231507541591</v>
+        <v>17.39095147757859</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>14.76807170997665</v>
+        <v>20.08434531079713</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>14.72563381387265</v>
+        <v>15.86766595050037</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>14.74491488781463</v>
+        <v>21.05032666241281</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>14.75514914517046</v>
+        <v>22.84968375558863</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>14.66600749699541</v>
+        <v>5.001634560668126</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>14.69923446518304</v>
+        <v>1.938638358570319</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>14.73733614725147</v>
+        <v>8.98431405067079</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>14.72030937393677</v>
+        <v>6.269103811626112</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>14.75819220368601</v>
+        <v>19.95555832968552</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>14.8015754248302</v>
+        <v>29.12959910498728</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>14.66432952482729</v>
+        <v>-1.083266346650557</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>14.72560112492828</v>
+        <v>11.50186611971163</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>14.77084851003593</v>
+        <v>21.82419913624533</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.67825793475233</v>
+        <v>1.117298784055833</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>14.7977731539404</v>
+        <v>23.96340418728947</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>14.84660812143829</v>
+        <v>37.02304298824406</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>14.78724107510796</v>
+        <v>26.55814799027355</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>14.85946163792178</v>
+        <v>38.16784397403826</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>14.8852430631771</v>
+        <v>49.09435771812064</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>14.68545420197</v>
+        <v>3.731023230022657</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>14.79975292954006</v>
+        <v>26.60915201784272</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>14.84882737719875</v>
+        <v>35.91802484714723</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>14.71554758000713</v>
+        <v>7.764231111952698</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>14.78406400900158</v>
+        <v>22.02875284673716</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>14.83279647254021</v>
+        <v>32.99265513869965</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>14.65573715368138</v>
+        <v>-1.815734818939013</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.75376301116689</v>
+        <v>15.99686234157511</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>14.79840030599682</v>
+        <v>26.09999968318279</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>14.67813398482366</v>
+        <v>2.259222191723804</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>14.84374165762208</v>
+        <v>32.94447490716402</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>14.90458404003583</v>
+        <v>47.03859609929511</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>14.89951375439118</v>
+        <v>41.93163078992937</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>14.96561656993905</v>
+        <v>54.93944260861179</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>15.00011192646795</v>
+        <v>61.81432820855579</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>14.7125347860695</v>
+        <v>8.356020539764284</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>14.89150323802972</v>
+        <v>37.83487661237182</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>14.94867719766638</v>
+        <v>50.81389613479263</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>14.69150049372795</v>
+        <v>1.00811586561607</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.70057577277211</v>
+        <v>2.91461644836474</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>14.7171618309117</v>
+        <v>8.975921123613315</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>14.66969097911254</v>
+        <v>-2.087316115575426</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>14.70513663513818</v>
+        <v>7.258027323996787</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.71778615178184</v>
+        <v>7.758767552482501</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>14.67859636963214</v>
+        <v>-0.384241559313697</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>14.7421376566669</v>
+        <v>15.16170256791908</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.75454846746262</v>
+        <v>14.99731872756908</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>14.7108758823549</v>
+        <v>10.08359764820792</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>14.72484072625714</v>
+        <v>11.33670943087375</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.74254090717428</v>
+        <v>14.49334162075592</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>14.66753311867227</v>
+        <v>4.083705864877714</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>14.68787684669429</v>
+        <v>5.420426507028697</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>14.71540922030508</v>
+        <v>9.223729045198413</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>14.67679739603309</v>
+        <v>1.09328253336653</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.69695682967086</v>
+        <v>5.294578180442279</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>14.73092551338002</v>
+        <v>15.33368032263619</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>14.63507097215939</v>
+        <v>-0.3459681113316826</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>14.67462010503339</v>
+        <v>-0.353766327642699</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.70775958121797</v>
+        <v>9.57665733210629</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>14.63461474234079</v>
+        <v>-2.343959861603153</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>14.72152166896457</v>
+        <v>4.182038381156016</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>14.76073079582229</v>
+        <v>20.82347136130346</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>14.69535205974985</v>
+        <v>0.6925343434454803</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.76003987588907</v>
+        <v>19.51316863798066</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>14.79179170048516</v>
+        <v>38.42792409021642</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>14.61176725751219</v>
+        <v>-3.260232568439157</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>14.68867530692757</v>
+        <v>4.202825616828321</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>14.72497772197117</v>
+        <v>7.703743992691532</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.67041945999256</v>
+        <v>-1.971883180520742</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>14.71011753076011</v>
+        <v>2.405288321928147</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>14.75240174206189</v>
+        <v>21.27056340146477</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.62621009756715</v>
+        <v>-2.650854257736082</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>14.68883313556107</v>
+        <v>1.041418545364056</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>14.72576157721789</v>
+        <v>14.73845239203897</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>14.63290444349207</v>
+        <v>-2.953653127142182</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>14.75217552775253</v>
+        <v>8.305203911445137</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>14.80584561838516</v>
+        <v>39.00039789049711</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>14.77505935124496</v>
+        <v>8.34074688219911</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>14.83482961733004</v>
+        <v>39.16338460837369</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>14.88334598424488</v>
+        <v>54.20564802556954</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.6210629931758</v>
+        <v>-8.21670059253978</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>14.74576647833073</v>
+        <v>9.134955123235059</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.79296141686881</v>
+        <v>17.96375931599901</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>14.72242845258347</v>
+        <v>5.440630208896977</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>14.77978033653711</v>
+        <v>15.35740842040778</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>14.80599436230694</v>
+        <v>33.43681289321334</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>14.71678281706146</v>
+        <v>3.942776384247217</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>14.80358690434635</v>
+        <v>35.30606816404921</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>14.82660100935678</v>
+        <v>41.73967976607263</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>14.73951111659632</v>
+        <v>7.502283860125036</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>14.8664290774137</v>
+        <v>58.24199045464537</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>14.88705061774725</v>
+        <v>65.03370586824956</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>14.86147618666158</v>
+        <v>42.25306024375102</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>14.88199869372987</v>
+        <v>46.16344899585243</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>14.88985861974284</v>
+        <v>47.13437875680082</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.75600721636105</v>
+        <v>27.4398565906712</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>14.84329255830417</v>
+        <v>31.85998516434487</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>14.88864065277085</v>
+        <v>59.31974622440902</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.70219806122684</v>
+        <v>6.22977822472647</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>14.78910595758961</v>
+        <v>24.73841641669841</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>14.82510348522843</v>
+        <v>28.95103094480258</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.65933004413871</v>
+        <v>-0.9393715337180488</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>14.7712810782765</v>
+        <v>21.04732481691654</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.80804009375175</v>
+        <v>24.10028906258982</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>14.67991675814231</v>
+        <v>0.7375447727910043</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>14.85304790847992</v>
+        <v>38.25238094852219</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>14.89352846967184</v>
+        <v>43.98331100445014</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>14.85755086422121</v>
+        <v>36.95069215792638</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>14.92606539003226</v>
+        <v>45.63214394719361</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>14.941896538189</v>
+        <v>50.92590863506701</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>14.70684171174878</v>
+        <v>15.77291901563823</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>14.87796668049172</v>
+        <v>38.99763451131969</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>14.91856911610342</v>
+        <v>44.04096567789723</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>14.69260532984811</v>
+        <v>11.08546392606686</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>14.80823406744792</v>
+        <v>25.59153900582076</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>14.85538986629457</v>
+        <v>37.03477141956144</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>14.64601232792555</v>
+        <v>1.814387984222602</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>14.79303827091932</v>
+        <v>27.40641245473262</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>14.83498257929048</v>
+        <v>32.55271385047837</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>14.67411026234875</v>
+        <v>5.639912939301269</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>14.89093031367405</v>
+        <v>46.87021762265817</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.94963231227173</v>
+        <v>63.60156779392907</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>14.94824818169542</v>
+        <v>49.81388183681449</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>15.00656199417664</v>
+        <v>59.55807830160349</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>15.04097403367178</v>
+        <v>68.1954607919599</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>14.70910882588426</v>
+        <v>15.3130851115967</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>14.9445280872524</v>
+        <v>46.25544108003767</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>14.996988510363</v>
+        <v>61.74970391506948</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>14.6940469493974</v>
+        <v>5.045118643528774</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.70685860663662</v>
+        <v>6.057578285050806</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>14.72378301515515</v>
+        <v>11.83736064971889</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>14.66508895007086</v>
+        <v>-1.434042627584091</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.69633938811399</v>
+        <v>0.8539080081851509</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>14.71312920710704</v>
+        <v>3.694898056521829</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>14.67890215395376</v>
+        <v>2.071832745235859</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>14.745942198821</v>
+        <v>12.40123518969985</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>14.75839516559969</v>
+        <v>16.69723409294411</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>14.72532908984923</v>
+        <v>11.85534277219514</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>14.73808747969987</v>
+        <v>14.00403119569592</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14.75407596752418</v>
+        <v>18.20059322662411</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>14.65494584054846</v>
+        <v>1.673342273307711</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>14.70297558710199</v>
+        <v>-1.256738208824405</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>14.72618713881275</v>
+        <v>4.393164690055883</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>14.69663963301245</v>
+        <v>0.6014619915063122</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>14.7239494310234</v>
+        <v>11.04298387440425</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>14.76121994899062</v>
+        <v>21.54645472509096</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>14.6459496045754</v>
+        <v>-5.457501789099023</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>14.68535883968379</v>
+        <v>-0.4697596474529639</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.72857723277834</v>
+        <v>12.6378116098859</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>14.65047474674248</v>
+        <v>-4.547712578268616</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>14.74465129752963</v>
+        <v>9.380533492050965</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>14.78643152953788</v>
+        <v>24.7853836908844</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>14.72302709980896</v>
+        <v>6.479567543142156</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>14.77689148542798</v>
+        <v>18.36129448740121</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>14.8158260045981</v>
+        <v>30.92409757018503</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>14.62428222169041</v>
+        <v>-6.452776583684876</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>14.73382348267554</v>
+        <v>10.62918524751672</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>14.76912316848275</v>
+        <v>21.02252826122779</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.7018965309183</v>
+        <v>5.544522987176979</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>14.75261418517794</v>
+        <v>14.51692611520057</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>14.79729266415803</v>
+        <v>27.84312153320408</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>14.64588544599525</v>
+        <v>-3.486627971125376</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>14.7131425929843</v>
+        <v>3.479098001248268</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>14.75851042523137</v>
+        <v>16.0100261142699</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.65888911630655</v>
+        <v>1.063057334426489</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>14.78930858242507</v>
+        <v>16.38091551794712</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>14.84471110794705</v>
+        <v>34.64194912448894</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>14.82728413557902</v>
+        <v>18.08860182644316</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>14.87464864017721</v>
+        <v>31.34740643375514</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>14.92330308302442</v>
+        <v>45.78322681790307</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>14.6525956262592</v>
+        <v>4.985768429496044</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>14.81478225038058</v>
+        <v>22.3071102883421</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>14.85780340571275</v>
+        <v>34.28857442887158</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>14.67901039278733</v>
+        <v>-0.3582068729957335</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>14.7063082502106</v>
+        <v>-2.056631807456803</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>14.71538092128564</v>
+        <v>5.319966364096434</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>14.66350504549601</v>
+        <v>-2.826793000118915</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>14.70466051565573</v>
+        <v>-0.100849693765074</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>14.71637090974093</v>
+        <v>2.052291960305631</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.67065179095533</v>
+        <v>-1.555947441959145</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.75558042543127</v>
+        <v>10.22588954568576</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>14.75958782858569</v>
+        <v>11.31735992585482</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>14.72672384919637</v>
+        <v>5.46530272441257</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>14.73686680033643</v>
+        <v>5.643464464312263</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>14.7437007429008</v>
+        <v>9.700324310282554</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>14.64442177982404</v>
+        <v>-1.918296697251769</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>14.69185116755045</v>
+        <v>-6.827924938254831</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>14.70869204515889</v>
+        <v>-6.214688922741214</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.73693910788762</v>
+        <v>12.74240480946714</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>14.79177121188161</v>
+        <v>28.22087670467346</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>14.81069966550618</v>
+        <v>32.32245040297775</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>14.70240972121318</v>
+        <v>3.731543659801236</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>14.76694070922709</v>
+        <v>19.42581567069869</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>14.79361100390985</v>
+        <v>26.05172905758603</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>14.70328311345319</v>
+        <v>6.560502970243908</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>14.82978059845621</v>
+        <v>39.05601277010506</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>14.85179300563455</v>
+        <v>45.89264716531196</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>14.8260903725652</v>
+        <v>36.54999887951675</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>14.87567079663994</v>
+        <v>44.91051159727766</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>14.89640898689392</v>
+        <v>51.82304434752806</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>14.70692827519239</v>
+        <v>11.35689625447363</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>14.8260548157444</v>
+        <v>37.01066378232049</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>14.84207018479926</v>
+        <v>42.87426592113135</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>14.73195253391424</v>
+        <v>15.10021548712126</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>14.81165319775585</v>
+        <v>30.33485915401069</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>14.84206373074162</v>
+        <v>41.17579040009092</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>14.68666255130453</v>
+        <v>0.2430178317783493</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>14.77987028570345</v>
+        <v>22.84433814214934</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>14.81433088122461</v>
+        <v>31.23088233074904</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>14.69692820361919</v>
+        <v>4.33577318471173</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>14.86150520290432</v>
+        <v>43.23911680911012</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.90180769973974</v>
+        <v>58.8304122981831</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>14.91130584538271</v>
+        <v>47.407201087522</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>14.95280806737639</v>
+        <v>57.20507233074783</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>14.98816947475142</v>
+        <v>66.97010920983681</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>14.71281140105003</v>
+        <v>8.139219956195172</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>14.88807861449036</v>
+        <v>44.69342585405784</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>14.91300831727565</v>
+        <v>52.64738375586977</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.7150717318163</v>
+        <v>10.02426962187053</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.7240587627562</v>
+        <v>10.31304170901102</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>14.73615595955397</v>
+        <v>15.01952406964141</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>14.69573252531303</v>
+        <v>2.531442418284161</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>14.72188835833882</v>
+        <v>7.863371244247999</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>14.73349549314008</v>
+        <v>10.18882132736129</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>14.70525447464299</v>
+        <v>10.22813882788254</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>14.76511779506396</v>
+        <v>22.57002554662469</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>14.77286825985786</v>
+        <v>21.71639392125119</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>14.74459438895627</v>
+        <v>18.9342406269976</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>14.75105242126108</v>
+        <v>21.43306715501042</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>14.76079259755803</v>
+        <v>24.52512164726058</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.70089987043686</v>
+        <v>8.571776967796612</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>14.72774942827752</v>
+        <v>7.583179606729336</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>14.748410303732</v>
+        <v>14.57880691161593</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>14.693638805782</v>
+        <v>1.31671889629353</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>14.71061760482031</v>
+        <v>6.474164527264202</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>14.737000247608</v>
+        <v>14.99715969561631</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>14.6455426624059</v>
+        <v>-3.243005204967716</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>14.67436797284916</v>
+        <v>-2.739839807591643</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.70400704814663</v>
+        <v>8.344412997834656</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>14.64750805876526</v>
+        <v>-3.777897836304259</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>14.72672313199974</v>
+        <v>3.871375453796073</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>14.75741348241925</v>
+        <v>18.33379193356649</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.6970859985611</v>
+        <v>6.139987921844856</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>14.73500211437733</v>
+        <v>13.74060197704608</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>14.76048605744688</v>
+        <v>26.9233265773245</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>14.634340948415</v>
+        <v>-2.513004757625382</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>14.70460854232713</v>
+        <v>6.726825016113034</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>14.72809965187126</v>
+        <v>15.49771121313534</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>14.71936839450258</v>
+        <v>12.853399797162</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>14.76114915256555</v>
+        <v>21.08930839659154</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>14.79358363733967</v>
+        <v>28.70223658443305</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>14.66372632370858</v>
+        <v>-1.865109977028673</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>14.72168153572242</v>
+        <v>8.678216409850499</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>14.75359095963347</v>
+        <v>16.17699282423028</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>14.675379854061</v>
+        <v>4.477522992881756</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>14.79197833924358</v>
+        <v>26.03506939509126</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>14.83436202904516</v>
+        <v>40.24665012283427</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>14.82083555283903</v>
+        <v>24.93438582426027</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>14.85133265582229</v>
+        <v>34.03349209569878</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>14.88597394170414</v>
+        <v>46.97930111686433</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>14.68610227390539</v>
+        <v>9.049877320519027</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.80520744325058</v>
+        <v>24.25923208193528</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>14.83385859333079</v>
+        <v>30.89684493104956</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>14.69799830831954</v>
+        <v>3.909212585594489</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.69268121342632</v>
+        <v>0.9981694078874668</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.69908403213435</v>
+        <v>4.244919488319336</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.67628588638889</v>
+        <v>0.07495915269162623</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.68579627884305</v>
+        <v>-1.618589774774772</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.69268129176794</v>
+        <v>-0.06024974740217104</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.68209219622106</v>
+        <v>6.770008758872379</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>14.72726952973551</v>
+        <v>7.824784351866379</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>14.72886796229808</v>
+        <v>7.130272848703118</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.69217427089987</v>
+        <v>4.287326851567933</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.69201824573464</v>
+        <v>2.493015103441053</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>14.70214380849403</v>
+        <v>4.794179390879254</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.66590775172656</v>
+        <v>3.824236506073259</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>14.67066696285414</v>
+        <v>-1.13440535029277</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>14.68342793287571</v>
+        <v>2.562200059034041</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>14.68744664844574</v>
+        <v>0.693132461041241</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.68713556147303</v>
+        <v>1.779298917338753</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>14.7058806767561</v>
+        <v>3.933909805625682</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>14.63841298951539</v>
+        <v>-1.309084594742828</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>14.64789806521996</v>
+        <v>-4.907461793711935</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.67105086973551</v>
+        <v>-0.1885769628899006</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>14.635802994703</v>
+        <v>-1.273610280870201</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>14.6970073067961</v>
+        <v>-1.772398984896967</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.71932246042245</v>
+        <v>2.431536291653249</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>14.65179555913436</v>
+        <v>-2.062688388425471</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>14.68067982531185</v>
+        <v>2.513689317761273</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>14.70802877167207</v>
+        <v>4.847161086778041</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>14.60868195863675</v>
+        <v>-3.642308212135678</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>14.65051277096192</v>
+        <v>-2.257117243616914</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.66426140158967</v>
+        <v>-0.1358997077900277</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>14.71563546377391</v>
+        <v>14.24572162847604</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>14.73839871744163</v>
+        <v>16.92552945829841</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>14.765101032111</v>
+        <v>21.6240983117708</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>14.65677170132956</v>
+        <v>1.098134554404158</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>14.69306320446549</v>
+        <v>5.488486733576107</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.72092328596971</v>
+        <v>10.48445342718523</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.66578278753952</v>
+        <v>7.877313174699719</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>14.76291344139068</v>
+        <v>18.58649369473316</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.79918081028809</v>
+        <v>27.18622032475719</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>14.77802404949957</v>
+        <v>18.36615159026078</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>14.80128562573422</v>
+        <v>23.3296815990826</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>14.83825154364468</v>
+        <v>30.71272442828078</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>14.66430766724523</v>
+        <v>11.6703382568777</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>14.75311635581037</v>
+        <v>15.84843729279882</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>14.77358749304534</v>
+        <v>22.0731152212422</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>14.74348606980806</v>
+        <v>15.36939592728219</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>14.76078976115943</v>
+        <v>23.82634983913105</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.77636837549831</v>
+        <v>32.92759128393278</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>14.71474138215074</v>
+        <v>1.804325693366899</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>14.76045774992614</v>
+        <v>16.64327787926799</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>14.77077489708177</v>
+        <v>21.99821052614753</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>14.72924553230351</v>
+        <v>10.48630314686723</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>14.80091944518463</v>
+        <v>36.76474242352297</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>14.81191285804486</v>
+        <v>41.35604946316059</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>14.79382820692644</v>
+        <v>30.73531619160081</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>14.80412103040577</v>
+        <v>34.43279312930022</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>14.81541455428396</v>
+        <v>38.15072844657961</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.75616942385821</v>
+        <v>20.80665021383332</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>14.786763994764</v>
+        <v>33.83974979456154</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>14.81625149148521</v>
+        <v>41.43750367245514</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.71449158429171</v>
+        <v>10.91392950370762</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.7420247110171</v>
+        <v>19.01892423738146</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>14.77277672036271</v>
+        <v>25.56130428221296</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>14.657141883428</v>
+        <v>-2.178470538019386</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>14.7054014033243</v>
+        <v>0.7752218941102704</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>14.73387219008101</v>
+        <v>8.206755584165553</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>14.66494247173402</v>
+        <v>2.080990134640306</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.75920415759023</v>
+        <v>14.98683854933005</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>14.79448363429388</v>
+        <v>23.5533745181297</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.75278521855523</v>
+        <v>14.71902505056505</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>14.80697692806019</v>
+        <v>21.74067125386674</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>14.8238323906417</v>
+        <v>30.40189062080099</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.67851184573929</v>
+        <v>6.771001222479878</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>14.7633512632565</v>
+        <v>16.46283904846142</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>14.79971236389947</v>
+        <v>22.78393278126252</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>14.72815889245099</v>
+        <v>16.16485489086753</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>14.77657145838293</v>
+        <v>24.93095937479734</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>14.81240030177169</v>
+        <v>37.43659379518852</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>14.66780672898249</v>
+        <v>0.7839920883475919</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>14.74074780713338</v>
+        <v>10.62761315531458</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>14.76962656810544</v>
+        <v>17.92235125315684</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>14.68252110385392</v>
+        <v>5.275313593993872</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>14.81055748780234</v>
+        <v>29.92031004351201</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>14.85653361021311</v>
+        <v>42.76839023217774</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>14.8571470035999</v>
+        <v>34.87654897026199</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>14.90331875312859</v>
+        <v>44.9875981544595</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.9323545457055</v>
+        <v>51.31468632308081</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>14.71351537852544</v>
+        <v>14.13512145274805</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>14.8433728932242</v>
+        <v>31.84856744381311</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>14.88862403697219</v>
+        <v>40.78980239396022</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.74710428216652</v>
+        <v>12.50451086149653</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>14.78296600247343</v>
+        <v>29.32643631223516</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.79783846024421</v>
+        <v>37.97568950036516</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>14.7299383669961</v>
+        <v>5.95556725595408</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>14.78374057352591</v>
+        <v>28.93203946740433</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>14.79927273158149</v>
+        <v>33.46302526083861</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.74599689167039</v>
+        <v>12.21410180551108</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>14.83300955186838</v>
+        <v>51.78030563673799</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>14.84384485459825</v>
+        <v>57.19702450568503</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>14.83414796290896</v>
+        <v>47.00776600081375</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>14.84581456438229</v>
+        <v>47.91744136573359</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>14.86114655143636</v>
+        <v>55.37583692720759</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.73983015276242</v>
+        <v>10.4632801140691</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>14.81521268477948</v>
+        <v>32.59537985729807</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.8420366707282</v>
+        <v>43.40234853544983</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>14.72832187203396</v>
+        <v>8.297358359526786</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>14.7794667268659</v>
+        <v>24.89480571208653</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>14.80773591689184</v>
+        <v>31.93891659773814</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>14.6886003254056</v>
+        <v>1.077296166787665</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>14.75225659171008</v>
+        <v>14.36360399995272</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>14.78599001744135</v>
+        <v>23.0358703650209</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>14.69609750062353</v>
+        <v>1.30097364791099</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>14.81019931433434</v>
+        <v>29.15619717195282</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>14.84230556705116</v>
+        <v>40.53728015632761</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>14.81109970634411</v>
+        <v>32.68175459746658</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>14.85691289123998</v>
+        <v>39.99447914260084</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>14.88939466740317</v>
+        <v>48.26808790913155</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>14.68569204764496</v>
+        <v>3.592056868607447</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>14.81607840981353</v>
+        <v>29.51749350344512</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>14.84719392456524</v>
+        <v>38.98134053236287</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>14.71957834099629</v>
+        <v>7.658320706286121</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>14.79456239256661</v>
+        <v>25.34784020514015</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>14.83188862696142</v>
+        <v>36.84844840972266</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>14.67133965325663</v>
+        <v>-1.836434265465876</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>14.76304560565681</v>
+        <v>18.5293015508549</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>14.80169039360235</v>
+        <v>27.98855116169224</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>14.6873215937792</v>
+        <v>-0.01103929625018907</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>14.83713901513655</v>
+        <v>33.99465007450526</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>14.88426861786192</v>
+        <v>53.78410485477611</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>14.88714295932878</v>
+        <v>40.00709262365833</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>14.92578197999533</v>
+        <v>51.20263049117943</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>14.97158422844538</v>
+        <v>65.97241063745216</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>14.68602377802331</v>
+        <v>-0.07278030318891027</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>14.86848139342164</v>
+        <v>36.66857872886473</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>14.90824712404066</v>
+        <v>49.67530069086949</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>14.73285370483628</v>
+        <v>6.458062076930462</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>14.76581709948068</v>
+        <v>19.66840800635912</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>14.78177904087356</v>
+        <v>32.99288226789674</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>14.71835952465107</v>
+        <v>4.266930975385694</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>14.77681614233047</v>
+        <v>34.84922647734805</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>14.78871284294163</v>
+        <v>39.79598066753542</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>14.73018348910132</v>
+        <v>9.420129591446287</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>14.81273744639383</v>
+        <v>52.53551800088984</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>14.8248172977032</v>
+        <v>59.60681322785443</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>14.80574928520371</v>
+        <v>38.46561022297713</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>14.81891028093286</v>
+        <v>39.25466922538728</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>14.83015204317096</v>
+        <v>41.82523443520641</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>14.74281202068887</v>
+        <v>13.16722915247544</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>14.79358546278124</v>
+        <v>27.67812022070408</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>14.82802736706949</v>
+        <v>50.37963383847469</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>14.7270199573195</v>
+        <v>11.63834509700997</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>14.77689424544645</v>
+        <v>27.42056643719654</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>14.80404000158934</v>
+        <v>32.39461048454802</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>14.69281973472421</v>
+        <v>1.084363031017332</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>14.76218405900786</v>
+        <v>17.2912063908619</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>14.78798898292083</v>
+        <v>22.17161408718821</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>14.69913027013499</v>
+        <v>1.162979832399131</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>14.81019498825803</v>
+        <v>32.55072607064107</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>14.84129279525845</v>
+        <v>41.05766193442414</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>14.81416818975017</v>
+        <v>29.90219489969009</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>14.86917701092356</v>
+        <v>39.71636101152322</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>14.88555739874805</v>
+        <v>50.26968228151026</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>14.70925528255063</v>
+        <v>4.862494577387743</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>14.82096692119685</v>
+        <v>29.26676560562582</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>14.8595121731667</v>
+        <v>38.95372048658652</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.71523715622228</v>
+        <v>11.04016358779267</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>14.7842980925129</v>
+        <v>26.44763844438769</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>14.81634894421221</v>
+        <v>36.8134366394051</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>14.67782009036136</v>
+        <v>2.108254015905938</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>14.76984168981295</v>
+        <v>21.95729026354915</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>14.79628429998952</v>
+        <v>28.91409860544155</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>14.68916008803273</v>
+        <v>2.223116689651722</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>14.83061288734691</v>
+        <v>39.99624004017595</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>14.87161670581571</v>
+        <v>55.08620842291371</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>14.87314279196966</v>
+        <v>43.77116560092694</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>14.92034280163039</v>
+        <v>53.6776279423183</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>14.95009546133481</v>
+        <v>65.0436818181276</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>14.70508849414406</v>
+        <v>2.573526870592772</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>14.8605497992121</v>
+        <v>34.61396849181037</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>14.90693134006516</v>
+        <v>49.62489749098232</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.74848377821274</v>
+        <v>17.32307588377677</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>14.76327912650198</v>
+        <v>23.6371546891091</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>14.77403845251286</v>
+        <v>36.73013760892669</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.74879618787634</v>
+        <v>14.65471359024732</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>14.78419523702645</v>
+        <v>43.98157462980006</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>14.79115346905561</v>
+        <v>47.7668032180986</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.74788238599514</v>
+        <v>18.26392653593538</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>14.79815268159829</v>
+        <v>50.67616448109202</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>14.80618352776582</v>
+        <v>57.51841533681917</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>14.79155710389486</v>
+        <v>37.79180519688666</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>14.79918962180382</v>
+        <v>39.52367007835971</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>14.81067621736586</v>
+        <v>43.64285760766819</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>14.76094148609798</v>
+        <v>25.47924829487945</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>14.78090613930011</v>
+        <v>25.16423400721579</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>14.80640455636288</v>
+        <v>42.79822055082529</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>14.75009152788264</v>
+        <v>20.82421628477655</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>14.77357141630723</v>
+        <v>31.78165080198676</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>14.79395192128613</v>
+        <v>38.5631412662821</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>14.7460319183184</v>
+        <v>32.70907287134406</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>14.78482128219796</v>
+        <v>41.08652860974887</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>14.80340351887534</v>
+        <v>47.95737580231191</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.73294894176697</v>
+        <v>12.96335601600205</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>14.80004822541958</v>
+        <v>36.40602520689853</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>14.8235644006538</v>
+        <v>47.78168400189234</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>14.8010426720048</v>
+        <v>33.31122070427432</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>14.83865442443921</v>
+        <v>43.0918706832919</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>14.85510245098211</v>
+        <v>51.29319882825256</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>14.74075250981836</v>
+        <v>17.44192048062267</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>14.80056960135164</v>
+        <v>31.96940175237499</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>14.83163064247888</v>
+        <v>41.57006642404781</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>14.74539699603818</v>
+        <v>19.06455691060737</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>14.78153230157688</v>
+        <v>29.3749058191246</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>14.80423699844644</v>
+        <v>37.80864735257812</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>14.74098760804432</v>
+        <v>32.73261724780758</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>14.79469158647105</v>
+        <v>45.40746359738381</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>14.81253594810768</v>
+        <v>46.97046821615569</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>14.73170751833279</v>
+        <v>13.41169858801543</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>14.81966105989656</v>
+        <v>44.22235121754973</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>14.84918546203653</v>
+        <v>56.89845836984511</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>14.85154770926719</v>
+        <v>47.9047986626266</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>14.88402259677957</v>
+        <v>56.15421762377537</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>14.90937217591344</v>
+        <v>66.65082871897081</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>14.74651673241626</v>
+        <v>15.19155401688686</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>14.83517956183992</v>
+        <v>36.00593314645174</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>14.87199802491689</v>
+        <v>52.9645682627959</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>14.73271141575585</v>
+        <v>6.007124070584783</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.76626546413574</v>
+        <v>20.73839490102888</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>14.78074043558361</v>
+        <v>31.45528125286494</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>14.71195591355682</v>
+        <v>-1.357590925461</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>14.7629656631436</v>
+        <v>19.92696087788659</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>14.77568267159312</v>
+        <v>22.40619019749881</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>14.72655644094688</v>
+        <v>2.171800406150304</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>14.80939991354585</v>
+        <v>41.11011200463915</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>14.82003534445136</v>
+        <v>47.6811880865143</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>14.81395016644906</v>
+        <v>43.24731671218662</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>14.82582052151934</v>
+        <v>41.50186158879695</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>14.83426621317898</v>
+        <v>44.30347404159939</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>14.71824740505967</v>
+        <v>-2.111526791308499</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.79123161976021</v>
+        <v>25.46141307358757</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.81454456947606</v>
+        <v>33.86098889731704</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>14.71430146631382</v>
+        <v>7.4964669251335</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.76460928471586</v>
+        <v>24.2697139050709</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>14.78968760022704</v>
+        <v>28.70680631241358</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>14.67162451892582</v>
+        <v>-1.010818184169093</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>14.73434217240433</v>
+        <v>15.19285041427438</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>14.76179107495489</v>
+        <v>19.57538988053166</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>14.67863361496008</v>
+        <v>-0.6545992802720946</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>14.78981565421519</v>
+        <v>29.54727345599785</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>14.8183396796229</v>
+        <v>38.24783726767609</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>14.79686626190414</v>
+        <v>31.08958982768685</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>14.84361445060992</v>
+        <v>37.15142802562188</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>14.86332356324654</v>
+        <v>44.38369777234363</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>14.66477721689419</v>
+        <v>-0.5538032898252467</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>14.79447018584152</v>
+        <v>27.79505152620341</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>14.82099175379737</v>
+        <v>35.03392247959057</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>14.70894880385477</v>
+        <v>7.245182018821682</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>14.78070504814111</v>
+        <v>23.74326851987897</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>14.81351663014157</v>
+        <v>34.34199645993891</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>14.66104036666185</v>
+        <v>-3.13157060812124</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>14.74885789202337</v>
+        <v>18.0247777746529</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>14.77989423261619</v>
+        <v>23.56206268868722</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>14.67488839659042</v>
+        <v>-1.86124381491911</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>14.81873185441627</v>
+        <v>33.9046733782246</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>14.86047883337955</v>
+        <v>49.93443762570503</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>14.86827171474861</v>
+        <v>42.07800408317694</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>14.90828218755358</v>
+        <v>53.59654130429915</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>14.94031557602089</v>
+        <v>62.03425153959489</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.6641355989992</v>
+        <v>-3.197453781042789</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>14.84395066793347</v>
+        <v>35.36883676964379</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>14.87878600318577</v>
+        <v>46.44600357489826</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.7111904966455</v>
+        <v>8.743067673645669</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.72253421211954</v>
+        <v>8.78930254133903</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>14.73466762993725</v>
+        <v>16.7768554698273</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>14.68691357712126</v>
+        <v>1.45012573443012</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>14.72083932583038</v>
+        <v>9.219595821556601</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.72967957217809</v>
+        <v>12.40361541062278</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.70222874626439</v>
+        <v>7.603008581929361</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>14.75884632537853</v>
+        <v>19.85414434406902</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>14.76723004600065</v>
+        <v>24.87304022709787</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>14.74439904195997</v>
+        <v>16.23942726100089</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>14.74966266072638</v>
+        <v>18.00686636624298</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.75573711811414</v>
+        <v>21.42523588725829</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>14.6957185621799</v>
+        <v>3.526600704865849</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>14.72030969717065</v>
+        <v>6.171219991504913</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.74148664007224</v>
+        <v>13.40037519811259</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>14.7198998032626</v>
+        <v>3.452029164869767</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>14.74451143963684</v>
+        <v>15.84614978710843</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>14.77074779811444</v>
+        <v>24.89598696704925</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>14.67738122533146</v>
+        <v>-3.763973658629453</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>14.71879692154167</v>
+        <v>6.196346632159914</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>14.74501823876965</v>
+        <v>15.61164717350534</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>14.68596716109079</v>
+        <v>-4.037028312187573</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>14.76646539570636</v>
+        <v>15.02866417067482</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>14.79656149898715</v>
+        <v>28.76978804142353</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>14.7644055892954</v>
+        <v>19.39525550066475</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>14.80547598946711</v>
+        <v>25.68724764288979</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.81873755487174</v>
+        <v>36.28489207458676</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>14.67723641042303</v>
+        <v>-5.704153235203002</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>14.75849102703263</v>
+        <v>16.0840285577265</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>14.78805614548363</v>
+        <v>26.80646734449076</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>14.71663788666262</v>
+        <v>6.773709861026489</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>14.76081748431042</v>
+        <v>19.09050348213072</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>14.79090027192583</v>
+        <v>29.7419953607847</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>14.67092886511192</v>
+        <v>-4.031949264707478</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>14.73550692605486</v>
+        <v>10.12766324809989</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>14.76148892678381</v>
+        <v>18.78529082958304</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>14.68540928469001</v>
+        <v>-0.085433859619922</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>14.79618128876882</v>
+        <v>25.34637942461502</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>14.83487623051989</v>
+        <v>38.89285704106273</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>14.83653005537073</v>
+        <v>29.60497908506278</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>14.87123997884221</v>
+        <v>38.34305409834609</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>14.89153074452551</v>
+        <v>43.99491580194812</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>14.68764827270322</v>
+        <v>-2.828192254442332</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>14.81343991654635</v>
+        <v>22.81817567375264</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>14.84989675611859</v>
+        <v>38.15540953460022</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>14.72450194118363</v>
+        <v>9.979384193385028</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>14.73607521314038</v>
+        <v>11.9849560946235</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.74792167510394</v>
+        <v>21.00037197765729</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.71578791327925</v>
+        <v>1.450052062046431</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>14.74747020488492</v>
+        <v>19.80786623133305</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.75538782018721</v>
+        <v>20.65626143637537</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>14.71917075237659</v>
+        <v>9.560714363707646</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>14.76553101226257</v>
+        <v>30.49039459872426</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>14.7747028847963</v>
+        <v>34.50901308807766</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>14.75581798565315</v>
+        <v>24.12459443056659</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>14.76330916288415</v>
+        <v>25.60127047754071</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.77594244581292</v>
+        <v>32.91693866493797</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>14.72625039343472</v>
+        <v>9.33885853950248</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>14.74414163049423</v>
+        <v>11.94704630369492</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>14.7699016936441</v>
+        <v>23.8483040019626</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>14.71788297758068</v>
+        <v>7.59497898500747</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>14.736879696339</v>
+        <v>18.05890072459871</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>14.76033176944739</v>
+        <v>29.53924209977237</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>14.70151534581221</v>
+        <v>6.24719412323085</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>14.7352742751543</v>
+        <v>11.07225932419515</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>14.75696828999669</v>
+        <v>26.70485357308263</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>14.69499055070393</v>
+        <v>1.207670972891833</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>14.75669312029211</v>
+        <v>18.34790859294121</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>14.78340043130619</v>
+        <v>35.14927800552218</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>14.75248035321309</v>
+        <v>16.89383433441618</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>14.78990845965586</v>
+        <v>29.65154067970412</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>14.8085683307788</v>
+        <v>42.97074267989962</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>14.69305571905533</v>
+        <v>-2.526283617071208</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>14.74944906082368</v>
+        <v>16.0153445713459</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>14.78302191056556</v>
+        <v>29.18651126282653</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.70882838002886</v>
+        <v>7.635180567040958</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>14.74017290781234</v>
+        <v>16.16923278180051</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>14.76571311731312</v>
+        <v>27.01253869648344</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>14.69054443724945</v>
+        <v>3.52188036761973</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>14.73888678042364</v>
+        <v>13.6210110892489</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>14.75955953854229</v>
+        <v>20.72191776398194</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>14.68850477247728</v>
+        <v>-0.1064040780656974</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>14.77065453774306</v>
+        <v>24.18498717357479</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>14.80304874222267</v>
+        <v>39.4199627798108</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>14.79672834725765</v>
+        <v>32.97389356115745</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>14.82868507161657</v>
+        <v>38.98606972041215</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>14.85571901475071</v>
+        <v>51.77937860553593</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.69279217714077</v>
+        <v>-4.639681864269495</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>14.77725176074274</v>
+        <v>16.5731631361803</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>14.81674718746296</v>
+        <v>37.93419865322038</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>14.75068095134534</v>
+        <v>15.01206183854453</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>14.77954125981388</v>
+        <v>23.98416914415009</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.79787007336282</v>
+        <v>35.44151959212734</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>14.73167316656294</v>
+        <v>6.397751539884744</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>14.79257401517306</v>
+        <v>36.58943601037836</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>14.80844433970255</v>
+        <v>42.23688190350778</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>14.75437337434687</v>
+        <v>15.74145348673</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>14.83561853796574</v>
+        <v>59.63012479922616</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>14.84943565772783</v>
+        <v>61.77606968782152</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>14.82829612325407</v>
+        <v>39.5985169078366</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>14.84144591872947</v>
+        <v>42.52568338010286</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>14.85311868442903</v>
+        <v>45.85469876138899</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>14.77382552356881</v>
+        <v>24.43012083943995</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>14.81323483346169</v>
+        <v>28.94475234822372</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>14.85551098171155</v>
+        <v>57.67025444810429</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>14.74980643130626</v>
+        <v>19.64061800792658</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>14.79309325243578</v>
+        <v>31.29749979033829</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>14.82142792428644</v>
+        <v>36.3426712438771</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>14.70458575884057</v>
+        <v>5.507183789646458</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>14.77457522420365</v>
+        <v>22.6133310427435</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>14.80389461764656</v>
+        <v>29.05917073355452</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>14.71713914086737</v>
+        <v>7.748773401982683</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>14.82539571300381</v>
+        <v>37.89765396475019</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>14.85735362717127</v>
+        <v>45.315604000847</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>14.82341152295212</v>
+        <v>37.73983356407422</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>14.87481496575115</v>
+        <v>43.3907730155326</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>14.8943374448758</v>
+        <v>51.11768586289527</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>14.73425730144262</v>
+        <v>16.48323230775366</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>14.83074298266706</v>
+        <v>35.77841888331715</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>14.87511046962661</v>
+        <v>44.62004928061678</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>14.73870606889052</v>
+        <v>17.87072739802194</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>14.80420261786855</v>
+        <v>29.87388273025753</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>14.83504006727734</v>
+        <v>38.99322924467101</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>14.69063266666666</v>
+        <v>3.317412670584851</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>14.78760143696071</v>
+        <v>24.40435039937647</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>14.81544022345731</v>
+        <v>31.76047620328008</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>14.7115290417702</v>
+        <v>6.421018414759818</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>14.85400099703552</v>
+        <v>44.74949479571131</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>14.89361980175983</v>
+        <v>58.25599442731291</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>14.89568879435375</v>
+        <v>47.0659155371256</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>14.94079920116914</v>
+        <v>56.48987536000976</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>14.97047970454092</v>
+        <v>67.03709102161164</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>14.74002057942437</v>
+        <v>12.74527154882858</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>14.88366212603397</v>
+        <v>39.70683018877406</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>14.93405230241121</v>
+        <v>55.80613610834898</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>14.72763657107557</v>
+        <v>4.185868136937707</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>14.76177608854963</v>
+        <v>16.80831792144575</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>14.77728611800818</v>
+        <v>27.78284767623282</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>14.70772803702964</v>
+        <v>-0.2728698173024426</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>14.76106888391262</v>
+        <v>19.90390292720157</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>14.77374787549402</v>
+        <v>21.92886508454583</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>14.72228619660993</v>
+        <v>1.329880607795417</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>14.80661726922577</v>
+        <v>36.68418709862912</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>14.81861913218483</v>
+        <v>44.62348798156578</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>14.81020575378427</v>
+        <v>38.34651158307521</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>14.82402273483971</v>
+        <v>41.54100217160632</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>14.82954973253255</v>
+        <v>43.13024807043165</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>14.71308848163875</v>
+        <v>-3.366480475041406</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>14.78697690627697</v>
+        <v>24.7936215409065</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>14.81181207620627</v>
+        <v>30.94379934361054</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>14.71825380565674</v>
+        <v>7.761830711081616</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>14.76956241236162</v>
+        <v>24.80378141373411</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>14.79660400422221</v>
+        <v>28.98044526744226</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>14.67826296378709</v>
+        <v>0.5201084795424755</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>14.74357913979448</v>
+        <v>16.18675314623161</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>14.77173676240139</v>
+        <v>21.90135957906574</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>14.68441827571051</v>
+        <v>2.139500368746006</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>14.79773728591254</v>
+        <v>32.21453221122801</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>14.82883985231336</v>
+        <v>42.34641820444251</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>14.80670811917732</v>
+        <v>33.29195604230988</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>14.85642401464397</v>
+        <v>40.52156698341537</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>14.87321295264643</v>
+        <v>46.80200646823265</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>14.67017842622688</v>
+        <v>0.1874214309599118</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>14.80271292446208</v>
+        <v>29.5902874518156</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>14.83189275920595</v>
+        <v>37.60303670267262</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>14.70537468727793</v>
+        <v>6.887370058629386</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>14.77811828213854</v>
+        <v>23.29397841367129</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>14.81241182774533</v>
+        <v>32.88459881281016</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>14.66044065045298</v>
+        <v>-2.713072261897977</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>14.75094948475303</v>
+        <v>18.72318331093989</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>14.7819638987194</v>
+        <v>22.77446793337492</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>14.67276528731755</v>
+        <v>-1.797962935246552</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>14.8188775604352</v>
+        <v>33.45122438882595</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>14.86276544785501</v>
+        <v>48.18113944116097</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>14.86803924683413</v>
+        <v>40.26570202640451</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>14.91153504404409</v>
+        <v>52.00397985432367</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>14.94070462932822</v>
+        <v>60.71005075585097</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>14.65941236777366</v>
+        <v>-3.583808992643654</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>14.84252216181157</v>
+        <v>33.91340433524132</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>14.88014073566712</v>
+        <v>46.84903656539051</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.770550917822931</v>
+        <v>5.770550917822895</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.902586585066953</v>
+        <v>7.902586585066903</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.78730277454786</v>
+        <v>15.78730277454784</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.356935460608764</v>
+        <v>-1.356935460608785</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.33926378749242</v>
+        <v>10.33926378749256</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.49669357433602</v>
+        <v>13.49669357433607</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.269607174158658</v>
+        <v>2.269607174158629</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.77204397703051</v>
+        <v>19.77204397703043</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.96853983799932</v>
+        <v>23.96853983799924</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.79707310089943</v>
+        <v>14.79707310089956</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.95287141602094</v>
+        <v>16.95287141602082</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23.16895572276372</v>
+        <v>23.1689557227635</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.30638282673825</v>
+        <v>2.306382826738307</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.433643620748482</v>
+        <v>7.433643620748445</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16.6476430467825</v>
+        <v>16.6476430467827</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.412262883667561</v>
+        <v>8.412262883667422</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.40205561432058</v>
+        <v>23.40205561432063</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.60163603167821</v>
+        <v>33.60163603167823</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.076857077627857</v>
+        <v>-1.076857077627935</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.325247004214413</v>
+        <v>8.325247004214445</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.94542870637462</v>
+        <v>20.94542870637471</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1946653302795944</v>
+        <v>0.194665330279495</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.57407668687594</v>
+        <v>23.57407668687589</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.49516408537546</v>
+        <v>38.49516408537534</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.29246114184285</v>
+        <v>24.2924611418428</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.16971231952766</v>
+        <v>38.16971231952732</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>56.95681665909648</v>
+        <v>56.95681665909658</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.8101977931251483</v>
+        <v>-0.8101977931253366</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.66311879323518</v>
+        <v>26.66311879323514</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.20571831232865</v>
+        <v>41.20571831232861</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10.01657782894633</v>
+        <v>10.01657782894631</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24.84863141349757</v>
+        <v>24.84863141349754</v>
       </c>
     </row>
     <row r="34">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.5847334328626062</v>
+        <v>-0.5847334328624783</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>12.68202030546181</v>
+        <v>12.68202030546184</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23.95068995117464</v>
+        <v>23.95068995117494</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2044557786659773</v>
+        <v>0.2044557786659276</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.25468398520801</v>
+        <v>31.25468398520778</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>44.34773772691044</v>
+        <v>44.34773772691029</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.12989447291503</v>
+        <v>35.1298944729149</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48.11036927039517</v>
+        <v>48.11036927039503</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>62.18969483067268</v>
+        <v>62.18969483067252</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.133115689676487</v>
+        <v>3.133115689676451</v>
       </c>
     </row>
     <row r="45">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.44429187654687</v>
+        <v>46.44429187654688</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.53680466325104</v>
+        <v>2.53680466325098</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.06656194046246</v>
+        <v>27.06656194046228</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.18851089093672</v>
+        <v>37.18851089093648</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.386559847713244</v>
+        <v>1.386559847713183</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>33.08181354610908</v>
+        <v>33.08181354610916</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.26446130072203</v>
+        <v>38.26446130072202</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.939595018093179</v>
+        <v>5.939595018093133</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>57.51291641645824</v>
+        <v>57.51291641645818</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>63.07789606482907</v>
+        <v>63.07789606482923</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49.46097837135861</v>
+        <v>49.46097837135841</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>50.32204513250345</v>
+        <v>50.3220451325033</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.45116551181937</v>
+        <v>52.45116551181931</v>
       </c>
     </row>
     <row r="59">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.98261578318587</v>
+        <v>31.98261578318564</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.8869336004507</v>
+        <v>45.88693360045075</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.068146685696707</v>
+        <v>2.068146685696696</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.66671078982283</v>
+        <v>26.66671078982269</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.24055524974314</v>
+        <v>34.24055524974291</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-3.432539666194636</v>
+        <v>-3.432539666194728</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>16.21991882192427</v>
+        <v>16.21991882192413</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.44338190268287</v>
+        <v>26.4433819026827</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1.759727091037789</v>
+        <v>-1.75972709103786</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.48428749564393</v>
+        <v>36.48428749564378</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.10417729669754</v>
+        <v>48.10417729669729</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>38.7773003196322</v>
+        <v>38.77730031963221</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>50.03125892731079</v>
+        <v>50.03125892731086</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>59.69764076287259</v>
+        <v>59.69764076287262</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-2.80160954850076</v>
+        <v>-2.801609548500799</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.29476497015636</v>
+        <v>39.29476497015615</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>48.12249252351121</v>
+        <v>48.12249252351077</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2.768985536140743</v>
+        <v>2.768985536140761</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.51257438508722</v>
+        <v>30.51257438508718</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.85833716500288</v>
+        <v>40.85833716500289</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-3.783612493767684</v>
+        <v>-3.783612493767833</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.0860409149747</v>
+        <v>25.08604091497449</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.72592003719247</v>
+        <v>33.72592003719237</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.9874317580778715</v>
+        <v>0.9874317580779177</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>49.45898264302262</v>
+        <v>49.45898264302227</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>68.37540625087479</v>
+        <v>68.3754062508747</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50.01671935431308</v>
+        <v>50.01671935431276</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>64.4931737901358</v>
+        <v>64.49317379013559</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>74.69848322624406</v>
+        <v>74.69848322624384</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-4.111544008082692</v>
+        <v>-4.111544008082742</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>48.28302269977107</v>
+        <v>48.28302269977104</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>59.50691338229223</v>
+        <v>59.50691338229225</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.60277593924847</v>
+        <v>14.60277593924848</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.02137756519545</v>
+        <v>26.02137756519525</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.3785100144611</v>
+        <v>35.37851001446104</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.198926781535974</v>
+        <v>2.198926781535992</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.26672004979794</v>
+        <v>25.26672004979782</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.71569205700565</v>
+        <v>28.71569205700556</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.055389072351005</v>
+        <v>7.055389072351108</v>
       </c>
     </row>
     <row r="99">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.82804053290536</v>
+        <v>51.8280405329055</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.77108437423826</v>
+        <v>36.77108437423796</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>45.01327559082441</v>
+        <v>45.01327559082431</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.39696264214231</v>
+        <v>44.39696264214227</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.33694375463458</v>
+        <v>11.3369437546345</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.68790667600635</v>
+        <v>24.6879066760062</v>
       </c>
     </row>
     <row r="106">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.27699458945603</v>
+        <v>14.27699458945606</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.93928489020379</v>
+        <v>32.93928489020372</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.44305863562142</v>
+        <v>38.4430586356213</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.565398282374147</v>
+        <v>1.565398282374183</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>21.51385758089603</v>
+        <v>21.51385758089595</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.46398248768744</v>
+        <v>28.46398248768729</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.179330554982865</v>
+        <v>3.179330554982879</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>41.69859466316603</v>
+        <v>41.69859466316594</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>52.06194341450067</v>
+        <v>52.06194341450045</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>43.03680180560238</v>
+        <v>43.03680180560245</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>54.37189456788199</v>
+        <v>54.37189456788211</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.05205347717555</v>
+        <v>60.05205347717521</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>14.22466415598452</v>
+        <v>14.2246641559845</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.17260018428568</v>
+        <v>40.17260018428554</v>
       </c>
     </row>
     <row r="121">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.03202801810119</v>
+        <v>18.03202801810117</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.97919319110812</v>
+        <v>33.97919319110788</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.51304079382135</v>
+        <v>44.51304079382133</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.2303830725234235</v>
+        <v>0.2303830725233489</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.92667939992142</v>
+        <v>25.92667939992124</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.61993010134223</v>
+        <v>32.61993010134215</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4.265834289263861</v>
+        <v>4.265834289263779</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>48.38898753410768</v>
+        <v>48.38898753410759</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>66.56679139203277</v>
+        <v>66.5667913920328</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>53.50649466473402</v>
+        <v>53.50649466473382</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>65.61958712554913</v>
+        <v>65.61958712554903</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.61931939606058</v>
+        <v>74.6193193960604</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>15.46265467406746</v>
+        <v>15.46265467406741</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.63847511458257</v>
+        <v>48.63847511458253</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.44923039469154</v>
+        <v>59.44923039469167</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7.201553167150639</v>
+        <v>7.201553167150555</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>9.051833788644625</v>
+        <v>9.051833788644576</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.73517461317195</v>
+        <v>16.73517461317178</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.7271560291413941</v>
+        <v>-0.7271560291412236</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>9.248824435401948</v>
+        <v>9.248824435401833</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.56938111694402</v>
+        <v>10.56938111694381</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3.926588430242482</v>
+        <v>3.926588430242386</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20.3902138115979</v>
+        <v>20.39021381159814</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.38063840765214</v>
+        <v>24.3806384076521</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.91191546267075</v>
+        <v>18.91191546267065</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>18.83573210747561</v>
+        <v>18.83573210747558</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.72855580953307</v>
+        <v>25.72855580953304</v>
       </c>
     </row>
     <row r="149">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>44.35796380756132</v>
+        <v>44.35796380756137</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>50.00519716583109</v>
+        <v>50.00519716583118</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6.625737995062082</v>
+        <v>6.625737995061964</v>
       </c>
     </row>
     <row r="153">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.90514868385145</v>
+        <v>32.90514868385132</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-4.068592173102537</v>
+        <v>-4.068592173102473</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6.984876625408464</v>
+        <v>6.984876625408397</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16.41705525705416</v>
+        <v>16.41705525705408</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.9353419273619359</v>
+        <v>-0.9353419273620034</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>19.95477558958729</v>
+        <v>19.95477558958701</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.73541105838012</v>
+        <v>36.73541105838002</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>16.96215440866644</v>
+        <v>16.96215440866642</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.01225946524882</v>
+        <v>36.01225946524885</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.49712323793139</v>
+        <v>49.49712323793137</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-1.413406107480821</v>
+        <v>-1.413406107480775</v>
       </c>
     </row>
     <row r="165">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.47458503417758</v>
+        <v>33.47458503417746</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.75852884404036</v>
+        <v>13.75852884404026</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.15017869248482</v>
+        <v>25.15017869248478</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.91796331111648</v>
+        <v>34.91796331111655</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-2.710322556878474</v>
+        <v>-2.710322556878573</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>10.93430514586971</v>
+        <v>10.9343051458695</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17.88707489248585</v>
+        <v>17.88707489248593</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.294863711370073</v>
+        <v>2.294863711370173</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>27.876334126283</v>
+        <v>27.87633412628308</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.61646520996835</v>
+        <v>44.61646520996827</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.5314620313901</v>
+        <v>28.53146203138991</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.07485850395068</v>
+        <v>41.07485850395074</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>55.55404668387784</v>
+        <v>55.5540466838778</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>8.177800803828529</v>
+        <v>8.177800803828458</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>34.4115657022338</v>
+        <v>34.41156570223364</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.01605449314799</v>
+        <v>44.01605449314787</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.518608919078492</v>
+        <v>5.518608919078183</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.80561715104756</v>
+        <v>19.80561715104747</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.28875257465855</v>
+        <v>28.28875257465833</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.3733734865596183</v>
+        <v>0.3733734865594975</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.04055008995249</v>
+        <v>25.04055008995253</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.15974064114003</v>
+        <v>29.15974064114</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.467997969010897</v>
+        <v>8.467997969011023</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>51.15697086449995</v>
+        <v>51.15697086449975</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>54.34521937771787</v>
+        <v>54.345219377718</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.65809868053493</v>
+        <v>32.65809868053496</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>36.60529596586333</v>
+        <v>36.60529596586325</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.78578093108306</v>
+        <v>39.78578093108288</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>9.064991580612883</v>
+        <v>9.064991580613</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.00832850745918</v>
+        <v>12.00832850745904</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.84929267725338</v>
+        <v>16.8492926772533</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.24772482188809</v>
+        <v>20.247724821888</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.41530483973521</v>
+        <v>37.41530483973529</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>39.63262978814443</v>
+        <v>39.63262978814441</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.839142609952521</v>
+        <v>4.83914260995256</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.26897191572961</v>
+        <v>24.2689719157294</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.68460482474639</v>
+        <v>31.6846048247463</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>8.686406221629943</v>
+        <v>8.686406221629982</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>44.7625831558056</v>
+        <v>44.76258315580557</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>52.29791046783833</v>
+        <v>52.29791046783824</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>44.56147573623818</v>
+        <v>44.56147573623831</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>57.47774411700292</v>
+        <v>57.47774411700262</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>66.22607535647299</v>
+        <v>66.22607535647276</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.39237305351881</v>
+        <v>23.39237305351867</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>42.63639359887075</v>
+        <v>42.63639359887088</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>49.9758375509621</v>
+        <v>49.97583755096196</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.37767489201462</v>
+        <v>20.37767489201453</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.04973753041928</v>
+        <v>35.04973753041929</v>
       </c>
     </row>
     <row r="214">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2.327640076768493</v>
+        <v>2.327640076768297</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.36518379403829</v>
+        <v>21.36518379403804</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.68762537976096</v>
+        <v>29.68762537976091</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>7.147712598100243</v>
+        <v>7.147712598100238</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.08728266074593</v>
+        <v>46.08728266074547</v>
       </c>
     </row>
     <row r="220">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>46.41328263634831</v>
+        <v>46.41328263634826</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>60.03114340060263</v>
+        <v>60.03114340060275</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>69.23229563308324</v>
+        <v>69.23229563308311</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.46234437642047</v>
+        <v>20.4623443764204</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>45.99916805543383</v>
+        <v>45.99916805543369</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>58.44643935923376</v>
+        <v>58.4464393592337</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1.570179971893662</v>
+        <v>1.570179971893655</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.37958367290437</v>
+        <v>16.37958367290427</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.82112959427176</v>
+        <v>27.82112959427172</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>3.883720246822534</v>
+        <v>3.883720246822502</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.59737834436707</v>
+        <v>30.59737834436705</v>
       </c>
     </row>
     <row r="232">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>9.906798870032521</v>
+        <v>9.906798870032498</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>58.63237457926626</v>
+        <v>58.63237457926628</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>60.40468415209337</v>
+        <v>60.40468415209344</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.15002055136429</v>
+        <v>38.15002055136425</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>40.9530501777151</v>
+        <v>40.95305017771506</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.16129976083328</v>
+        <v>41.16129976083325</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>8.395891335599915</v>
+        <v>8.395891335599845</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5.43440199881444</v>
+        <v>5.434401998814373</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>8.481355058950044</v>
+        <v>8.481355058950001</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>14.15493289953662</v>
+        <v>14.1549328995366</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.56947881682437</v>
+        <v>38.56947881682426</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>40.94310433940895</v>
+        <v>40.94310433940899</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>2.805654680605254</v>
+        <v>2.805654680605294</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.91804106778912</v>
+        <v>30.91804106778907</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.35178357416316</v>
+        <v>36.35178357416319</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>4.892334686921544</v>
+        <v>4.892334686921554</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.95276339488725</v>
+        <v>53.95276339488727</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>57.19204331572519</v>
+        <v>57.19204331572514</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>47.57094559440512</v>
+        <v>47.5709455944051</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>58.93147930755536</v>
+        <v>58.93147930755526</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>65.42358919172196</v>
+        <v>65.42358919172219</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>14.38787567183383</v>
+        <v>14.38787567183382</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>53.12009121208973</v>
+        <v>53.12009121208972</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>58.25159997795107</v>
+        <v>58.25159997795103</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.14714320526221</v>
+        <v>18.14714320526223</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.43499618319039</v>
+        <v>39.4349961831905</v>
       </c>
     </row>
     <row r="259">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.6992021453461916</v>
+        <v>0.6992021453461597</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.66988880984355</v>
+        <v>28.6698888098435</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.5800073029177</v>
+        <v>33.58000730291767</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>7.130167241514677</v>
+        <v>7.130167241514659</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>54.34934531823937</v>
+        <v>54.34934531823925</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>66.34360771168805</v>
+        <v>66.34360771168798</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>53.21700653726307</v>
+        <v>53.21700653726302</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>67.52949865281566</v>
+        <v>67.5294986528157</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>73.67254258307095</v>
+        <v>73.67254258307092</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>10.43213809504027</v>
+        <v>10.43213809504035</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>54.83827406573161</v>
+        <v>54.83827406573142</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>62.87334033764036</v>
+        <v>62.87334033764046</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>5.803615987382393</v>
+        <v>5.803615987382504</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>3.221434982154527</v>
+        <v>3.221434982154616</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>11.03443387751692</v>
+        <v>11.03443387751698</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-0.8140848921511008</v>
+        <v>-0.8140848921511363</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>6.296193929299282</v>
+        <v>6.296193929299353</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>9.343154047225902</v>
+        <v>9.343154047225843</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2.194437858368204</v>
+        <v>2.194437858368307</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.39095147757859</v>
+        <v>17.39095147757843</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.08434531079713</v>
+        <v>20.08434531079703</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>15.86766595050037</v>
+        <v>15.86766595050034</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.05032666241281</v>
+        <v>21.05032666241289</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.84968375558863</v>
+        <v>22.84968375558866</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>5.001634560668126</v>
+        <v>5.00163456066813</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1.938638358570319</v>
+        <v>1.938638358570302</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>8.98431405067079</v>
+        <v>8.984314050670832</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>6.269103811626112</v>
+        <v>6.269103811626072</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>19.95555832968552</v>
+        <v>19.95555832968549</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.12959910498728</v>
+        <v>29.12959910498729</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-1.083266346650557</v>
+        <v>-1.083266346650532</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11.50186611971163</v>
+        <v>11.5018661197116</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.82419913624533</v>
+        <v>21.82419913624534</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1.117298784055833</v>
+        <v>1.117298784055823</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.96340418728947</v>
+        <v>23.96340418728936</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>37.02304298824406</v>
+        <v>37.02304298824397</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.55814799027355</v>
+        <v>26.55814799027357</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.16784397403826</v>
+        <v>38.16784397403833</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>49.09435771812064</v>
+        <v>49.09435771812056</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>3.731023230022657</v>
+        <v>3.731023230022625</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>26.60915201784272</v>
+        <v>26.60915201784274</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.91802484714723</v>
+        <v>35.91802484714702</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>7.764231111952698</v>
+        <v>7.764231111952709</v>
       </c>
     </row>
     <row r="303">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.99265513869965</v>
+        <v>32.99265513869967</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-1.815734818939013</v>
+        <v>-1.815734818939074</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>15.99686234157511</v>
+        <v>15.99686234157505</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.09999968318279</v>
+        <v>26.09999968318277</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>2.259222191723804</v>
+        <v>2.259222191723776</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.94447490716402</v>
+        <v>32.94447490716404</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>47.03859609929511</v>
+        <v>47.03859609929508</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>41.93163078992937</v>
+        <v>41.93163078992933</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>54.93944260861179</v>
+        <v>54.93944260861198</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>61.81432820855579</v>
+        <v>61.81432820855574</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>8.356020539764284</v>
+        <v>8.356020539764248</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>37.83487661237182</v>
+        <v>37.83487661237192</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>50.81389613479263</v>
+        <v>50.81389613479264</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1.00811586561607</v>
+        <v>1.008115865616091</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>2.91461644836474</v>
+        <v>2.914616448364718</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>8.975921123613315</v>
+        <v>8.975921123613329</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-2.087316115575426</v>
+        <v>-2.087316115575408</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>7.258027323996787</v>
+        <v>7.258027323996828</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>7.758767552482501</v>
+        <v>7.75876755248254</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-0.384241559313697</v>
+        <v>-0.3842415593135833</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.16170256791908</v>
+        <v>15.16170256791913</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.99731872756908</v>
+        <v>14.99731872756906</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>10.08359764820792</v>
+        <v>10.08359764820795</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>11.33670943087375</v>
+        <v>11.33670943087368</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.49334162075592</v>
+        <v>14.49334162075589</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>4.083705864877714</v>
+        <v>4.083705864877643</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>5.420426507028697</v>
+        <v>5.420426507028598</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>9.223729045198413</v>
+        <v>9.22372904519829</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1.09328253336653</v>
+        <v>1.093282533366644</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>5.294578180442279</v>
+        <v>5.294578180442116</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.33368032263619</v>
+        <v>15.3336803226361</v>
       </c>
     </row>
     <row r="335">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-0.353766327642699</v>
+        <v>-0.3537663276426564</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>9.57665733210629</v>
+        <v>9.576657332106256</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-2.343959861603153</v>
+        <v>-2.343959861603174</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>4.182038381156016</v>
+        <v>4.182038381156062</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.82347136130346</v>
+        <v>20.82347136130347</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.6925343434454803</v>
+        <v>0.6925343434454838</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>19.51316863798066</v>
+        <v>19.51316863798055</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.42792409021642</v>
+        <v>38.42792409021637</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-3.260232568439157</v>
+        <v>-3.260232568439037</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>4.202825616828321</v>
+        <v>4.20282561682837</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>7.703743992691532</v>
+        <v>7.703743992691674</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1.971883180520742</v>
+        <v>-1.971883180520685</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>2.405288321928147</v>
+        <v>2.40528832192819</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.27056340146477</v>
+        <v>21.27056340146474</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-2.650854257736082</v>
+        <v>-2.650854257736135</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1.041418545364056</v>
+        <v>1.041418545363904</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>14.73845239203897</v>
+        <v>14.73845239203891</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-2.953653127142182</v>
+        <v>-2.953653127142189</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8.305203911445137</v>
+        <v>8.305203911445131</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>39.00039789049711</v>
+        <v>39.00039789049694</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>8.34074688219911</v>
+        <v>8.340746882199054</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.16338460837369</v>
+        <v>39.1633846083736</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>54.20564802556954</v>
+        <v>54.20564802556967</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-8.21670059253978</v>
+        <v>-8.216700592539738</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>9.134955123235059</v>
+        <v>9.134955123235351</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.96375931599901</v>
+        <v>17.96375931599886</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.440630208896977</v>
+        <v>5.440630208896881</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.35740842040778</v>
+        <v>15.35740842040767</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.43681289321334</v>
+        <v>33.43681289321329</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.942776384247217</v>
+        <v>3.942776384247157</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.30606816404921</v>
+        <v>35.30606816404917</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>41.73967976607263</v>
+        <v>41.73967976607272</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.502283860125036</v>
+        <v>7.502283860124962</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>58.24199045464537</v>
+        <v>58.24199045464542</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>65.03370586824956</v>
+        <v>65.03370586824946</v>
       </c>
     </row>
     <row r="371">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>46.16344899585243</v>
+        <v>46.16344899585235</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>47.13437875680082</v>
+        <v>47.13437875680071</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.4398565906712</v>
+        <v>27.43985659067118</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.85998516434487</v>
+        <v>31.85998516434474</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>59.31974622440902</v>
+        <v>59.31974622440903</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6.22977822472647</v>
+        <v>6.229778224726378</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.73841641669841</v>
+        <v>24.73841641669835</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.95103094480258</v>
+        <v>28.95103094480255</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.9393715337180488</v>
+        <v>-0.9393715337180772</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.04732481691654</v>
+        <v>21.04732481691652</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.10028906258982</v>
+        <v>24.10028906258965</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.7375447727910043</v>
+        <v>0.7375447727909403</v>
       </c>
     </row>
     <row r="384">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.95069215792638</v>
+        <v>36.95069215792626</v>
       </c>
     </row>
     <row r="387">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>50.92590863506701</v>
+        <v>50.92590863506704</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>15.77291901563823</v>
+        <v>15.77291901563826</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.99763451131969</v>
+        <v>38.99763451131974</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>44.04096567789723</v>
+        <v>44.04096567789709</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>11.08546392606686</v>
+        <v>11.08546392606676</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.59153900582076</v>
+        <v>25.59153900582077</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.03477141956144</v>
+        <v>37.03477141956139</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1.814387984222602</v>
+        <v>1.814387984222577</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>27.40641245473262</v>
+        <v>27.40641245473246</v>
       </c>
     </row>
     <row r="397">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>5.639912939301269</v>
+        <v>5.639912939301151</v>
       </c>
     </row>
     <row r="399">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>63.60156779392907</v>
+        <v>63.60156779392925</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>49.81388183681449</v>
+        <v>49.81388183681438</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>59.55807830160349</v>
+        <v>59.55807830160354</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>68.1954607919599</v>
+        <v>68.19546079195997</v>
       </c>
     </row>
     <row r="404">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>46.25544108003767</v>
+        <v>46.25544108003768</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>61.74970391506948</v>
+        <v>61.74970391506942</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>5.045118643528774</v>
+        <v>5.045118643528841</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.057578285050806</v>
+        <v>6.057578285050798</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.83736064971889</v>
+        <v>11.83736064971907</v>
       </c>
     </row>
     <row r="410">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.8539080081851509</v>
+        <v>0.8539080081853285</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>3.694898056521829</v>
+        <v>3.694898056521886</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2.071832745235859</v>
+        <v>2.071832745235834</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.40123518969985</v>
+        <v>12.40123518969986</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.69723409294411</v>
+        <v>16.69723409294414</v>
       </c>
     </row>
     <row r="416">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>14.00403119569592</v>
+        <v>14.00403119569593</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.20059322662411</v>
+        <v>18.20059322662407</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1.673342273307711</v>
+        <v>1.673342273307714</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-1.256738208824405</v>
+        <v>-1.256738208824441</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>4.393164690055883</v>
+        <v>4.393164690055833</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0.6014619915063122</v>
+        <v>0.6014619915063157</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.04298387440425</v>
+        <v>11.04298387440431</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>21.54645472509096</v>
+        <v>21.54645472509089</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-5.457501789099023</v>
+        <v>-5.457501789099034</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-0.4697596474529639</v>
+        <v>-0.4697596474530421</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.6378116098859</v>
+        <v>12.63781160988579</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-4.547712578268616</v>
+        <v>-4.547712578268737</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>9.380533492050965</v>
+        <v>9.380533492050885</v>
       </c>
     </row>
     <row r="430">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.479567543142156</v>
+        <v>6.479567543142164</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.36129448740121</v>
+        <v>18.36129448740102</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.92409757018503</v>
+        <v>30.92409757018489</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-6.452776583684876</v>
+        <v>-6.45277658368493</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>10.62918524751672</v>
+        <v>10.62918524751646</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.02252826122779</v>
+        <v>21.02252826122766</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>5.544522987176979</v>
+        <v>5.544522987176933</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>14.51692611520057</v>
+        <v>14.51692611520045</v>
       </c>
     </row>
     <row r="439">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-3.486627971125376</v>
+        <v>-3.486627971125397</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>3.479098001248268</v>
+        <v>3.479098001248257</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>16.0100261142699</v>
+        <v>16.01002611426979</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1.063057334426489</v>
+        <v>1.063057334426439</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.38091551794712</v>
+        <v>16.38091551794706</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.64194912448894</v>
+        <v>34.64194912448887</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.08860182644316</v>
+        <v>18.08860182644305</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.34740643375514</v>
+        <v>31.34740643375517</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>45.78322681790307</v>
+        <v>45.78322681790304</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>4.985768429496044</v>
+        <v>4.985768429495991</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>22.3071102883421</v>
+        <v>22.30711028834201</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.28857442887158</v>
+        <v>34.28857442887151</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-0.3582068729957335</v>
+        <v>-0.3582068729956873</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-2.056631807456803</v>
+        <v>-2.056631807456906</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>5.319966364096434</v>
+        <v>5.319966364096313</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2.826793000118915</v>
+        <v>-2.826793000118847</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-0.100849693765074</v>
+        <v>-0.100849693765209</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2.052291960305631</v>
+        <v>2.052291960305567</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1.555947441959145</v>
+        <v>-1.555947441959255</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.22588954568576</v>
+        <v>10.22588954568599</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.31735992585482</v>
+        <v>11.31735992585477</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>5.46530272441257</v>
+        <v>5.46530272441267</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.643464464312263</v>
+        <v>5.643464464312331</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>9.700324310282554</v>
+        <v>9.700324310282609</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1.918296697251769</v>
+        <v>-1.91829669725179</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-6.827924938254831</v>
+        <v>-6.827924938254792</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-6.214688922741214</v>
+        <v>-6.214688922741225</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>12.74240480946714</v>
+        <v>12.74240480946715</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.22087670467346</v>
+        <v>28.22087670467342</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.32245040297775</v>
+        <v>32.32245040297768</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>3.731543659801236</v>
+        <v>3.731543659801126</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.42581567069869</v>
+        <v>19.4258156706987</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.05172905758603</v>
+        <v>26.051729057586</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>6.560502970243908</v>
+        <v>6.560502970243915</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.05601277010506</v>
+        <v>39.05601277010513</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>45.89264716531196</v>
+        <v>45.8926471653119</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.54999887951675</v>
+        <v>36.54999887951666</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.91051159727766</v>
+        <v>44.91051159727772</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>51.82304434752806</v>
+        <v>51.82304434752797</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>11.35689625447363</v>
+        <v>11.35689625447342</v>
       </c>
     </row>
     <row r="480">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.87426592113135</v>
+        <v>42.87426592113134</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>15.10021548712126</v>
+        <v>15.10021548712123</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.33485915401069</v>
+        <v>30.33485915401073</v>
       </c>
     </row>
     <row r="484">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>0.2430178317783493</v>
+        <v>0.2430178317783138</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.84433814214934</v>
+        <v>22.84433814214943</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.23088233074904</v>
+        <v>31.23088233074894</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>4.33577318471173</v>
+        <v>4.335773184711616</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.23911680911012</v>
+        <v>43.23911680911004</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>58.8304122981831</v>
+        <v>58.83041229818301</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>47.407201087522</v>
+        <v>47.40720108752188</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.20507233074783</v>
+        <v>57.2050723307478</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.97010920983681</v>
+        <v>66.97010920983679</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>8.139219956195172</v>
+        <v>8.139219956195175</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>44.69342585405784</v>
+        <v>44.69342585405775</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>52.64738375586977</v>
+        <v>52.64738375586975</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.02426962187053</v>
+        <v>10.02426962187043</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>10.31304170901102</v>
+        <v>10.31304170901098</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.01952406964141</v>
+        <v>15.01952406964134</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>2.531442418284161</v>
+        <v>2.531442418284183</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>7.863371244247999</v>
+        <v>7.863371244247947</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.18882132736129</v>
+        <v>10.18882132736121</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>10.22813882788254</v>
+        <v>10.22813882788259</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.57002554662469</v>
+        <v>22.57002554662472</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.71639392125119</v>
+        <v>21.71639392125127</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.9342406269976</v>
+        <v>18.93424062699768</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>21.43306715501042</v>
+        <v>21.43306715501033</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.52512164726058</v>
+        <v>24.52512164726062</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>8.571776967796612</v>
+        <v>8.571776967796557</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>7.583179606729336</v>
+        <v>7.583179606729274</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>14.57880691161593</v>
+        <v>14.57880691161576</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1.31671889629353</v>
+        <v>1.316718896293565</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>6.474164527264202</v>
+        <v>6.474164527264138</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>14.99715969561631</v>
+        <v>14.99715969561614</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-3.243005204967716</v>
+        <v>-3.243005204967762</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-2.739839807591643</v>
+        <v>-2.739839807591714</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>8.344412997834656</v>
+        <v>8.344412997834583</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-3.777897836304259</v>
+        <v>-3.777897836304209</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>3.871375453796073</v>
+        <v>3.871375453795935</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>18.33379193356649</v>
+        <v>18.33379193356642</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>6.139987921844856</v>
+        <v>6.139987921844728</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>13.74060197704608</v>
+        <v>13.74060197704601</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.9233265773245</v>
+        <v>26.92332657732454</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-2.513004757625382</v>
+        <v>-2.513004757625424</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>6.726825016113034</v>
+        <v>6.726825016112985</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>15.49771121313534</v>
+        <v>15.49771121313529</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.853399797162</v>
+        <v>12.8533997971619</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>21.08930839659154</v>
+        <v>21.08930839659157</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.70223658443305</v>
+        <v>28.70223658443294</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.865109977028673</v>
+        <v>-1.865109977028652</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>8.678216409850499</v>
+        <v>8.678216409850403</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>16.17699282423028</v>
+        <v>16.17699282423024</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.477522992881756</v>
+        <v>4.477522992881724</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.03506939509126</v>
+        <v>26.03506939509113</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.24665012283427</v>
+        <v>40.24665012283432</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.93438582426027</v>
+        <v>24.93438582426025</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.03349209569878</v>
+        <v>34.03349209569869</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.97930111686433</v>
+        <v>46.97930111686453</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.049877320519027</v>
+        <v>9.049877320518977</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>24.25923208193528</v>
+        <v>24.25923208193519</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.89684493104956</v>
+        <v>30.8968449310496</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.909212585594489</v>
+        <v>3.909212585594453</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0.9981694078874668</v>
+        <v>0.9981694078873566</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.244919488319336</v>
+        <v>4.244919488319312</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.07495915269162623</v>
+        <v>0.07495915269155162</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1.618589774774772</v>
+        <v>-1.618589774774918</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-0.06024974740217104</v>
+        <v>-0.0602497474021817</v>
       </c>
     </row>
     <row r="548">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>7.824784351866379</v>
+        <v>7.824784351866304</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.130272848703118</v>
+        <v>7.130272848703093</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>4.287326851567933</v>
+        <v>4.287326851567908</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>2.493015103441053</v>
+        <v>2.493015103441333</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>4.794179390879254</v>
+        <v>4.794179390879361</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.824236506073259</v>
+        <v>3.824236506073117</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1.13440535029277</v>
+        <v>-1.134405350292823</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>2.562200059034041</v>
+        <v>2.562200059034076</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.693132461041241</v>
+        <v>0.6931324610412233</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>1.779298917338753</v>
+        <v>1.779298917338721</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>3.933909805625682</v>
+        <v>3.933909805625703</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.309084594742828</v>
+        <v>-1.309084594742792</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-4.907461793711935</v>
+        <v>-4.907461793711963</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-0.1885769628899006</v>
+        <v>-0.1885769628897727</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1.273610280870201</v>
+        <v>-1.273610280870248</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1.772398984896967</v>
+        <v>-1.772398984896981</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2.431536291653249</v>
+        <v>2.431536291653131</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-2.062688388425471</v>
+        <v>-2.062688388425371</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>2.513689317761273</v>
+        <v>2.513689317761337</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.847161086778041</v>
+        <v>4.847161086778044</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-3.642308212135678</v>
+        <v>-3.642308212135617</v>
       </c>
     </row>
     <row r="570">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-0.1358997077900277</v>
+        <v>-0.1358997077901236</v>
       </c>
     </row>
     <row r="572">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.92552945829841</v>
+        <v>16.92552945829846</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.6240983117708</v>
+        <v>21.62409831177077</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1.098134554404158</v>
+        <v>1.09813455440419</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>5.488486733576107</v>
+        <v>5.48848673357606</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.48445342718523</v>
+        <v>10.48445342718522</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>7.877313174699719</v>
+        <v>7.877313174699717</v>
       </c>
     </row>
     <row r="579">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.18622032475719</v>
+        <v>27.18622032475721</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>18.36615159026078</v>
+        <v>18.36615159026075</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.3296815990826</v>
+        <v>23.32968159908258</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.71272442828078</v>
+        <v>30.71272442828077</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>11.6703382568777</v>
+        <v>11.67033825687773</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>15.84843729279882</v>
+        <v>15.84843729279887</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.0731152212422</v>
+        <v>22.07311522124227</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.36939592728219</v>
+        <v>15.36939592728226</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.82634983913105</v>
+        <v>23.82634983913109</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>32.92759128393278</v>
+        <v>32.92759128393293</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>1.804325693366899</v>
+        <v>1.804325693366732</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.64327787926799</v>
+        <v>16.6432778792681</v>
       </c>
     </row>
     <row r="592">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.48630314686723</v>
+        <v>10.48630314686713</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.76474242352297</v>
+        <v>36.76474242352272</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.35604946316059</v>
+        <v>41.35604946316057</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.73531619160081</v>
+        <v>30.73531619160068</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.43279312930022</v>
+        <v>34.43279312930025</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.15072844657961</v>
+        <v>38.15072844657944</v>
       </c>
     </row>
     <row r="599">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.83974979456154</v>
+        <v>33.83974979456148</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>41.43750367245514</v>
+        <v>41.43750367245515</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.91392950370762</v>
+        <v>10.91392950370776</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>19.01892423738146</v>
+        <v>19.01892423738147</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.56130428221296</v>
+        <v>25.56130428221297</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-2.178470538019386</v>
+        <v>-2.178470538019472</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>0.7752218941102704</v>
+        <v>0.7752218941103273</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>8.206755584165553</v>
+        <v>8.206755584165409</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.080990134640306</v>
+        <v>2.08099013464043</v>
       </c>
     </row>
     <row r="609">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>23.5533745181297</v>
+        <v>23.55337451812953</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.71902505056505</v>
+        <v>14.71902505056498</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.74067125386674</v>
+        <v>21.74067125386677</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.40189062080099</v>
+        <v>30.40189062080101</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.771001222479878</v>
+        <v>6.771001222479832</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.46283904846142</v>
+        <v>16.46283904846128</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.78393278126252</v>
+        <v>22.78393278126239</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.16485489086753</v>
+        <v>16.1648548908675</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.93095937479734</v>
+        <v>24.93095937479732</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>37.43659379518852</v>
+        <v>37.43659379518834</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>0.7839920883475919</v>
+        <v>0.7839920883476594</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>10.62761315531458</v>
+        <v>10.62761315531447</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>17.92235125315684</v>
+        <v>17.92235125315673</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.275313593993872</v>
+        <v>5.275313593993896</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.92031004351201</v>
+        <v>29.92031004351179</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.76839023217774</v>
+        <v>42.76839023217762</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>34.87654897026199</v>
+        <v>34.87654897026183</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>44.9875981544595</v>
+        <v>44.98759815445956</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>51.31468632308081</v>
+        <v>51.31468632308083</v>
       </c>
     </row>
     <row r="629">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.84856744381311</v>
+        <v>31.84856744381333</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>40.78980239396022</v>
+        <v>40.78980239396006</v>
       </c>
     </row>
     <row r="632">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.32643631223516</v>
+        <v>29.32643631223509</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.97568950036516</v>
+        <v>37.97568950036518</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.95556725595408</v>
+        <v>5.955567255953994</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.93203946740433</v>
+        <v>28.93203946740434</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.46302526083861</v>
+        <v>33.46302526083859</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.21410180551108</v>
+        <v>12.21410180551109</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>51.78030563673799</v>
+        <v>51.78030563673792</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>57.19702450568503</v>
+        <v>57.19702450568499</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>47.00776600081375</v>
+        <v>47.0077660008137</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>47.91744136573359</v>
+        <v>47.91744136573368</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>55.37583692720759</v>
+        <v>55.37583692720768</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.4632801140691</v>
+        <v>10.46328011406911</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.59537985729807</v>
+        <v>32.59537985729796</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>43.40234853544983</v>
+        <v>43.40234853544975</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>8.297358359526786</v>
+        <v>8.297358359526772</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.89480571208653</v>
+        <v>24.89480571208654</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.93891659773814</v>
+        <v>31.93891659773816</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>1.077296166787665</v>
+        <v>1.077296166787804</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>14.36360399995272</v>
+        <v>14.36360399995269</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.0358703650209</v>
+        <v>23.03587036502085</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1.30097364791099</v>
+        <v>1.300973647910943</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.15619717195282</v>
+        <v>29.15619717195281</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.53728015632761</v>
+        <v>40.53728015632753</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.68175459746658</v>
+        <v>32.68175459746644</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.99447914260084</v>
+        <v>39.99447914260057</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.26808790913155</v>
+        <v>48.26808790913167</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>3.592056868607447</v>
+        <v>3.592056868607401</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.51749350344512</v>
+        <v>29.51749350344508</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.98134053236287</v>
+        <v>38.98134053236267</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>7.658320706286121</v>
+        <v>7.658320706286124</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.34784020514015</v>
+        <v>25.34784020514003</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.84844840972266</v>
+        <v>36.84844840972261</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-1.836434265465876</v>
+        <v>-1.836434265465996</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>18.5293015508549</v>
+        <v>18.52930155085487</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.98855116169224</v>
+        <v>27.98855116169213</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-0.01103929625018907</v>
+        <v>-0.01103929625031341</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.99465007450526</v>
+        <v>33.99465007450523</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.78410485477611</v>
+        <v>53.78410485477613</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>40.00709262365833</v>
+        <v>40.00709262365814</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.20263049117943</v>
+        <v>51.20263049117933</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>65.97241063745216</v>
+        <v>65.97241063745207</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-0.07278030318891027</v>
+        <v>-0.07278030318888185</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.66857872886473</v>
+        <v>36.66857872886445</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>49.67530069086949</v>
+        <v>49.67530069086938</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>6.458062076930462</v>
+        <v>6.458062076930409</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>19.66840800635912</v>
+        <v>19.66840800635908</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.99288226789674</v>
+        <v>32.99288226789677</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>4.266930975385694</v>
+        <v>4.266930975385741</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.84922647734805</v>
+        <v>34.84922647734795</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>39.79598066753542</v>
+        <v>39.79598066753556</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>9.420129591446287</v>
+        <v>9.420129591446212</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>52.53551800088984</v>
+        <v>52.53551800088974</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>59.60681322785443</v>
+        <v>59.60681322785442</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.46561022297713</v>
+        <v>38.46561022297706</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.25466922538728</v>
+        <v>39.2546692253873</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.82523443520641</v>
+        <v>41.82523443520644</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>13.16722915247544</v>
+        <v>13.16722915247558</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.67812022070408</v>
+        <v>27.67812022070417</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.37963383847469</v>
+        <v>50.37963383847458</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>11.63834509700997</v>
+        <v>11.63834509701003</v>
       </c>
     </row>
     <row r="693">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.39461048454802</v>
+        <v>32.39461048454777</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1.084363031017332</v>
+        <v>1.084363031017265</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>17.2912063908619</v>
+        <v>17.2912063908617</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.17161408718821</v>
+        <v>22.171614087188</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1.162979832399131</v>
+        <v>1.16297983239923</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.55072607064107</v>
+        <v>32.55072607064102</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.05766193442414</v>
+        <v>41.05766193442433</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.90219489969009</v>
+        <v>29.90219489969004</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.71636101152322</v>
+        <v>39.71636101152291</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>50.26968228151026</v>
+        <v>50.2696822815103</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>4.862494577387743</v>
+        <v>4.862494577387807</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.26676560562582</v>
+        <v>29.26676560562566</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.95372048658652</v>
+        <v>38.95372048658641</v>
       </c>
     </row>
     <row r="707">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.44763844438769</v>
+        <v>26.44763844438771</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.8134366394051</v>
+        <v>36.81343663940501</v>
       </c>
     </row>
     <row r="710">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>21.95729026354915</v>
+        <v>21.95729026354914</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.91409860544155</v>
+        <v>28.9140986054414</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2.223116689651722</v>
+        <v>2.223116689651818</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.99624004017595</v>
+        <v>39.99624004017596</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>55.08620842291371</v>
+        <v>55.08620842291366</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>43.77116560092694</v>
+        <v>43.77116560092684</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>53.6776279423183</v>
+        <v>53.67762794231813</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>65.0436818181276</v>
+        <v>65.04368181812768</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2.573526870592772</v>
+        <v>2.573526870592559</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>34.61396849181037</v>
+        <v>34.61396849181019</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.62489749098232</v>
+        <v>49.6248974909821</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.32307588377677</v>
+        <v>17.32307588377676</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.6371546891091</v>
+        <v>23.63715468910917</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.73013760892669</v>
+        <v>36.73013760892673</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.65471359024732</v>
+        <v>14.65471359024726</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>43.98157462980006</v>
+        <v>43.98157462979992</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>47.7668032180986</v>
+        <v>47.7668032180983</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>18.26392653593538</v>
+        <v>18.26392653593543</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>50.67616448109202</v>
+        <v>50.67616448109176</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>57.51841533681917</v>
+        <v>57.51841533681863</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.79180519688666</v>
+        <v>37.79180519688634</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>39.52367007835971</v>
+        <v>39.52367007835957</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.64285760766819</v>
+        <v>43.6428576076682</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.47924829487945</v>
+        <v>25.47924829487938</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.16423400721579</v>
+        <v>25.16423400721582</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.79822055082529</v>
+        <v>42.79822055082531</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.82421628477655</v>
+        <v>20.8242162847765</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.78165080198676</v>
+        <v>31.78165080198673</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.5631412662821</v>
+        <v>38.56314126628195</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>32.70907287134406</v>
+        <v>32.70907287134384</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>41.08652860974887</v>
+        <v>41.08652860974881</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.95737580231191</v>
+        <v>47.95737580231189</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.96335601600205</v>
+        <v>12.96335601600206</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.40602520689853</v>
+        <v>36.40602520689862</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>47.78168400189234</v>
+        <v>47.7816840018924</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.31122070427432</v>
+        <v>33.31122070427415</v>
       </c>
     </row>
     <row r="747">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>51.29319882825256</v>
+        <v>51.29319882825249</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>17.44192048062267</v>
+        <v>17.44192048062255</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.96940175237499</v>
+        <v>31.9694017523751</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.57006642404781</v>
+        <v>41.57006642404787</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.06455691060737</v>
+        <v>19.06455691060712</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.3749058191246</v>
+        <v>29.37490581912462</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.80864735257812</v>
+        <v>37.8086473525781</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>32.73261724780758</v>
+        <v>32.73261724780745</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.40746359738381</v>
+        <v>45.40746359738388</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>46.97046821615569</v>
+        <v>46.97046821615568</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.41169858801543</v>
+        <v>13.41169858801535</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.22235121754973</v>
+        <v>44.22235121754969</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>56.89845836984511</v>
+        <v>56.89845836984523</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.9047986626266</v>
+        <v>47.90479866262658</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>56.15421762377537</v>
+        <v>56.15421762377536</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>66.65082871897081</v>
+        <v>66.65082871897079</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>15.19155401688686</v>
+        <v>15.19155401688677</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.00593314645174</v>
+        <v>36.00593314645164</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>52.9645682627959</v>
+        <v>52.96456826279617</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>6.007124070584783</v>
+        <v>6.00712407058483</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.73839490102888</v>
+        <v>20.73839490102878</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.45528125286494</v>
+        <v>31.45528125286501</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-1.357590925461</v>
+        <v>-1.357590925460876</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.92696087788659</v>
+        <v>19.92696087788657</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.40619019749881</v>
+        <v>22.40619019749903</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>2.171800406150304</v>
+        <v>2.17180040615025</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.11011200463915</v>
+        <v>41.11011200463909</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.6811880865143</v>
+        <v>47.6811880865142</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.24731671218662</v>
+        <v>43.2473167121868</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.50186158879695</v>
+        <v>41.50186158879705</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>44.30347404159939</v>
+        <v>44.30347404159923</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-2.111526791308499</v>
+        <v>-2.111526791308535</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.46141307358757</v>
+        <v>25.46141307358756</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.86098889731704</v>
+        <v>33.86098889731702</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>7.4964669251335</v>
+        <v>7.496466925133461</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>24.2697139050709</v>
+        <v>24.26971390507095</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.70680631241358</v>
+        <v>28.70680631241348</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-1.010818184169093</v>
+        <v>-1.010818184169011</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>15.19285041427438</v>
+        <v>15.19285041427445</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.57538988053166</v>
+        <v>19.57538988053173</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-0.6545992802720946</v>
+        <v>-0.6545992802720768</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.54727345599785</v>
+        <v>29.5472734559978</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.24783726767609</v>
+        <v>38.24783726767612</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.08958982768685</v>
+        <v>31.08958982768678</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>37.15142802562188</v>
+        <v>37.15142802562163</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.38369777234363</v>
+        <v>44.38369777234333</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-0.5538032898252467</v>
+        <v>-0.5538032898252503</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.79505152620341</v>
+        <v>27.79505152620348</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.03392247959057</v>
+        <v>35.03392247959061</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>7.245182018821682</v>
+        <v>7.24518201882171</v>
       </c>
     </row>
     <row r="798">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.34199645993891</v>
+        <v>34.3419964599388</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-3.13157060812124</v>
+        <v>-3.131570608121262</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>18.0247777746529</v>
+        <v>18.02477777465294</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>23.56206268868722</v>
+        <v>23.56206268868716</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1.86124381491911</v>
+        <v>-1.861243814919099</v>
       </c>
     </row>
     <row r="804">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>49.93443762570503</v>
+        <v>49.93443762570514</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.07800408317694</v>
+        <v>42.07800408317673</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>53.59654130429915</v>
+        <v>53.596541304299</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>62.03425153959489</v>
+        <v>62.03425153959498</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-3.197453781042789</v>
+        <v>-3.197453781042896</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>35.36883676964379</v>
+        <v>35.36883676964388</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.44600357489826</v>
+        <v>46.44600357489803</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>8.743067673645669</v>
+        <v>8.743067673645525</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>8.78930254133903</v>
+        <v>8.789302541338943</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.7768554698273</v>
+        <v>16.77685546982709</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>1.45012573443012</v>
+        <v>1.450125734430092</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.219595821556601</v>
+        <v>9.219595821556638</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>12.40361541062278</v>
+        <v>12.40361541062281</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>7.603008581929361</v>
+        <v>7.603008581929345</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.85414434406902</v>
+        <v>19.85414434406903</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.87304022709787</v>
+        <v>24.87304022709745</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.23942726100089</v>
+        <v>16.23942726100084</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>18.00686636624298</v>
+        <v>18.00686636624281</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>21.42523588725829</v>
+        <v>21.4252358872583</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>3.526600704865849</v>
+        <v>3.526600704865714</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>6.171219991504913</v>
+        <v>6.171219991504806</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>13.40037519811259</v>
+        <v>13.40037519811255</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>3.452029164869767</v>
+        <v>3.452029164869842</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>15.84614978710843</v>
+        <v>15.84614978710829</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>24.89598696704925</v>
+        <v>24.89598696704918</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-3.763973658629453</v>
+        <v>-3.763973658629485</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.196346632159914</v>
+        <v>6.196346632159795</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>15.61164717350534</v>
+        <v>15.61164717350528</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-4.037028312187573</v>
+        <v>-4.037028312187672</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>15.02866417067482</v>
+        <v>15.02866417067488</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.76978804142353</v>
+        <v>28.7697880414234</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>19.39525550066475</v>
+        <v>19.39525550066476</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.68724764288979</v>
+        <v>25.68724764288953</v>
       </c>
     </row>
     <row r="838">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-5.704153235203002</v>
+        <v>-5.704153235203027</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>16.0840285577265</v>
+        <v>16.08402855772641</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.80646734449076</v>
+        <v>26.80646734449071</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>6.773709861026489</v>
+        <v>6.773709861026504</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>19.09050348213072</v>
+        <v>19.09050348213075</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.7419953607847</v>
+        <v>29.74199536078471</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-4.031949264707478</v>
+        <v>-4.031949264707549</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>10.12766324809989</v>
+        <v>10.12766324809985</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>18.78529082958304</v>
+        <v>18.78529082958301</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-0.085433859619922</v>
+        <v>-0.08543385961993266</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.34637942461502</v>
+        <v>25.3463794246149</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.89285704106273</v>
+        <v>38.89285704106251</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.60497908506278</v>
+        <v>29.60497908506268</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.34305409834609</v>
+        <v>38.34305409834611</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>43.99491580194812</v>
+        <v>43.99491580194807</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-2.828192254442332</v>
+        <v>-2.828192254442264</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>22.81817567375264</v>
+        <v>22.81817567375268</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>38.15540953460022</v>
+        <v>38.15540953460012</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>9.979384193385028</v>
+        <v>9.97938419338505</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>11.9849560946235</v>
+        <v>11.98495609462361</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.00037197765729</v>
+        <v>21.00037197765737</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>1.450052062046431</v>
+        <v>1.450052062046154</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.80786623133305</v>
+        <v>19.80786623133323</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.65626143637537</v>
+        <v>20.65626143637552</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>9.560714363707646</v>
+        <v>9.560714363707813</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.49039459872426</v>
+        <v>30.49039459872402</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.50901308807766</v>
+        <v>34.50901308807759</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.12459443056659</v>
+        <v>24.12459443056679</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.60127047754071</v>
+        <v>25.60127047754069</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>32.91693866493797</v>
+        <v>32.91693866493807</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>9.33885853950248</v>
+        <v>9.338858539502409</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>11.94704630369492</v>
+        <v>11.94704630369498</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.8483040019626</v>
+        <v>23.84830400196238</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>7.59497898500747</v>
+        <v>7.594978985007446</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>18.05890072459871</v>
+        <v>18.05890072459867</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.53924209977237</v>
+        <v>29.53924209977234</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>6.24719412323085</v>
+        <v>6.247194123230821</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>11.07225932419515</v>
+        <v>11.07225932419504</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.70485357308263</v>
+        <v>26.70485357308265</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1.207670972891833</v>
+        <v>1.207670972891695</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>18.34790859294121</v>
+        <v>18.34790859294127</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.14927800552218</v>
+        <v>35.14927800552239</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.89383433441618</v>
+        <v>16.89383433441627</v>
       </c>
     </row>
     <row r="882">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>42.97074267989962</v>
+        <v>42.97074267989956</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-2.526283617071208</v>
+        <v>-2.52628361707135</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>16.0153445713459</v>
+        <v>16.01534457134562</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.18651126282653</v>
+        <v>29.18651126282606</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>7.635180567040958</v>
+        <v>7.635180567040994</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.16923278180051</v>
+        <v>16.16923278180031</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.01253869648344</v>
+        <v>27.01253869648359</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.52188036761973</v>
+        <v>3.521880367619559</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>13.6210110892489</v>
+        <v>13.62101108924874</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.72191776398194</v>
+        <v>20.72191776398187</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-0.1064040780656974</v>
+        <v>-0.1064040780658679</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>24.18498717357479</v>
+        <v>24.18498717357487</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>39.4199627798108</v>
+        <v>39.41996277981058</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>32.97389356115745</v>
+        <v>32.97389356115733</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.98606972041215</v>
+        <v>38.98606972041206</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>51.77937860553593</v>
+        <v>51.7793786055356</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-4.639681864269495</v>
+        <v>-4.639681864269619</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>16.5731631361803</v>
+        <v>16.57316313618002</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>37.93419865322038</v>
+        <v>37.93419865322028</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>15.01206183854453</v>
+        <v>15.01206183854449</v>
       </c>
     </row>
     <row r="903">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.44151959212734</v>
+        <v>35.44151959212724</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>6.397751539884744</v>
+        <v>6.39775153988468</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.58943601037836</v>
+        <v>36.58943601037825</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>42.23688190350778</v>
+        <v>42.23688190350771</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.74145348673</v>
+        <v>15.74145348672992</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.63012479922616</v>
+        <v>59.6301247992261</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>61.77606968782152</v>
+        <v>61.77606968782151</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.5985169078366</v>
+        <v>39.59851690783651</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.52568338010286</v>
+        <v>42.52568338010288</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>45.85469876138899</v>
+        <v>45.854698761389</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>24.43012083943995</v>
+        <v>24.43012083943989</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.94475234822372</v>
+        <v>28.94475234822361</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>57.67025444810429</v>
+        <v>57.67025444810419</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>19.64061800792658</v>
+        <v>19.64061800792654</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.29749979033829</v>
+        <v>31.29749979033823</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.3426712438771</v>
+        <v>36.34267124387701</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>5.507183789646458</v>
+        <v>5.507183789646408</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>22.6133310427435</v>
+        <v>22.61333104274347</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.05917073355452</v>
+        <v>29.05917073355448</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>7.748773401982683</v>
+        <v>7.748773401982731</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>37.89765396475019</v>
+        <v>37.89765396475015</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.315604000847</v>
+        <v>45.31560400084697</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.73983356407422</v>
+        <v>37.73983356407415</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>43.3907730155326</v>
+        <v>43.39077301553242</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>51.11768586289527</v>
+        <v>51.11768586289521</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>16.48323230775366</v>
+        <v>16.48323230775365</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>35.77841888331715</v>
+        <v>35.77841888331722</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>44.62004928061678</v>
+        <v>44.62004928061662</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>17.87072739802194</v>
+        <v>17.87072739802188</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.87388273025753</v>
+        <v>29.87388273025748</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>38.99322924467101</v>
+        <v>38.99322924467104</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>3.317412670584851</v>
+        <v>3.317412670584631</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>24.40435039937647</v>
+        <v>24.40435039937637</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.76047620328008</v>
+        <v>31.76047620328004</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>6.421018414759818</v>
+        <v>6.421018414759809</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>44.74949479571131</v>
+        <v>44.7494947957113</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>58.25599442731291</v>
+        <v>58.25599442731264</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>47.0659155371256</v>
+        <v>47.06591553712545</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.48987536000976</v>
+        <v>56.48987536000955</v>
       </c>
     </row>
     <row r="943">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>12.74527154882858</v>
+        <v>12.74527154882846</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>39.70683018877406</v>
+        <v>39.70683018877411</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>55.80613610834898</v>
+        <v>55.80613610834892</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>4.185868136937707</v>
+        <v>4.185868136937692</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.80831792144575</v>
+        <v>16.80831792144576</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>27.78284767623282</v>
+        <v>27.78284767623285</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-0.2728698173024426</v>
+        <v>-0.2728698173023929</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>19.90390292720157</v>
+        <v>19.90390292720158</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>21.92886508454583</v>
+        <v>21.92886508454582</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>1.329880607795417</v>
+        <v>1.329880607795388</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.68418709862912</v>
+        <v>36.68418709862885</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.62348798156578</v>
+        <v>44.62348798156579</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>38.34651158307521</v>
+        <v>38.34651158307513</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>41.54100217160632</v>
+        <v>41.54100217160624</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>43.13024807043165</v>
+        <v>43.13024807043172</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-3.366480475041406</v>
+        <v>-3.366480475041513</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.7936215409065</v>
+        <v>24.79362154090642</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.94379934361054</v>
+        <v>30.94379934361047</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>7.761830711081616</v>
+        <v>7.761830711081677</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>24.80378141373411</v>
+        <v>24.80378141373404</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.98044526744226</v>
+        <v>28.98044526744235</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>0.5201084795424755</v>
+        <v>0.5201084795425359</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>16.18675314623161</v>
+        <v>16.18675314623167</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>21.90135957906574</v>
+        <v>21.90135957906573</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>2.139500368746006</v>
+        <v>2.139500368745928</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>32.21453221122801</v>
+        <v>32.21453221122804</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>42.34641820444251</v>
+        <v>42.34641820444254</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.29195604230988</v>
+        <v>33.2919560423099</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>40.52156698341537</v>
+        <v>40.5215669834151</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>46.80200646823265</v>
+        <v>46.80200646823268</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>0.1874214309599118</v>
+        <v>0.1874214309598159</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.5902874518156</v>
+        <v>29.59028745181561</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>37.60303670267262</v>
+        <v>37.60303670267254</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>6.887370058629386</v>
+        <v>6.887370058629411</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>23.29397841367129</v>
+        <v>23.29397841367127</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>32.88459881281016</v>
+        <v>32.88459881281005</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-2.713072261897977</v>
+        <v>-2.713072261897864</v>
       </c>
     </row>
     <row r="981">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>22.77446793337492</v>
+        <v>22.77446793337486</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-1.797962935246552</v>
+        <v>-1.797962935246556</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>33.45122438882595</v>
+        <v>33.45122438882587</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>48.18113944116097</v>
+        <v>48.18113944116095</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>40.26570202640451</v>
+        <v>40.26570202640458</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>52.00397985432367</v>
+        <v>52.00397985432357</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>60.71005075585097</v>
+        <v>60.71005075585098</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-3.583808992643654</v>
+        <v>-3.583808992643824</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>33.91340433524132</v>
+        <v>33.91340433524135</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>46.84903656539051</v>
+        <v>46.84903656539052</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.327</v>
+        <v>16.645</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.676</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.164</v>
+        <v>15.756</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.965</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.043</v>
+        <v>2.359</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.770550917822895</v>
+        <v>10.45078240719144</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.902586585066903</v>
+        <v>13.08465759270705</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.78730277454784</v>
+        <v>16.16373741067951</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.356935460608785</v>
+        <v>5.10807289231051</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.33926378749256</v>
+        <v>10.53673931465592</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.49669357433607</v>
+        <v>11.77244195619043</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.269607174158629</v>
+        <v>8.58754812275177</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.77204397703043</v>
+        <v>17.59853189452251</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.96853983799924</v>
+        <v>20.66550509633625</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.79707310089956</v>
+        <v>17.03950173939685</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.95287141602082</v>
+        <v>20.3982293726783</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23.1689557227635</v>
+        <v>24.9761244490711</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.306382826738307</v>
+        <v>8.856036949005361</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.433643620748445</v>
+        <v>12.04223952553115</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16.6476430467827</v>
+        <v>14.63021594173899</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.412262883667422</v>
+        <v>10.10436252950296</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.40205561432063</v>
+        <v>25.16169722143526</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.60163603167823</v>
+        <v>37.56865382056831</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.076857077627935</v>
+        <v>3.903086176876517</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.325247004214445</v>
+        <v>9.103683040627395</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.94542870637471</v>
+        <v>21.70620706112479</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.194665330279495</v>
+        <v>4.474869448821572</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.57407668687589</v>
+        <v>23.44340652442253</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.49516408537534</v>
+        <v>40.98190502293744</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.2924611418428</v>
+        <v>24.63154059795635</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.16971231952732</v>
+        <v>41.38298688658627</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>56.95681665909658</v>
+        <v>58.50601935792665</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.8101977931253366</v>
+        <v>4.810377510441295</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.66311879323514</v>
+        <v>27.30932931703848</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.20571831232861</v>
+        <v>42.55507299371224</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10.01657782894631</v>
+        <v>12.03757226178634</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24.84863141349754</v>
+        <v>29.13353885699948</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.85783404152149</v>
+        <v>37.7943115327083</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.5847334328624783</v>
+        <v>4.024914038760947</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>12.68202030546184</v>
+        <v>16.46666812304198</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23.95068995117494</v>
+        <v>26.45477983911761</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2044557786659276</v>
+        <v>4.738184801395793</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.25468398520778</v>
+        <v>29.68957092646723</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>44.34773772691029</v>
+        <v>41.6490911159634</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.1298944729149</v>
+        <v>36.79228523401176</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48.11036927039503</v>
+        <v>51.33546220229294</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>62.18969483067252</v>
+        <v>61.21558688395326</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.133115689676451</v>
+        <v>11.08591649247684</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.73102298633378</v>
+        <v>37.8812536183308</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.44429187654688</v>
+        <v>44.79611746492014</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.53680466325098</v>
+        <v>5.57127439923795</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.06656194046228</v>
+        <v>27.75894929481862</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.18851089093648</v>
+        <v>37.6403552285695</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.386559847713183</v>
+        <v>5.538472401930015</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>33.08181354610916</v>
+        <v>32.01283724081934</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.26446130072202</v>
+        <v>36.87995929053823</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.939595018093133</v>
+        <v>6.782358900054135</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>57.51291641645818</v>
+        <v>53.4209072849291</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>63.07789606482923</v>
+        <v>61.2431347762998</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49.46097837135841</v>
+        <v>49.00483412484322</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>50.3220451325033</v>
+        <v>51.28873915159449</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.45116551181931</v>
+        <v>52.0497499374167</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.656946965505856</v>
+        <v>6.256947957216656</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.98261578318564</v>
+        <v>31.85914581716371</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.88693360045075</v>
+        <v>42.69689447358817</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.068146685696696</v>
+        <v>6.7816782088534</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.66671078982269</v>
+        <v>34.17429240932609</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.24055524974291</v>
+        <v>38.76089696089379</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-3.432539666194728</v>
+        <v>4.067168036598435</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>16.21991882192413</v>
+        <v>17.16009901179704</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.4433819026827</v>
+        <v>27.07414677122232</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1.75972709103786</v>
+        <v>3.892526768116305</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.48428749564378</v>
+        <v>34.63710582227834</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.10417729669729</v>
+        <v>44.28648381336227</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>38.77730031963221</v>
+        <v>35.69602316783127</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>50.03125892731086</v>
+        <v>52.76455435699452</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>59.69764076287262</v>
+        <v>60.61236999572286</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-2.801609548500799</v>
+        <v>4.681614025002002</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.29476497015615</v>
+        <v>40.38949268071767</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>48.12249252351077</v>
+        <v>46.26736997106011</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2.768985536140761</v>
+        <v>6.110374909350934</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.51257438508718</v>
+        <v>33.5674254254162</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.85833716500289</v>
+        <v>41.54083244814053</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-3.783612493767833</v>
+        <v>3.968374535874869</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.08604091497449</v>
+        <v>25.32560251999441</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.72592003719237</v>
+        <v>32.14537749267902</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.9874317580779177</v>
+        <v>4.98373615000013</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>49.45898264302227</v>
+        <v>44.60519075927775</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>68.3754062508747</v>
+        <v>64.78033187531578</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50.01671935431276</v>
+        <v>45.65476001874087</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>64.49317379013559</v>
+        <v>66.20924038775763</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>74.69848322624384</v>
+        <v>71.615424886486</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-4.111544008082742</v>
+        <v>3.827395494548139</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>48.28302269977104</v>
+        <v>49.60689322739657</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>59.50691338229225</v>
+        <v>57.04040391851123</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.60277593924848</v>
+        <v>14.49239984928693</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.02137756519525</v>
+        <v>24.53755643724482</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.37851001446104</v>
+        <v>33.76997224268186</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.198926781535992</v>
+        <v>4.511742364581483</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.26672004979782</v>
+        <v>27.42119358656035</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.71569205700556</v>
+        <v>29.87536924516434</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.055389072351108</v>
+        <v>7.865812124924794</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>50.02592451105951</v>
+        <v>52.23994417074152</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.8280405329055</v>
+        <v>53.82018860508185</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.77108437423796</v>
+        <v>38.16691809226619</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>45.01327559082431</v>
+        <v>44.50514235830924</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.39696264214227</v>
+        <v>43.71995022021697</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.3369437546345</v>
+        <v>12.88756017080829</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.6879066760062</v>
+        <v>23.80254841071648</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.21745834585641</v>
+        <v>28.76220386877626</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.27699458945606</v>
+        <v>20.90303761440437</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.93928489020372</v>
+        <v>37.28665222411929</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.4430586356213</v>
+        <v>39.85113425678082</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.565398282374183</v>
+        <v>5.417927049523055</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>21.51385758089595</v>
+        <v>24.9366693939243</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.46398248768729</v>
+        <v>29.22978991467532</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.179330554982879</v>
+        <v>7.026024685968324</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>41.69859466316594</v>
+        <v>44.81708840212444</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>52.06194341450045</v>
+        <v>48.04816781121269</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>43.03680180560245</v>
+        <v>42.95328197368634</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>54.37189456788211</v>
+        <v>55.29087182793909</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.05205347717521</v>
+        <v>60.1418096082774</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>14.2246641559845</v>
+        <v>18.04133631138497</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.17260018428554</v>
+        <v>41.20630314734643</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.86354898290691</v>
+        <v>48.59319958411721</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.03202801810117</v>
+        <v>18.29621076660819</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.97919319110788</v>
+        <v>35.99113955405143</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.51304079382133</v>
+        <v>40.58083935888138</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.2303830725233489</v>
+        <v>5.113494310742514</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.92667939992124</v>
+        <v>26.69861156520322</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.61993010134215</v>
+        <v>32.31024772235669</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4.265834289263779</v>
+        <v>7.196671200926819</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>48.38898753410759</v>
+        <v>49.78054728277761</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>66.5667913920328</v>
+        <v>64.03848893244883</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>53.50649466473382</v>
+        <v>50.41407014423973</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>65.61958712554903</v>
+        <v>63.24214578854324</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.6193193960604</v>
+        <v>70.18208695462565</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>15.46265467406741</v>
+        <v>15.34906628393788</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.63847511458253</v>
+        <v>48.54367865158692</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.44923039469167</v>
+        <v>56.49422960620235</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7.201553167150555</v>
+        <v>11.91812688181884</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>9.051833788644576</v>
+        <v>14.03987856699638</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.73517461317178</v>
+        <v>16.11304109545436</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.7271560291412236</v>
+        <v>5.829681912939947</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>9.248824435401833</v>
+        <v>10.07961160239606</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.56938111694381</v>
+        <v>11.04021974140004</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3.926588430242386</v>
+        <v>9.627534520901758</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20.39021381159814</v>
+        <v>19.8755625078354</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.3806384076521</v>
+        <v>21.57410523612397</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.91191546267065</v>
+        <v>18.35707040843712</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>18.83573210747558</v>
+        <v>20.11906281787093</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.72855580953304</v>
+        <v>25.64178102174854</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>45.55251234925592</v>
+        <v>54.55365040007572</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>44.35796380756137</v>
+        <v>57.52931038653873</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>50.00519716583118</v>
+        <v>56.2714736291645</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6.625737995061964</v>
+        <v>10.21124104523623</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.18033442237416</v>
+        <v>25.13190611141292</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.90514868385132</v>
+        <v>36.20429254102081</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-4.068592173102473</v>
+        <v>3.365081835303211</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6.984876625408397</v>
+        <v>5.491373333057862</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16.41705525705408</v>
+        <v>15.45123693605161</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.9353419273620034</v>
+        <v>3.904182736649791</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>19.95477558958701</v>
+        <v>17.80843342481572</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.73541105838002</v>
+        <v>36.71384608598185</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>16.96215440866642</v>
+        <v>20.5556425400682</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.01225946524885</v>
+        <v>35.59291782355527</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.49712323793137</v>
+        <v>50.83289527843212</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-1.413406107480775</v>
+        <v>5.083299368084585</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.69886441686867</v>
+        <v>26.48783925117216</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.47458503417746</v>
+        <v>34.45953744479285</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.75852884404026</v>
+        <v>20.39535609273665</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.15017869248478</v>
+        <v>27.46729876797348</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.91796331111655</v>
+        <v>36.09107766576544</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-2.710322556878573</v>
+        <v>3.799245994225952</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>10.9343051458695</v>
+        <v>10.74134550606807</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17.88707489248593</v>
+        <v>19.53981735716553</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.294863711370173</v>
+        <v>7.261125190855683</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>27.87633412628308</v>
+        <v>26.19378004296759</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.61646520996827</v>
+        <v>44.38403066198561</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.53146203138991</v>
+        <v>30.24243588869622</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.07485850395074</v>
+        <v>39.01662906589783</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>55.5540466838778</v>
+        <v>54.85876514323854</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>8.177800803828458</v>
+        <v>16.5874182008839</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>34.41156570223364</v>
+        <v>38.56011689743429</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.01605449314787</v>
+        <v>46.17028549265644</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.518608919078183</v>
+        <v>4.902583221987406</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.80561715104747</v>
+        <v>14.60455041382926</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.28875257465833</v>
+        <v>25.34975518133393</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.3733734865594975</v>
+        <v>4.715963961371138</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.04055008995253</v>
+        <v>21.99183412817947</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.15974064114</v>
+        <v>28.3674465043263</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.467997969011023</v>
+        <v>10.0372704642691</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>51.15697086449975</v>
+        <v>51.69057645180546</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>54.345219377718</v>
+        <v>54.83391100105764</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.65809868053496</v>
+        <v>34.92122794998154</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>36.60529596586325</v>
+        <v>40.60236920539876</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.78578093108288</v>
+        <v>43.0802779075748</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>9.064991580613</v>
+        <v>14.43128855942567</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.00832850745904</v>
+        <v>13.27725223265995</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.8492926772533</v>
+        <v>15.19406569125354</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.247724821888</v>
+        <v>22.52165623236795</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.41530483973529</v>
+        <v>36.60891706026726</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>39.63262978814441</v>
+        <v>37.00923639481476</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.83914260995256</v>
+        <v>6.513148243834994</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.2689719157294</v>
+        <v>25.64701016128232</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.6846048247463</v>
+        <v>32.7919560115374</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>8.686406221629982</v>
+        <v>7.711176656168625</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>44.76258315580557</v>
+        <v>45.92883154438871</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>52.29791046783824</v>
+        <v>49.8813673256986</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>44.56147573623831</v>
+        <v>46.1968360765771</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>57.47774411700262</v>
+        <v>59.64430939363189</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>66.22607535647276</v>
+        <v>63.02927908231568</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.39237305351867</v>
+        <v>25.79826708217944</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>42.63639359887088</v>
+        <v>47.53902906336545</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>49.97583755096196</v>
+        <v>52.52242395967016</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.37767489201453</v>
+        <v>22.99287052585978</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.04973753041929</v>
+        <v>37.44950688111917</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.04580199709994</v>
+        <v>40.76157614666427</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2.327640076768297</v>
+        <v>5.12979972401611</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.36518379403804</v>
+        <v>19.76098950069417</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.68762537976091</v>
+        <v>28.87187197200772</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>7.147712598100238</v>
+        <v>10.45481322883781</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.08728266074547</v>
+        <v>44.66508500231326</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>60.33459110179285</v>
+        <v>59.02770727368598</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>46.41328263634826</v>
+        <v>48.79611738464281</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>60.03114340060275</v>
+        <v>60.45512634337454</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>69.23229563308311</v>
+        <v>65.94613083392618</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.4623443764204</v>
+        <v>24.21058913215848</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>45.99916805543369</v>
+        <v>48.95947278335432</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>58.4464393592337</v>
+        <v>58.95878253804412</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1.570179971893655</v>
+        <v>3.228287876270787</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.37958367290427</v>
+        <v>13.62104036760208</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.82112959427172</v>
+        <v>27.96720164563688</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>3.883720246822502</v>
+        <v>4.8622933658718</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.59737834436705</v>
+        <v>33.39216542565127</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.77275940404729</v>
+        <v>33.00433546652934</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>9.906798870032498</v>
+        <v>9.849849323722449</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>58.63237457926628</v>
+        <v>57.4091275981592</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>60.40468415209344</v>
+        <v>60.12717478662543</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.15002055136425</v>
+        <v>37.8882066924255</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>40.95305017771506</v>
+        <v>45.51067261182222</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.16129976083325</v>
+        <v>47.07528733549517</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>8.395891335599845</v>
+        <v>8.746010541454936</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5.434401998814373</v>
+        <v>11.00451421248361</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>8.481355058950001</v>
+        <v>13.17598687529193</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>14.1549328995366</v>
+        <v>15.53319566667326</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.56947881682426</v>
+        <v>40.03205033107775</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>40.94310433940899</v>
+        <v>41.09471390926032</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>2.805654680605294</v>
+        <v>5.810824254967837</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.91804106778907</v>
+        <v>31.97417456423123</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.35178357416319</v>
+        <v>39.00713212948088</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>4.892334686921554</v>
+        <v>6.051072168983456</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.95276339488727</v>
+        <v>54.06237366899801</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>57.19204331572514</v>
+        <v>56.78215590303516</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>47.5709455944051</v>
+        <v>43.379081943603</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>58.93147930755526</v>
+        <v>58.00200196331899</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>65.42358919172219</v>
+        <v>64.63211912942955</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>14.38787567183382</v>
+        <v>14.12872456521721</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>53.12009121208972</v>
+        <v>52.09854878366389</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>58.25159997795103</v>
+        <v>56.81476348033659</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.14714320526223</v>
+        <v>18.58984130285135</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.4349961831905</v>
+        <v>40.42420252980643</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.39698119278263</v>
+        <v>42.71059354854194</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.6992021453461597</v>
+        <v>5.923868175199896</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.6698888098435</v>
+        <v>29.00731292256807</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.58000730291767</v>
+        <v>31.95483171912121</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>7.130167241514659</v>
+        <v>8.171418980108509</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>54.34934531823925</v>
+        <v>52.10557717566548</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>66.34360771168798</v>
+        <v>63.25009573885177</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>53.21700653726302</v>
+        <v>53.32649030447415</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>67.5294986528157</v>
+        <v>66.81874401785994</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>73.67254258307092</v>
+        <v>71.81222031830636</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>10.43213809504035</v>
+        <v>12.16571894366277</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>54.83827406573142</v>
+        <v>54.01264665068065</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>62.87334033764046</v>
+        <v>60.09487474149634</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>5.803615987382504</v>
+        <v>9.314472267350748</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>3.221434982154616</v>
+        <v>9.249713594368234</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>11.03443387751698</v>
+        <v>11.52614784327122</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-0.8140848921511363</v>
+        <v>4.628122881333645</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>6.296193929299353</v>
+        <v>10.08423845629915</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>9.343154047225843</v>
+        <v>9.533050763781446</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2.194437858368307</v>
+        <v>8.309272661789716</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.39095147757843</v>
+        <v>16.26339790407008</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.08434531079703</v>
+        <v>18.87444360686545</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>15.86766595050034</v>
+        <v>20.95528113526077</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.05032666241289</v>
+        <v>24.09628102317825</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.84968375558866</v>
+        <v>26.97031763828647</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>5.00163456066813</v>
+        <v>7.580115657476728</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1.938638358570302</v>
+        <v>7.522613486832569</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>8.984314050670832</v>
+        <v>11.06021584448627</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>6.269103811626072</v>
+        <v>11.4226129331303</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>19.95555832968549</v>
+        <v>26.82140928695033</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.12959910498729</v>
+        <v>32.82302171859424</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-1.083266346650532</v>
+        <v>4.968809918672559</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11.5018661197116</v>
+        <v>14.10653187699559</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.82419913624534</v>
+        <v>24.14576445205449</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1.117298784055823</v>
+        <v>8.904741651297776</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.96340418728936</v>
+        <v>28.00143493109116</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>37.02304298824397</v>
+        <v>41.23965320207198</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.55814799027357</v>
+        <v>28.58482787910539</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.16784397403833</v>
+        <v>41.05679356994825</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>49.09435771812056</v>
+        <v>47.79185777340101</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>3.731023230022625</v>
+        <v>9.01790997725411</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>26.60915201784274</v>
+        <v>32.3869128210192</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.91802484714702</v>
+        <v>42.03325156819837</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>7.764231111952709</v>
+        <v>9.148627395772294</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.02875284673716</v>
+        <v>23.89535979222848</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.99265513869967</v>
+        <v>34.5957497342041</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-1.815734818939074</v>
+        <v>3.62996433801781</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>15.99686234157505</v>
+        <v>18.13211551041065</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.09999968318277</v>
+        <v>26.06443789159512</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>2.259222191723776</v>
+        <v>6.942603136197963</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.94447490716404</v>
+        <v>34.44013921423527</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>47.03859609929508</v>
+        <v>46.64538039010886</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>41.93163078992933</v>
+        <v>44.54117240582723</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>54.93944260861198</v>
+        <v>59.23632197337494</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>61.81432820855574</v>
+        <v>60.37996991965689</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>8.356020539764248</v>
+        <v>9.794408950559202</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>37.83487661237192</v>
+        <v>40.44842985701709</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>50.81389613479264</v>
+        <v>50.96937130355597</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1.008115865616091</v>
+        <v>4.701942764909329</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>2.914616448364718</v>
+        <v>11.33967546557381</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>8.975921123613329</v>
+        <v>13.65132712478112</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-2.087316115575408</v>
+        <v>4.807208522947789</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>7.258027323996828</v>
+        <v>9.762694106653107</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>7.75876755248254</v>
+        <v>13.15294538498069</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-0.3842415593135833</v>
+        <v>5.340038990083766</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.16170256791913</v>
+        <v>14.41227564412483</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.99731872756906</v>
+        <v>12.28688483047768</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>10.08359764820795</v>
+        <v>12.11924099895463</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>11.33670943087368</v>
+        <v>13.87394987375306</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.49334162075589</v>
+        <v>15.02267937129093</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>4.083705864877643</v>
+        <v>7.604826185525955</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>5.420426507028598</v>
+        <v>13.86612022741999</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>9.22372904519829</v>
+        <v>14.95616889779822</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1.093282533366644</v>
+        <v>4.568836577405758</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>5.294578180442116</v>
+        <v>8.23771181266833</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.3336803226361</v>
+        <v>20.69704091491886</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-0.3459681113316826</v>
+        <v>5.819528184876237</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-0.3537663276426564</v>
+        <v>4.079962793111946</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>9.576657332106256</v>
+        <v>11.94827895531045</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-2.343959861603174</v>
+        <v>7.055512709677188</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>4.182038381156062</v>
+        <v>6.922227762741461</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.82347136130347</v>
+        <v>23.64637982392572</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.6925343434454838</v>
+        <v>8.77862737999218</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>19.51316863798055</v>
+        <v>22.61938156935533</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.42792409021637</v>
+        <v>37.87749080233126</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-3.260232568439037</v>
+        <v>4.338704586530355</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>4.20282561682837</v>
+        <v>9.907459711709059</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>7.703743992691674</v>
+        <v>12.88437183550427</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1.971883180520685</v>
+        <v>3.763895553452556</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>2.40528832192819</v>
+        <v>9.912624150417866</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.27056340146474</v>
+        <v>23.46561367802792</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-2.650854257736135</v>
+        <v>5.140048572993265</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1.041418545363904</v>
+        <v>5.22321843767633</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>14.73845239203891</v>
+        <v>17.42396886009075</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-2.953653127142189</v>
+        <v>5.781855476971938</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8.305203911445131</v>
+        <v>8.883571228709499</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>39.00039789049694</v>
+        <v>38.01769717090826</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>8.340746882199054</v>
+        <v>14.86522297718269</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.1633846083736</v>
+        <v>40.9513663182485</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>54.20564802556967</v>
+        <v>53.26437317717961</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-8.216700592539738</v>
+        <v>2.700251713491003</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>9.134955123235351</v>
+        <v>13.93057716086216</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.96375931599886</v>
+        <v>18.55855690512215</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.440630208896881</v>
+        <v>12.63696369992775</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.35740842040767</v>
+        <v>16.96230082124882</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.43681289321329</v>
+        <v>35.60014906856716</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.942776384247157</v>
+        <v>5.587946422701283</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.30606816404917</v>
+        <v>39.38097833315584</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>41.73967976607272</v>
+        <v>40.1605278935692</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.502283860124962</v>
+        <v>8.842298085708627</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>58.24199045464542</v>
+        <v>55.69052991808698</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>65.03370586824946</v>
+        <v>60.77202581848822</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>42.25306024375102</v>
+        <v>41.31983628137107</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>46.16344899585235</v>
+        <v>45.04020477488837</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>47.13437875680071</v>
+        <v>46.74756864208025</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.43985659067118</v>
+        <v>28.8180049387949</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.85998516434474</v>
+        <v>29.99194743842522</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>59.31974622440903</v>
+        <v>62.04758675561514</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6.229778224726378</v>
+        <v>9.368789518044139</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.73841641669835</v>
+        <v>30.11235906751746</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.95103094480255</v>
+        <v>32.14443183274498</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.9393715337180772</v>
+        <v>5.04714189053816</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.04732481691652</v>
+        <v>24.76399982372517</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.10028906258965</v>
+        <v>28.04171276508353</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.7375447727909403</v>
+        <v>7.844186258550792</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.25238094852219</v>
+        <v>40.42882080119762</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>43.98331100445014</v>
+        <v>43.64482437633846</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.95069215792626</v>
+        <v>35.70821582351833</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>45.63214394719361</v>
+        <v>45.90402426482484</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>50.92590863506704</v>
+        <v>49.93812932065344</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>15.77291901563826</v>
+        <v>16.3885416745345</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.99763451131974</v>
+        <v>38.21302707754919</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>44.04096567789709</v>
+        <v>43.28319013646452</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>11.08546392606676</v>
+        <v>13.37924870296245</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.59153900582077</v>
+        <v>27.67909649756534</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.03477141956139</v>
+        <v>39.25533687309378</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1.814387984222577</v>
+        <v>4.977539690926875</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>27.40641245473246</v>
+        <v>29.21391875088988</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>32.55271385047837</v>
+        <v>34.17202003430508</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>5.639912939301151</v>
+        <v>8.945891823710451</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>46.87021762265817</v>
+        <v>47.5668165184924</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>63.60156779392925</v>
+        <v>62.35933941468541</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>49.81388183681438</v>
+        <v>47.1944067100077</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>59.55807830160354</v>
+        <v>60.03492177007685</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>68.19546079195997</v>
+        <v>64.32030738995715</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>15.3130851115967</v>
+        <v>14.36835059092803</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>46.25544108003768</v>
+        <v>49.60971697629824</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>61.74970391506942</v>
+        <v>60.96753265498805</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>5.045118643528841</v>
+        <v>9.943516002364987</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.057578285050798</v>
+        <v>10.59321294847286</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.83736064971907</v>
+        <v>12.64935635748527</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-1.434042627584091</v>
+        <v>6.190988786851076</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.8539080081853285</v>
+        <v>8.234984012534941</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>3.694898056521886</v>
+        <v>10.80746486848456</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2.071832745235834</v>
+        <v>9.40992192608045</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.40123518969986</v>
+        <v>14.00934362391865</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.69723409294414</v>
+        <v>16.69440625719727</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>11.85534277219514</v>
+        <v>13.64873525915231</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>14.00403119569593</v>
+        <v>16.67092460372791</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.20059322662407</v>
+        <v>18.90681263391871</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1.673342273307714</v>
+        <v>8.804610671507564</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-1.256738208824441</v>
+        <v>8.665479246301693</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>4.393164690055833</v>
+        <v>11.44484478546259</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0.6014619915063157</v>
+        <v>7.569243870820696</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.04298387440431</v>
+        <v>14.32700557847282</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>21.54645472509089</v>
+        <v>26.26211388305558</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-5.457501789099034</v>
+        <v>3.686490433811812</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-0.4697596474530421</v>
+        <v>3.452128318463547</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.63781160988579</v>
+        <v>18.30112323582517</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-4.547712578268737</v>
+        <v>5.86537011700738</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>9.380533492050885</v>
+        <v>7.168734186978064</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.7853836908844</v>
+        <v>28.70101994387265</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.479567543142164</v>
+        <v>10.25341134348414</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.36129448740102</v>
+        <v>20.04477486563581</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.92409757018489</v>
+        <v>34.67763820224977</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-6.45277658368493</v>
+        <v>3.346670594056842</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>10.62918524751646</v>
+        <v>11.79126517136186</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.02252826122766</v>
+        <v>21.39415145284267</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>5.544522987176933</v>
+        <v>10.22357625248075</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>14.51692611520045</v>
+        <v>18.7071849699366</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.84312153320408</v>
+        <v>30.42817248249505</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-3.486627971125397</v>
+        <v>4.064003413007065</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>3.479098001248257</v>
+        <v>8.79540202072527</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>16.01002611426979</v>
+        <v>20.89157936348334</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1.063057334426439</v>
+        <v>8.984411274964735</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.38091551794706</v>
+        <v>16.93539761687454</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.64194912448887</v>
+        <v>36.94421394033685</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.08860182644305</v>
+        <v>19.25057074342996</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.34740643375517</v>
+        <v>26.19661756661021</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>45.78322681790304</v>
+        <v>46.08633504464952</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>4.985768429495991</v>
+        <v>13.9695452299309</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>22.30711028834201</v>
+        <v>20.68097654370162</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.28857442887151</v>
+        <v>34.16220591794019</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-0.3582068729956873</v>
+        <v>3.686904023484839</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-2.056631807456906</v>
+        <v>4.202150941336694</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>5.319966364096313</v>
+        <v>10.4986782160445</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2.826793000118847</v>
+        <v>5.688571381928806</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-0.100849693765209</v>
+        <v>4.624057888131489</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2.052291960305567</v>
+        <v>5.51540390130139</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1.555947441959255</v>
+        <v>9.179043902116252</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.22588954568599</v>
+        <v>9.73117125413421</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.31735992585477</v>
+        <v>11.24897181886198</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>5.46530272441267</v>
+        <v>7.164409361837709</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.643464464312331</v>
+        <v>7.977928674682378</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>9.700324310282609</v>
+        <v>16.7104258477418</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1.91829669725179</v>
+        <v>4.641610806465735</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-6.827924938254792</v>
+        <v>3.686603698218335</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-6.214688922741225</v>
+        <v>3.430029193693098</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>12.74240480946715</v>
+        <v>17.4786136348834</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.22087670467342</v>
+        <v>30.24827444414329</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.32245040297768</v>
+        <v>33.70100836111238</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>3.731543659801126</v>
+        <v>6.073300980354734</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.4258156706987</v>
+        <v>20.30905919759718</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.051729057586</v>
+        <v>26.73932577544219</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>6.560502970243915</v>
+        <v>10.04283274023083</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.05601277010513</v>
+        <v>42.5278355635707</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>45.8926471653119</v>
+        <v>47.57977574474575</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.54999887951666</v>
+        <v>36.80479473507279</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.91051159727772</v>
+        <v>47.71185592709409</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>51.82304434752797</v>
+        <v>47.00627111905452</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>11.35689625447342</v>
+        <v>16.32179399909603</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>37.01066378232049</v>
+        <v>36.7814165582449</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.87426592113134</v>
+        <v>44.41661597516029</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>15.10021548712123</v>
+        <v>18.20573701690463</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.33485915401073</v>
+        <v>32.31560176441745</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>41.17579040009092</v>
+        <v>43.36783569930404</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>0.2430178317783138</v>
+        <v>4.55786182554456</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.84433814214943</v>
+        <v>23.56456908238953</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.23088233074894</v>
+        <v>27.71063296838119</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>4.335773184711616</v>
+        <v>8.954687086539465</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.23911680911004</v>
+        <v>44.06828113389194</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>58.83041229818301</v>
+        <v>57.00144468176553</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>47.40720108752188</v>
+        <v>47.81050001315227</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.2050723307478</v>
+        <v>59.31560855655908</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.97010920983679</v>
+        <v>63.77752225940922</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>8.139219956195175</v>
+        <v>9.875759782061653</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>44.69342585405775</v>
+        <v>45.15640520567698</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>52.64738375586975</v>
+        <v>51.50377627856213</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.02426962187043</v>
+        <v>13.38821814991406</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>10.31304170901098</v>
+        <v>14.47402682879708</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.01952406964134</v>
+        <v>15.31229444418521</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>2.531442418284183</v>
+        <v>7.792273656749767</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>7.863371244247947</v>
+        <v>14.44679989471583</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.18882132736121</v>
+        <v>15.1670492466767</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>10.22813882788259</v>
+        <v>15.36412437619905</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.57002554662472</v>
+        <v>23.35369306061539</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.71639392125127</v>
+        <v>22.65936086906377</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.93424062699768</v>
+        <v>20.06872538011414</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>21.43306715501033</v>
+        <v>22.66516637966487</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.52512164726062</v>
+        <v>25.81391161985626</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>8.571776967796557</v>
+        <v>17.15866570799958</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>7.583179606729274</v>
+        <v>11.46428192921562</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>14.57880691161576</v>
+        <v>15.07746181707536</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1.316718896293565</v>
+        <v>5.737766798850785</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>6.474164527264138</v>
+        <v>12.5494648586688</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>14.99715969561614</v>
+        <v>21.22717269321375</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-3.243005204967762</v>
+        <v>4.437094487958127</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-2.739839807591714</v>
+        <v>4.360268797314891</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>8.344412997834583</v>
+        <v>13.66672126445549</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-3.777897836304209</v>
+        <v>4.125362040905955</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>3.871375453795935</v>
+        <v>7.389901603638585</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>18.33379193356642</v>
+        <v>19.91571758852272</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>6.139987921844728</v>
+        <v>11.22359465271189</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>13.74060197704601</v>
+        <v>15.96576505874676</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.92332657732454</v>
+        <v>26.75027243925434</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-2.513004757625424</v>
+        <v>4.376698917470289</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>6.726825016112985</v>
+        <v>8.526910810414599</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>15.49771121313529</v>
+        <v>14.76661516741772</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.8533997971619</v>
+        <v>16.03492935941625</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>21.08930839659157</v>
+        <v>26.86164144907706</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.70223658443294</v>
+        <v>29.79303645549653</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.865109977028652</v>
+        <v>4.86451232698705</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>8.678216409850403</v>
+        <v>16.37730801580279</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>16.17699282423024</v>
+        <v>19.26008954284638</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.477522992881724</v>
+        <v>8.225984324730277</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.03506939509113</v>
+        <v>28.45490161159017</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.24665012283432</v>
+        <v>40.8030943113026</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.93438582426025</v>
+        <v>29.8666516569714</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.03349209569869</v>
+        <v>34.4742217867327</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.97930111686453</v>
+        <v>45.86190945466639</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.049877320518977</v>
+        <v>8.707061775735198</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>24.25923208193519</v>
+        <v>27.49024398222152</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.8968449310496</v>
+        <v>31.64899889218631</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.909212585594453</v>
+        <v>4.854518771380967</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0.9981694078873566</v>
+        <v>6.872087676508968</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.244919488319312</v>
+        <v>7.386260387350411</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.07495915269155162</v>
+        <v>5.491975354226405</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1.618589774774918</v>
+        <v>6.039955034441856</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-0.0602497474021817</v>
+        <v>6.525921133352163</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.770008758872379</v>
+        <v>9.579288399420829</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>7.824784351866304</v>
+        <v>11.01847865992792</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.130272848703093</v>
+        <v>9.94633790579153</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>4.287326851567908</v>
+        <v>6.930104263241532</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>2.493015103441333</v>
+        <v>5.51964887350692</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>4.794179390879361</v>
+        <v>10.69933681118113</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.824236506073117</v>
+        <v>5.906269283691774</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1.134405350292823</v>
+        <v>6.636302986895224</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>2.562200059034076</v>
+        <v>7.28968546254028</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.6931324610412233</v>
+        <v>4.657560906296084</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>1.779298917338721</v>
+        <v>6.863712524136123</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>3.933909805625703</v>
+        <v>7.331238946693123</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.309084594742792</v>
+        <v>5.554085601698674</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-4.907461793711963</v>
+        <v>3.882684029706944</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-0.1885769628897727</v>
+        <v>6.168715064605994</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1.273610280870248</v>
+        <v>5.653927798937463</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1.772398984896981</v>
+        <v>5.056146691913682</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2.431536291653131</v>
+        <v>7.04499171504235</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-2.062688388425371</v>
+        <v>3.339264995471019</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>2.513689317761337</v>
+        <v>4.828731144422754</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.847161086778044</v>
+        <v>6.603663166308696</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-3.642308212135617</v>
+        <v>5.080120089015466</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-2.257117243616914</v>
+        <v>4.123485437553011</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-0.1358997077901236</v>
+        <v>5.422262807210259</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>14.24572162847604</v>
+        <v>18.20653937778007</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.92552945829846</v>
+        <v>22.38469447560418</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.62409831177077</v>
+        <v>22.03900747406423</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1.09813455440419</v>
+        <v>6.175409521844752</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>5.48848673357606</v>
+        <v>11.60057597411521</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.48445342718522</v>
+        <v>13.76805863726084</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>7.877313174699717</v>
+        <v>11.81705439259727</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>18.58649369473316</v>
+        <v>23.22614169461848</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.18622032475721</v>
+        <v>27.11182599182555</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>18.36615159026075</v>
+        <v>21.50385587553292</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.32968159908258</v>
+        <v>24.43328605732194</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.71272442828077</v>
+        <v>26.43294414006165</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>11.67033825687773</v>
+        <v>16.20385692817615</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>15.84843729279887</v>
+        <v>20.95876725526533</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.07311522124227</v>
+        <v>24.37535487660477</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.36939592728226</v>
+        <v>17.06158763499036</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.82634983913109</v>
+        <v>27.44536190854225</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>32.92759128393293</v>
+        <v>35.9219838926732</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>1.804325693366732</v>
+        <v>5.483340537716785</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.6432778792681</v>
+        <v>16.74618293325149</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.99821052614753</v>
+        <v>20.20768707021493</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.48630314686713</v>
+        <v>12.91245030638036</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.76474242352272</v>
+        <v>36.61913518157049</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.35604946316057</v>
+        <v>42.22880825872482</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.73531619160068</v>
+        <v>33.49871335910649</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.43279312930025</v>
+        <v>37.72581456308475</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.15072844657944</v>
+        <v>40.57065872350488</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>20.80665021383332</v>
+        <v>24.00418481014935</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.83974979456148</v>
+        <v>39.40033505528287</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>41.43750367245515</v>
+        <v>44.6137852701315</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.91392950370776</v>
+        <v>15.35285994311659</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>19.01892423738147</v>
+        <v>24.8905978368691</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.56130428221297</v>
+        <v>30.29631005123382</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-2.178470538019472</v>
+        <v>6.038190604595091</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>0.7752218941103273</v>
+        <v>8.191864011799098</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>8.206755584165409</v>
+        <v>12.51223668959345</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.08099013464043</v>
+        <v>10.56645302265832</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.98683854933005</v>
+        <v>21.97045913479342</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>23.55337451812953</v>
+        <v>27.31941512459353</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.71902505056498</v>
+        <v>19.0044545109304</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.74067125386677</v>
+        <v>24.64461403111875</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.40189062080101</v>
+        <v>28.52763009138052</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.771001222479832</v>
+        <v>14.47227799250344</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.46283904846128</v>
+        <v>26.03813744048556</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.78393278126239</v>
+        <v>29.81188355488235</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.1648548908675</v>
+        <v>20.33682893329373</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.93095937479732</v>
+        <v>29.96521152275543</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>37.43659379518834</v>
+        <v>40.58824479772191</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>0.7839920883476594</v>
+        <v>5.16829663232491</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>10.62761315531447</v>
+        <v>15.11967564169357</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>17.92235125315673</v>
+        <v>19.15388717384339</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.275313593993896</v>
+        <v>12.12244136279031</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.92031004351179</v>
+        <v>32.78695436633896</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.76839023217762</v>
+        <v>44.25229708416224</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>34.87654897026183</v>
+        <v>39.77099499593152</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>44.98759815445956</v>
+        <v>46.81749326782705</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>51.31468632308083</v>
+        <v>50.04330068653627</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>14.13512145274805</v>
+        <v>19.71144401135245</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.84856744381333</v>
+        <v>36.69583179007225</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>40.78980239396006</v>
+        <v>41.65999792075304</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.50451086149653</v>
+        <v>15.42395089998185</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.32643631223509</v>
+        <v>28.19621909377928</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.97568950036518</v>
+        <v>36.13538654969236</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.955567255953994</v>
+        <v>5.925009534115464</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.93203946740434</v>
+        <v>29.1763950573772</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.46302526083859</v>
+        <v>34.13339681364707</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.21410180551109</v>
+        <v>11.34797505363759</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>51.78030563673792</v>
+        <v>50.52130021906297</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>57.19702450568499</v>
+        <v>58.43071955609955</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>47.0077660008137</v>
+        <v>46.386841876422</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>47.91744136573368</v>
+        <v>50.70474116139768</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>55.37583692720768</v>
+        <v>54.83169466091941</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.46328011406911</v>
+        <v>13.31311594119259</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.59537985729796</v>
+        <v>30.26667258226292</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>43.40234853544975</v>
+        <v>42.83164839891142</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>8.297358359526772</v>
+        <v>11.5024178598522</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.89480571208654</v>
+        <v>30.05815038773075</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.93891659773816</v>
+        <v>33.87090148211268</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>1.077296166787804</v>
+        <v>5.342695736832134</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>14.36360399995269</v>
+        <v>18.05087420661087</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.03587036502085</v>
+        <v>27.74237998101283</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1.300973647910943</v>
+        <v>6.688628537593477</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.15619717195281</v>
+        <v>34.65311869260177</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.53728015632753</v>
+        <v>39.60155839815708</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.68175459746644</v>
+        <v>34.07730004932305</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.99447914260057</v>
+        <v>42.98361188461691</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.26808790913167</v>
+        <v>49.7052967785264</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>3.592056868607401</v>
+        <v>7.686107460778945</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.51749350344508</v>
+        <v>30.85218171301792</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.98134053236267</v>
+        <v>39.45861887650273</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>7.658320706286124</v>
+        <v>7.744814016557957</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.34784020514003</v>
+        <v>26.54342417655802</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.84844840972261</v>
+        <v>35.88425954892422</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-1.836434265465996</v>
+        <v>3.804179446892061</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>18.52930155085487</v>
+        <v>17.75627281818525</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.98855116169213</v>
+        <v>31.80911090342738</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-0.01103929625031341</v>
+        <v>5.935259270481758</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.99465007450523</v>
+        <v>32.42245634043508</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.78410485477613</v>
+        <v>55.01528958132641</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>40.00709262365814</v>
+        <v>38.87647293914375</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.20263049117933</v>
+        <v>53.32806301656412</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>65.97241063745207</v>
+        <v>65.68627029072465</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-0.07278030318888185</v>
+        <v>4.468953721303503</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.66857872886445</v>
+        <v>38.21686440919565</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>49.67530069086938</v>
+        <v>51.90088535968117</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>6.458062076930409</v>
+        <v>12.28326829742692</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>19.66840800635908</v>
+        <v>18.99610990285932</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.99288226789677</v>
+        <v>34.32796790718973</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>4.266930975385741</v>
+        <v>5.789087473174988</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.84922647734795</v>
+        <v>38.23541879683032</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>39.79598066753556</v>
+        <v>43.63525422916597</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>9.420129591446212</v>
+        <v>9.691246775006412</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>52.53551800088974</v>
+        <v>55.13828848580579</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>59.60681322785442</v>
+        <v>61.43640095405566</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.46561022297706</v>
+        <v>39.45347411912628</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.2546692253873</v>
+        <v>41.05507436785472</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.82523443520644</v>
+        <v>41.79513527068799</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>13.16722915247558</v>
+        <v>14.50853394751418</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.67812022070417</v>
+        <v>25.69500189638657</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.37963383847458</v>
+        <v>54.88071638605974</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>11.63834509701003</v>
+        <v>14.40579849077843</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>27.42056643719654</v>
+        <v>30.92876446715359</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.39461048454777</v>
+        <v>34.61846900947427</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1.084363031017265</v>
+        <v>6.010376445532753</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>17.2912063908617</v>
+        <v>22.00869688895783</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.171614087188</v>
+        <v>27.01089680521533</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1.16297983239923</v>
+        <v>7.302025568648116</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.55072607064102</v>
+        <v>34.03549410487967</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.05766193442433</v>
+        <v>40.15193366733531</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.90219489969004</v>
+        <v>32.53815802044492</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.71636101152291</v>
+        <v>41.57338053514451</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>50.2696822815103</v>
+        <v>47.24307428039064</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>4.862494577387807</v>
+        <v>8.749308857182367</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.26676560562566</v>
+        <v>31.14157406972809</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.95372048658641</v>
+        <v>37.64517379054196</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.04016358779267</v>
+        <v>10.51837984125625</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.44763844438771</v>
+        <v>27.74476196696893</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.81343663940501</v>
+        <v>36.72537581224483</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.108254015905938</v>
+        <v>5.824253005751064</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>21.95729026354914</v>
+        <v>25.2085175866739</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.9140986054414</v>
+        <v>31.83928069459526</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2.223116689651818</v>
+        <v>7.613798355524374</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.99624004017596</v>
+        <v>41.13733996969918</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>55.08620842291366</v>
+        <v>55.40570021664671</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>43.77116560092684</v>
+        <v>45.63603497315677</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>53.67762794231813</v>
+        <v>57.21592697835443</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>65.04368181812768</v>
+        <v>64.83407470438891</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2.573526870592559</v>
+        <v>7.937286009061115</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>34.61396849181019</v>
+        <v>41.23429601362882</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.6248974909821</v>
+        <v>53.23760301283696</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.32307588377676</v>
+        <v>20.42855307048279</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.63715468910917</v>
+        <v>21.43590124011025</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.73013760892673</v>
+        <v>36.18714463041486</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.65471359024726</v>
+        <v>11.60265152801686</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>43.98157462979992</v>
+        <v>44.73073370894856</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>47.7668032180983</v>
+        <v>49.49908401597696</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>18.26392653593543</v>
+        <v>15.19827788499798</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>50.67616448109176</v>
+        <v>53.16881539554473</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>57.51841533681863</v>
+        <v>59.95120830212728</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.79180519688634</v>
+        <v>37.98393619012279</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>39.52367007835957</v>
+        <v>39.38038305306013</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.6428576076682</v>
+        <v>40.74641332213342</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.47924829487938</v>
+        <v>30.20687639229518</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.16423400721582</v>
+        <v>22.34347678154644</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.79822055082531</v>
+        <v>41.9195570646807</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.8242162847765</v>
+        <v>21.87452589238886</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.78165080198673</v>
+        <v>31.81944735912496</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.56314126628195</v>
+        <v>37.25909592755275</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>32.70907287134384</v>
+        <v>36.09695945581274</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>41.08652860974881</v>
+        <v>45.45502394176147</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.95737580231189</v>
+        <v>47.88502623153779</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.96335601600206</v>
+        <v>11.586948159547</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.40602520689862</v>
+        <v>37.00212216214673</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>47.7816840018924</v>
+        <v>42.79135222050567</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.31122070427415</v>
+        <v>36.63306825355351</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>43.0918706832919</v>
+        <v>42.43302028659519</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>51.29319882825249</v>
+        <v>47.29476578523257</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>17.44192048062255</v>
+        <v>20.25902258395256</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.9694017523751</v>
+        <v>34.05663505742385</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.57006642404787</v>
+        <v>40.01248609267002</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.06455691060712</v>
+        <v>19.48405817847804</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.37490581912462</v>
+        <v>28.95692824714473</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.8086473525781</v>
+        <v>37.4934033466379</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>32.73261724780745</v>
+        <v>36.87918169749364</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.40746359738388</v>
+        <v>49.09420261495508</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>46.97046821615568</v>
+        <v>49.48369078493558</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.41169858801535</v>
+        <v>13.32800271140564</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.22235121754969</v>
+        <v>44.82992602545794</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>56.89845836984523</v>
+        <v>56.19955040950813</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.90479866262658</v>
+        <v>48.6036899456717</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>56.15421762377536</v>
+        <v>58.6896481601905</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>66.65082871897079</v>
+        <v>65.45709860253999</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>15.19155401688677</v>
+        <v>20.0788845698866</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.00593314645164</v>
+        <v>42.29855417138847</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>52.96456826279617</v>
+        <v>54.1663080208873</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>6.00712407058483</v>
+        <v>6.425358529204971</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.73839490102878</v>
+        <v>20.56545394149154</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.45528125286501</v>
+        <v>32.07482699566923</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-1.357590925460876</v>
+        <v>4.235630187900561</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.92696087788657</v>
+        <v>21.20176204958051</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.40619019749903</v>
+        <v>22.6400605393963</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>2.17180040615025</v>
+        <v>6.461847118444105</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.11011200463909</v>
+        <v>41.73285513550928</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.6811880865142</v>
+        <v>48.97208890850088</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.2473167121868</v>
+        <v>43.29212709467957</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.50186158879705</v>
+        <v>43.65655745309483</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>44.30347404159923</v>
+        <v>45.84686339908623</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-2.111526791308535</v>
+        <v>3.814134383167087</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.46141307358756</v>
+        <v>24.51145109612546</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.86098889731702</v>
+        <v>30.9329105358538</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>7.496466925133461</v>
+        <v>9.636324920260357</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>24.26971390507095</v>
+        <v>28.3116770538215</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.70680631241348</v>
+        <v>29.97906975541494</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-1.010818184169011</v>
+        <v>5.238326260096578</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>15.19285041427445</v>
+        <v>19.76899981775229</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.57538988053173</v>
+        <v>24.21205037194013</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-0.6545992802720768</v>
+        <v>6.923115287603771</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.5472734559978</v>
+        <v>31.08095670063662</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.24783726767612</v>
+        <v>37.15271028033411</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.08958982768678</v>
+        <v>31.2031766209413</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>37.15142802562163</v>
+        <v>39.6028240973105</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.38369777234333</v>
+        <v>44.65427249649251</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-0.5538032898252503</v>
+        <v>6.599218176472331</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.79505152620348</v>
+        <v>31.01249511669968</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.03392247959061</v>
+        <v>36.43921023258839</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>7.24518201882171</v>
+        <v>7.848451081585463</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>23.74326851987897</v>
+        <v>26.02370071441948</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.3419964599388</v>
+        <v>35.17700431588713</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-3.131570608121262</v>
+        <v>4.703974817542214</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>18.02477777465294</v>
+        <v>18.96330043913568</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>23.56206268868716</v>
+        <v>26.07436201990737</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1.861243814919099</v>
+        <v>6.44629548731249</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.9046733782246</v>
+        <v>31.31142580551779</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>49.93443762570514</v>
+        <v>48.50200838645143</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.07800408317673</v>
+        <v>41.36166814657092</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>53.596541304299</v>
+        <v>57.96019194318654</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>62.03425153959498</v>
+        <v>61.83069723871068</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-3.197453781042896</v>
+        <v>5.781864850496895</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>35.36883676964388</v>
+        <v>38.34503238912236</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.44600357489803</v>
+        <v>48.05801995546989</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>8.743067673645525</v>
+        <v>13.01331010489652</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>8.789302541338943</v>
+        <v>14.56976481612419</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.77685546982709</v>
+        <v>17.05388565548432</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>1.450125734430092</v>
+        <v>7.128358368149026</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.219595821556638</v>
+        <v>12.23506497406396</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>12.40361541062281</v>
+        <v>12.47895785540169</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>7.603008581929345</v>
+        <v>13.5999849696405</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.85414434406903</v>
+        <v>19.79492061750686</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.87304022709745</v>
+        <v>22.75085550862151</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.23942726100084</v>
+        <v>18.61800046355405</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>18.00686636624281</v>
+        <v>21.32002335511035</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>21.4252358872583</v>
+        <v>23.77424265489507</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>3.526600704865714</v>
+        <v>12.44148461047832</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>6.171219991504806</v>
+        <v>12.7017884068212</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>13.40037519811255</v>
+        <v>16.68032406121149</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>3.452029164869842</v>
+        <v>9.32853937358189</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>15.84614978710829</v>
+        <v>19.93190468290727</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>24.89598696704918</v>
+        <v>27.49325806324484</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-3.763973658629485</v>
+        <v>3.869380831244936</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.196346632159795</v>
+        <v>6.692821495075922</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>15.61164717350528</v>
+        <v>17.66033616404012</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-4.037028312187672</v>
+        <v>5.425450911225287</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>15.02866417067488</v>
+        <v>13.55546691948581</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.7697880414234</v>
+        <v>31.30098998592684</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>19.39525550066476</v>
+        <v>19.03059091042168</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.68724764288953</v>
+        <v>28.66439869213634</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>36.28489207458676</v>
+        <v>38.52031415623841</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-5.704153235203027</v>
+        <v>4.054876764960792</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>16.08402855772641</v>
+        <v>19.49636002933737</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.80646734449071</v>
+        <v>29.32396964063727</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>6.773709861026504</v>
+        <v>13.58524379837162</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>19.09050348213075</v>
+        <v>25.90180177879956</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.74199536078471</v>
+        <v>31.63611883353939</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-4.031949264707549</v>
+        <v>3.368899454233439</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>10.12766324809985</v>
+        <v>14.64718738676037</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>18.78529082958301</v>
+        <v>22.59959201999504</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-0.08543385961993266</v>
+        <v>6.385357229048534</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.3463794246149</v>
+        <v>24.54250261683865</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.89285704106251</v>
+        <v>39.84134818361211</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.60497908506268</v>
+        <v>31.82987731487312</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.34305409834611</v>
+        <v>40.87870140457121</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>43.99491580194807</v>
+        <v>44.70410525402199</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-2.828192254442264</v>
+        <v>4.27520285155736</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>22.81817567375268</v>
+        <v>25.38370720870312</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>38.15540953460012</v>
+        <v>41.31115366368599</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>9.97938419338505</v>
+        <v>15.16982998310262</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>11.98495609462361</v>
+        <v>19.58955723279582</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.00037197765737</v>
+        <v>21.74539033212592</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>1.450052062046154</v>
+        <v>6.274517467972267</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.80786623133323</v>
+        <v>21.70734658074453</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.65626143637552</v>
+        <v>22.12259497216155</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>9.560714363707813</v>
+        <v>15.36328956310673</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.49039459872402</v>
+        <v>31.84670313907959</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.50901308807759</v>
+        <v>33.27446392446076</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.12459443056679</v>
+        <v>27.1555015311484</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.60127047754069</v>
+        <v>29.21457289681013</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>32.91693866493807</v>
+        <v>32.37927139308832</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>9.338858539502409</v>
+        <v>12.61162027155169</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>11.94704630369498</v>
+        <v>19.12889155074575</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.84830400196238</v>
+        <v>25.03575754481212</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>7.594978985007446</v>
+        <v>7.450809155781076</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>18.05890072459867</v>
+        <v>21.23569431417745</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.53924209977234</v>
+        <v>33.11737083471359</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>6.247194123230821</v>
+        <v>6.045761365184209</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>11.07225932419504</v>
+        <v>13.30559606168211</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.70485357308265</v>
+        <v>32.22271169980495</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1.207670972891695</v>
+        <v>8.43764081698113</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>18.34790859294127</v>
+        <v>22.02758217910657</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.14927800552239</v>
+        <v>35.76608266451196</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.89383433441627</v>
+        <v>21.14371751058736</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.65154067970412</v>
+        <v>32.49808460367764</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>42.97074267989956</v>
+        <v>45.71327992211658</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-2.52628361707135</v>
+        <v>5.098060298773902</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>16.01534457134562</v>
+        <v>23.82645226858179</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.18651126282606</v>
+        <v>29.28779317133211</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>7.635180567040994</v>
+        <v>8.144242665266219</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.16923278180031</v>
+        <v>20.00786578664275</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.01253869648359</v>
+        <v>29.77546562624708</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.521880367619559</v>
+        <v>4.643443082069826</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>13.62101108924874</v>
+        <v>18.38030031712999</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.72191776398187</v>
+        <v>22.6617933919891</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-0.1064040780658679</v>
+        <v>7.657052629242262</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>24.18498717357487</v>
+        <v>28.40257852895426</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>39.41996277981058</v>
+        <v>38.61220389390799</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>32.97389356115733</v>
+        <v>34.82663514646473</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.98606972041206</v>
+        <v>40.91757097611833</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>51.7793786055356</v>
+        <v>49.34527186642657</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-4.639681864269619</v>
+        <v>1.29909682236617</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>16.57316313618002</v>
+        <v>19.83373736708444</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>37.93419865322028</v>
+        <v>37.94276152847601</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>15.01206183854449</v>
+        <v>16.98392279871049</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>23.98416914415009</v>
+        <v>21.65309593240091</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.44151959212724</v>
+        <v>33.07548255937618</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>6.39775153988468</v>
+        <v>6.273560816115602</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.58943601037825</v>
+        <v>39.10788827049683</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>42.23688190350771</v>
+        <v>41.95070334229809</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.74145348672992</v>
+        <v>14.38250499044013</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.6301247992261</v>
+        <v>59.45478805896958</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>61.77606968782151</v>
+        <v>60.62162017339872</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.59851690783651</v>
+        <v>41.92257337944594</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.52568338010288</v>
+        <v>43.78216083964503</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>45.854698761389</v>
+        <v>46.91255734222268</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>24.43012083943989</v>
+        <v>25.54716298735021</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.94475234822361</v>
+        <v>24.02942651347302</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>57.67025444810419</v>
+        <v>58.56514758341417</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>19.64061800792654</v>
+        <v>22.20770129243926</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.29749979033823</v>
+        <v>31.86453614949752</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.34267124387701</v>
+        <v>34.07369935438305</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>5.507183789646408</v>
+        <v>6.771409050171219</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>22.61333104274347</v>
+        <v>24.43107900152151</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.05917073355448</v>
+        <v>29.76416614948478</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>7.748773401982731</v>
+        <v>11.12637742013523</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>37.89765396475015</v>
+        <v>40.2152176715963</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.31560400084697</v>
+        <v>45.32373980686184</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.73983356407415</v>
+        <v>38.58414355289711</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>43.39077301553242</v>
+        <v>48.05102303674511</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>51.11768586289521</v>
+        <v>48.64075151348888</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>16.48323230775365</v>
+        <v>18.51574937889541</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>35.77841888331722</v>
+        <v>38.53965901415677</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>44.62004928061662</v>
+        <v>44.48108273888542</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>17.87072739802188</v>
+        <v>22.73386082816067</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.87388273025748</v>
+        <v>32.3372391635859</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>38.99322924467104</v>
+        <v>37.41516538426326</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>3.317412670584631</v>
+        <v>6.00146723941473</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>24.40435039937637</v>
+        <v>26.07504768863798</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.76047620328004</v>
+        <v>31.10395438580644</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>6.421018414759809</v>
+        <v>10.58518400490774</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>44.7494947957113</v>
+        <v>44.47452556662353</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>58.25599442731264</v>
+        <v>57.32268485669876</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>47.06591553712545</v>
+        <v>47.35290141573209</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.48987536000955</v>
+        <v>57.04625110724137</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>67.03709102161164</v>
+        <v>63.7116989068823</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>12.74527154882846</v>
+        <v>12.17566567374346</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>39.70683018877411</v>
+        <v>42.37012164998895</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>55.80613610834892</v>
+        <v>52.03673659834804</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>4.185868136937692</v>
+        <v>6.706411054944187</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.80831792144576</v>
+        <v>19.03829859372965</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>27.78284767623285</v>
+        <v>29.03186345879743</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-0.2728698173023929</v>
+        <v>4.714023808041478</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>19.90390292720158</v>
+        <v>21.56632861508807</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>21.92886508454582</v>
+        <v>22.10907117014629</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>1.329880607795388</v>
+        <v>6.975272080375632</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.68418709862885</v>
+        <v>36.87729573610751</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.62348798156579</v>
+        <v>43.21246259167718</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>38.34651158307513</v>
+        <v>40.93381083959063</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>41.54100217160624</v>
+        <v>46.05731852297087</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>43.13024807043172</v>
+        <v>43.73750328808283</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-3.366480475041513</v>
+        <v>3.729973198002963</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.79362154090642</v>
+        <v>24.54097373953341</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.94379934361047</v>
+        <v>28.46850702360353</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>7.761830711081677</v>
+        <v>10.58000100068135</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>24.80378141373404</v>
+        <v>29.92973241852133</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.98044526744235</v>
+        <v>30.04905863594011</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>0.5201084795425359</v>
+        <v>5.80656669342012</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>16.18675314623167</v>
+        <v>19.71094243521492</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>21.90135957906573</v>
+        <v>26.13948657560422</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>2.139500368745928</v>
+        <v>8.557082615485761</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>32.21453221122804</v>
+        <v>35.14637794448056</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>42.34641820444254</v>
+        <v>45.16964565447084</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.2919560423099</v>
+        <v>34.81917437127466</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>40.5215669834151</v>
+        <v>42.5361871007906</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>46.80200646823268</v>
+        <v>47.17363959497575</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>0.1874214309598159</v>
+        <v>7.200259559442078</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.59028745181561</v>
+        <v>33.58988443090013</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>37.60303670267254</v>
+        <v>40.71325434453083</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>6.887370058629411</v>
+        <v>9.27890403624064</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>23.29397841367127</v>
+        <v>28.71638208625912</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>32.88459881281005</v>
+        <v>36.88384135003065</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-2.713072261897864</v>
+        <v>4.130597321263096</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>18.72318331093989</v>
+        <v>18.02642410955067</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>22.77446793337486</v>
+        <v>23.36369178956554</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-1.797962935246556</v>
+        <v>6.297045007369853</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>33.45122438882587</v>
+        <v>31.85465358124765</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>48.18113944116095</v>
+        <v>46.83754266551884</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>40.26570202640458</v>
+        <v>42.17499899737623</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>52.00397985432357</v>
+        <v>53.0172717696417</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>60.71005075585098</v>
+        <v>59.82767197151617</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-3.583808992643824</v>
+        <v>4.800704919375125</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>33.91340433524135</v>
+        <v>33.4436131026909</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>46.84903656539052</v>
+        <v>47.85585446195276</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.552</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.645</v>
+        <v>17.85</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.756</v>
+        <v>17.044</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.992</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.359</v>
+        <v>1.537</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.45078240719144</v>
+        <v>14.42653235636824</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.08465759270705</v>
+        <v>16.77249590982916</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.16373741067951</v>
+        <v>19.09335307001978</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.10807289231051</v>
+        <v>9.44576230722496</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.53673931465592</v>
+        <v>15.55517162056624</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.77244195619043</v>
+        <v>15.45076307148068</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.58754812275177</v>
+        <v>12.40065319871358</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.59853189452251</v>
+        <v>20.32361941937381</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>20.66550509633625</v>
+        <v>22.51012609972654</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.03950173939685</v>
+        <v>19.77030627014146</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.3982293726783</v>
+        <v>22.73997077599211</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24.9761244490711</v>
+        <v>26.33942568603138</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.856036949005361</v>
+        <v>12.96566765677097</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12.04223952553115</v>
+        <v>16.04639260348171</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14.63021594173899</v>
+        <v>18.13422282812117</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.10436252950296</v>
+        <v>14.27828669496269</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.16169722143526</v>
+        <v>26.98538009729914</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.56865382056831</v>
+        <v>36.1876779324668</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.903086176876517</v>
+        <v>8.860476955849599</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.103683040627395</v>
+        <v>14.05326428382841</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.70620706112479</v>
+        <v>23.77356854756736</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.474869448821572</v>
+        <v>9.079407726243463</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.44340652442253</v>
+        <v>24.94786132491818</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>40.98190502293744</v>
+        <v>40.17160012438179</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.63154059795635</v>
+        <v>24.72254345337265</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>41.38298688658627</v>
+        <v>39.9262505905712</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>58.50601935792665</v>
+        <v>55.73315508715538</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.810377510441295</v>
+        <v>9.476043620267497</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.30932931703848</v>
+        <v>28.9249814852575</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>42.55507299371224</v>
+        <v>41.8315887352143</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.03757226178634</v>
+        <v>15.79063384204889</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.13353885699948</v>
+        <v>30.39170081536247</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.7943115327083</v>
+        <v>37.07324022020737</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4.024914038760947</v>
+        <v>9.266916295318552</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16.46666812304198</v>
+        <v>20.16462494777728</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.45477983911761</v>
+        <v>27.7775730046136</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.738184801395793</v>
+        <v>9.140204382609785</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.68957092646723</v>
+        <v>30.45559512248655</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41.6490911159634</v>
+        <v>40.66967056362538</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.79228523401176</v>
+        <v>37.34930939061627</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51.33546220229294</v>
+        <v>49.31492071283598</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>61.21558688395326</v>
+        <v>56.98589407568686</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>11.08591649247684</v>
+        <v>15.71719621769536</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37.8812536183308</v>
+        <v>38.71691846271919</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>44.79611746492014</v>
+        <v>43.76492023463216</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.57127439923795</v>
+        <v>10.29331382495443</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.75894929481862</v>
+        <v>28.71325783963017</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.6403552285695</v>
+        <v>36.44088996156339</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.538472401930015</v>
+        <v>9.849188369432127</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.01283724081934</v>
+        <v>31.427603546044</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.87995929053823</v>
+        <v>35.4693152713862</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.782358900054135</v>
+        <v>10.51105383345224</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>53.4209072849291</v>
+        <v>49.36992068848851</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>61.2431347762998</v>
+        <v>55.50616326491064</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49.00483412484322</v>
+        <v>45.74267723709902</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>51.28873915159449</v>
+        <v>52.67023064665781</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.0497499374167</v>
+        <v>48.56021279886273</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.256947957216656</v>
+        <v>10.91708137092115</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.85914581716371</v>
+        <v>33.28154765748163</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.69689447358817</v>
+        <v>42.06071756673746</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6.7816782088534</v>
+        <v>11.53778753376724</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.17429240932609</v>
+        <v>33.38838412955695</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.76089696089379</v>
+        <v>37.6159374389422</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.067168036598435</v>
+        <v>9.216098786644597</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>17.16009901179704</v>
+        <v>20.81641224487135</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.07414677122232</v>
+        <v>28.52533006815542</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.892526768116305</v>
+        <v>9.019131684237543</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.63710582227834</v>
+        <v>35.18253648822527</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.28648381336227</v>
+        <v>42.90908109123453</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.69602316783127</v>
+        <v>36.21822670423072</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>52.76455435699452</v>
+        <v>50.31270157549424</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>60.61236999572286</v>
+        <v>56.12680250555165</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4.681614025002002</v>
+        <v>9.805856377586924</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.38949268071767</v>
+        <v>39.96638829309094</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>46.26736997106011</v>
+        <v>44.75597993093912</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6.110374909350934</v>
+        <v>11.76896223217773</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.5674254254162</v>
+        <v>33.89466144294214</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.54083244814053</v>
+        <v>39.95237193398154</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3.968374535874869</v>
+        <v>9.702635546860662</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.32560251999441</v>
+        <v>27.07101845657937</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>32.14537749267902</v>
+        <v>32.76179850233108</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.98373615000013</v>
+        <v>9.988202766450119</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.60519075927775</v>
+        <v>43.74137047279284</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>64.78033187531578</v>
+        <v>59.0868974082402</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45.65476001874087</v>
+        <v>44.68714780062803</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>66.20924038775763</v>
+        <v>61.07090989430445</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>71.615424886486</v>
+        <v>64.9214464227494</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.827395494548139</v>
+        <v>10.18978007075347</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>49.60689322739657</v>
+        <v>47.55512357510828</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>57.04040391851123</v>
+        <v>53.56465180259518</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.49239984928693</v>
+        <v>18.11025814514327</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.53755643724482</v>
+        <v>26.58108123171501</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.76997224268186</v>
+        <v>33.0369169076988</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.511742364581483</v>
+        <v>9.538125214322019</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.42119358656035</v>
+        <v>28.39975430323873</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.87536924516434</v>
+        <v>30.34228261176655</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.865812124924794</v>
+        <v>11.73281944914498</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>52.23994417074152</v>
+        <v>49.13908160418813</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>53.82018860508185</v>
+        <v>49.51238775151761</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.16691809226619</v>
+        <v>37.41684740970879</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>44.50514235830924</v>
+        <v>42.92771994753591</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.71995022021697</v>
+        <v>41.96960280836518</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.88756017080829</v>
+        <v>15.90052264880957</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.80254841071648</v>
+        <v>27.13778471914858</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.76220386877626</v>
+        <v>30.72095513674268</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20.90303761440437</v>
+        <v>23.12677592761482</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.28665222411929</v>
+        <v>35.96331443094252</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.85113425678082</v>
+        <v>38.44604465371964</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.417927049523055</v>
+        <v>10.27610036561117</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.9366693939243</v>
+        <v>26.67044658944117</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.22978991467532</v>
+        <v>29.4022394588961</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7.026024685968324</v>
+        <v>10.99132974079048</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.81708840212444</v>
+        <v>43.12435688365809</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>48.04816781121269</v>
+        <v>45.66167059642017</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>42.95328197368634</v>
+        <v>41.85751204477296</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>55.29087182793909</v>
+        <v>51.94875102458125</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.1418096082774</v>
+        <v>55.7086049748381</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.04133631138497</v>
+        <v>21.27733729754092</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>41.20630314734643</v>
+        <v>40.47365732076189</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48.59319958411721</v>
+        <v>46.43563554538449</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.29621076660819</v>
+        <v>21.3292978643177</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.99113955405143</v>
+        <v>35.26975078784917</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.58083935888138</v>
+        <v>39.01482067837372</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>5.113494310742514</v>
+        <v>10.0721581851401</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.69861156520322</v>
+        <v>28.00946025264875</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.31024772235669</v>
+        <v>32.62299607300432</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.196671200926819</v>
+        <v>11.16610385279271</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>49.78054728277761</v>
+        <v>47.27963651578868</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.03848893244883</v>
+        <v>58.09153368295663</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.41407014423973</v>
+        <v>47.99841922871099</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>63.24214578854324</v>
+        <v>57.06775104658126</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>70.18208695462565</v>
+        <v>63.87604813005345</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>15.34906628393788</v>
+        <v>20.04328288335385</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.54367865158692</v>
+        <v>46.27030898062667</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.49422960620235</v>
+        <v>52.97793707470233</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.91812688181884</v>
+        <v>15.30708049686979</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.03987856699638</v>
+        <v>17.70583661526191</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.11304109545436</v>
+        <v>18.81437749696245</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5.829681912939947</v>
+        <v>9.930538325358775</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.07961160239606</v>
+        <v>14.24595546944634</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.04021974140004</v>
+        <v>14.81467534798913</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9.627534520901758</v>
+        <v>13.29838119107646</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>19.8755625078354</v>
+        <v>22.73758902415317</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>21.57410523612397</v>
+        <v>23.17829441913124</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.35707040843712</v>
+        <v>21.24703357074307</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.11906281787093</v>
+        <v>22.55557979605381</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.64178102174854</v>
+        <v>26.98734970324355</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>54.55365040007572</v>
+        <v>51.48972300527265</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>57.52931038653873</v>
+        <v>53.68161448818225</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>56.2714736291645</v>
+        <v>52.55852453108881</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>10.21124104523623</v>
+        <v>14.57814345415156</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.13190611141292</v>
+        <v>27.13640688771889</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.20429254102081</v>
+        <v>35.90071768519247</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3.365081835303211</v>
+        <v>8.217705079990044</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>5.491373333057862</v>
+        <v>10.15336216786179</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.45123693605161</v>
+        <v>18.80411898819035</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3.904182736649791</v>
+        <v>8.767417114767081</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17.80843342481572</v>
+        <v>20.66161295829849</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.71384608598185</v>
+        <v>36.81541968643648</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>20.5556425400682</v>
+        <v>22.175637226528</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.59291782355527</v>
+        <v>36.96580986920059</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50.83289527843212</v>
+        <v>49.00838020338543</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5.083299368084585</v>
+        <v>10.67575545873227</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.48783925117216</v>
+        <v>29.14741679238481</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.45953744479285</v>
+        <v>35.48807242255227</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.39535609273665</v>
+        <v>22.75856114807297</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.46729876797348</v>
+        <v>29.05695849352023</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.09107766576544</v>
+        <v>35.58960457998975</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3.799245994225952</v>
+        <v>8.817614211699514</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>10.74134550606807</v>
+        <v>14.64506002695325</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.53981735716553</v>
+        <v>21.5823416136651</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>7.261125190855683</v>
+        <v>11.90681631616092</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.19378004296759</v>
+        <v>28.71436180280107</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.38403066198561</v>
+        <v>42.9841172162902</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>30.24243588869622</v>
+        <v>27.9378569932828</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>39.01662906589783</v>
+        <v>39.41938215453085</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>54.85876514323854</v>
+        <v>52.13850805138668</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>16.5874182008839</v>
+        <v>19.88762431295012</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>38.56011689743429</v>
+        <v>39.17896635316065</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>46.17028549265644</v>
+        <v>44.94314589430189</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>4.902583221987406</v>
+        <v>10.33513816144952</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14.60455041382926</v>
+        <v>18.59696013562579</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.34975518133393</v>
+        <v>27.22550157898233</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.715963961371138</v>
+        <v>9.731843773992122</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.99183412817947</v>
+        <v>24.396490067502</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.3674465043263</v>
+        <v>29.76571712347894</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.0372704642691</v>
+        <v>14.04643246206184</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>51.69057645180546</v>
+        <v>48.50730428032664</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>54.83391100105764</v>
+        <v>51.02147698607759</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.92122794998154</v>
+        <v>35.34563883412538</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.60236920539876</v>
+        <v>41.63934824139365</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>43.0802779075748</v>
+        <v>42.48383038976325</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>14.43128855942567</v>
+        <v>17.57918897529947</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13.27725223265995</v>
+        <v>16.45804890382234</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15.19406569125354</v>
+        <v>18.11342525116824</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.52165623236795</v>
+        <v>24.78394982541393</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.60891706026726</v>
+        <v>35.91824001733656</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.00923639481476</v>
+        <v>36.25061938209883</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>6.513148243834994</v>
+        <v>10.5032053690661</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.64701016128232</v>
+        <v>27.37859412326968</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.7919560115374</v>
+        <v>33.00354971561958</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7.711176656168625</v>
+        <v>12.2597244090936</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>45.92883154438871</v>
+        <v>44.30267107871504</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>49.8813673256986</v>
+        <v>47.10733185607119</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>46.1968360765771</v>
+        <v>44.5897559119806</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>59.64430939363189</v>
+        <v>55.91732351721979</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>63.02927908231568</v>
+        <v>57.63905099058584</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.79826708217944</v>
+        <v>27.38352114095047</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>47.53902906336545</v>
+        <v>45.00757686089053</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>52.52242395967016</v>
+        <v>49.14136207939028</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.99287052585978</v>
+        <v>25.00353427382045</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.44950688111917</v>
+        <v>36.91766318541362</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.76157614666427</v>
+        <v>38.88789628982298</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>5.12979972401611</v>
+        <v>10.15829038179526</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.76098950069417</v>
+        <v>22.76878003216256</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.87187197200772</v>
+        <v>29.89576745015169</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>10.45481322883781</v>
+        <v>13.77271154359696</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.66508500231326</v>
+        <v>43.23671852359671</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>59.02770727368598</v>
+        <v>54.6875315448149</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>48.79611738464281</v>
+        <v>47.06135166265562</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>60.45512634337454</v>
+        <v>56.32589577005483</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>65.94613083392618</v>
+        <v>60.72072516864292</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.21058913215848</v>
+        <v>26.18655427850612</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>48.95947278335432</v>
+        <v>47.31691529154267</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>58.95878253804412</v>
+        <v>54.55231308900978</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>3.228287876270787</v>
+        <v>9.310933013724952</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>13.62104036760208</v>
+        <v>18.07291473802988</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.96720164563688</v>
+        <v>29.5257280604863</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4.8622933658718</v>
+        <v>9.986217833466796</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.39216542565127</v>
+        <v>33.44444033675221</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.00433546652934</v>
+        <v>33.13150156012588</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>9.849849323722449</v>
+        <v>13.58086721939197</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>57.4091275981592</v>
+        <v>53.28707393179018</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>60.12717478662543</v>
+        <v>55.09299798507238</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>37.8882066924255</v>
+        <v>36.65795154596812</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>45.51067261182222</v>
+        <v>44.72661433059582</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>47.07528733549517</v>
+        <v>45.58440560305812</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>8.746010541454936</v>
+        <v>13.40779964829964</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>11.00451421248361</v>
+        <v>14.89828683741203</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>13.17598687529193</v>
+        <v>15.75803145252608</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>15.53319566667326</v>
+        <v>19.30330910106752</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>40.03205033107775</v>
+        <v>38.95110778989229</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>41.09471390926032</v>
+        <v>39.142181115722</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.810824254967837</v>
+        <v>9.941141613835615</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.97417456423123</v>
+        <v>32.59662654113899</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>39.00713212948088</v>
+        <v>37.84969284225888</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>6.051072168983456</v>
+        <v>10.28852988115952</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>54.06237366899801</v>
+        <v>50.72443035770674</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>56.78215590303516</v>
+        <v>52.05990250343032</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>43.379081943603</v>
+        <v>42.44506577804339</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>58.00200196331899</v>
+        <v>53.7206236738335</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>64.63211912942955</v>
+        <v>59.59951448489798</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>14.12872456521721</v>
+        <v>17.92770896149473</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>52.09854878366389</v>
+        <v>49.38629112879156</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>56.81476348033659</v>
+        <v>52.73170680111937</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.58984130285135</v>
+        <v>21.60610416887939</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.42420252980643</v>
+        <v>39.51676427617999</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>42.71059354854194</v>
+        <v>40.26118079313022</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>5.923868175199896</v>
+        <v>10.03633558689989</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.00731292256807</v>
+        <v>29.57252440812388</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.95483171912121</v>
+        <v>32.89304980926833</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>8.171418980108509</v>
+        <v>11.87686603895185</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>52.10557717566548</v>
+        <v>49.07864571779844</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>63.25009573885177</v>
+        <v>57.22869711005303</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>53.32649030447415</v>
+        <v>50.14865367623874</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>66.81874401785994</v>
+        <v>61.16591133480135</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>71.81222031830636</v>
+        <v>64.99425181170304</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>12.16571894366277</v>
+        <v>17.09236353259179</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>54.01264665068065</v>
+        <v>50.91319017493468</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>60.09487474149634</v>
+        <v>55.76913627489093</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>9.314472267350748</v>
+        <v>14.10611662181161</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>9.249713594368234</v>
+        <v>14.11096720424112</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>11.52614784327122</v>
+        <v>15.64192005355845</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>4.628122881333645</v>
+        <v>10.35001806776308</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10.08423845629915</v>
+        <v>13.89249420257518</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>9.533050763781446</v>
+        <v>13.58297039450641</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.309272661789716</v>
+        <v>12.28167702446761</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.26339790407008</v>
+        <v>19.01328158716797</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.87444360686545</v>
+        <v>21.47600832555899</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.95528113526077</v>
+        <v>23.63450584877009</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.09628102317825</v>
+        <v>26.49277632215455</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.97031763828647</v>
+        <v>28.46049055562933</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>7.580115657476728</v>
+        <v>12.92630171128532</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7.522613486832569</v>
+        <v>13.2084936215715</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>11.06021584448627</v>
+        <v>15.30541007332714</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>11.4226129331303</v>
+        <v>15.05168138141747</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.82140928695033</v>
+        <v>27.47770136758287</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.82302171859424</v>
+        <v>32.08773346393901</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>4.968809918672559</v>
+        <v>9.958567321527681</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>14.10653187699559</v>
+        <v>17.8731145587109</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.14576445205449</v>
+        <v>25.77539280168554</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>8.904741651297776</v>
+        <v>12.47794721166707</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.00143493109116</v>
+        <v>29.93253166978065</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>41.23965320207198</v>
+        <v>39.82711939742421</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.58482787910539</v>
+        <v>29.94341431469831</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>41.05679356994825</v>
+        <v>40.18910550832427</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.79185777340101</v>
+        <v>44.58599207222072</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>9.01790997725411</v>
+        <v>13.65634752888252</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.3869128210192</v>
+        <v>33.14460539010106</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>42.03325156819837</v>
+        <v>40.14955947362109</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>9.148627395772294</v>
+        <v>13.83857950602342</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.89535979222848</v>
+        <v>26.58740255651252</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.5957497342041</v>
+        <v>34.48879767733294</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>3.62996433801781</v>
+        <v>9.190935699494418</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18.13211551041065</v>
+        <v>21.19662699666556</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.06443789159512</v>
+        <v>27.5623034958291</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>6.942603136197963</v>
+        <v>11.77074767482293</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.44013921423527</v>
+        <v>34.75400992241514</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>46.64538039010886</v>
+        <v>44.15321231425867</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>44.54117240582723</v>
+        <v>42.77883839957746</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>59.23632197337494</v>
+        <v>54.63990898375961</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>60.37996991965689</v>
+        <v>54.85537311618485</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>9.794408950559202</v>
+        <v>12.06808010074068</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.44842985701709</v>
+        <v>40.00406709365018</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>50.96937130355597</v>
+        <v>48.35930913889155</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>4.701942764909329</v>
+        <v>9.599145096176873</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>11.33967546557381</v>
+        <v>14.76284840175202</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>13.65132712478112</v>
+        <v>16.45346978757589</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>4.807208522947789</v>
+        <v>9.141381578078107</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>9.762694106653107</v>
+        <v>13.87954642295132</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.15294538498069</v>
+        <v>17.32335982961355</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>5.340038990083766</v>
+        <v>9.741950892720354</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>14.41227564412483</v>
+        <v>17.50537117769222</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.28688483047768</v>
+        <v>15.43260906534625</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.11924099895463</v>
+        <v>15.59193041407648</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.87394987375306</v>
+        <v>17.09158607834258</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15.02267937129093</v>
+        <v>17.85357459216134</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.604826185525955</v>
+        <v>11.78492034999867</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>13.86612022741999</v>
+        <v>16.77666660736759</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>14.95616889779822</v>
+        <v>17.4874381475932</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>4.568836577405758</v>
+        <v>9.002098345145221</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>8.23771181266833</v>
+        <v>12.20941258087794</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>20.69704091491886</v>
+        <v>21.96252542294729</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>5.819528184876237</v>
+        <v>9.570603364799759</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>4.079962793111946</v>
+        <v>9.927046448631106</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.94827895531045</v>
+        <v>15.11047228079129</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.055512709677188</v>
+        <v>10.44633372504868</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>6.922227762741461</v>
+        <v>12.03341566760285</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.64637982392572</v>
+        <v>24.62565059788331</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>8.77862737999218</v>
+        <v>13.00173999939257</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.61938156935533</v>
+        <v>24.67655560131958</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.87749080233126</v>
+        <v>37.07549984229091</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4.338704586530355</v>
+        <v>8.934066759409522</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>9.907459711709059</v>
+        <v>13.99689689073733</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>12.88437183550427</v>
+        <v>15.99003716664213</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>3.763895553452556</v>
+        <v>8.601668419444973</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>9.912624150417866</v>
+        <v>13.59575600588045</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.46561367802792</v>
+        <v>24.88150717123278</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>5.140048572993265</v>
+        <v>9.382046293875398</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>5.22321843767633</v>
+        <v>10.53583442298833</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.42396886009075</v>
+        <v>20.10362065615346</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>5.781855476971938</v>
+        <v>9.586878966775799</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8.883571228709499</v>
+        <v>13.36071919017393</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>38.01769717090826</v>
+        <v>32.80159379872539</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>14.86522297718269</v>
+        <v>18.09765865273926</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.9513663182485</v>
+        <v>40.0409522376196</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>53.26437317717961</v>
+        <v>49.92160868440524</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>2.700251713491003</v>
+        <v>8.274746880176661</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>13.93057716086216</v>
+        <v>13.73577224369347</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>18.55855690512215</v>
+        <v>17.89934880514978</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12.63696369992775</v>
+        <v>17.15342232726671</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.96230082124882</v>
+        <v>19.65933604526094</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.60014906856716</v>
+        <v>34.13799337442443</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.587946422701283</v>
+        <v>10.08887365887012</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.38097833315584</v>
+        <v>37.94572709147823</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>40.1605278935692</v>
+        <v>38.51371061416427</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.842298085708627</v>
+        <v>13.05669146634139</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>55.69052991808698</v>
+        <v>51.47953997112696</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>60.77202581848822</v>
+        <v>54.88668604750434</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.31983628137107</v>
+        <v>39.66158589434893</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>45.04020477488837</v>
+        <v>43.10827694380445</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>46.74756864208025</v>
+        <v>44.09905970397358</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.8180049387949</v>
+        <v>26.12502968610737</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.99194743842522</v>
+        <v>31.93052428309255</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>62.04758675561514</v>
+        <v>57.42748489971397</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9.368789518044139</v>
+        <v>13.73788455701522</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.11235906751746</v>
+        <v>30.04312776376981</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.14443183274498</v>
+        <v>31.91428727707205</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5.04714189053816</v>
+        <v>10.09782311116689</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.76399982372517</v>
+        <v>25.99325024244407</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.04171276508353</v>
+        <v>28.26655300112951</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>7.844186258550792</v>
+        <v>12.58630536616183</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.42882080119762</v>
+        <v>39.30106039301682</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>43.64482437633846</v>
+        <v>41.66796389287128</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.70821582351833</v>
+        <v>35.48971981957584</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>45.90402426482484</v>
+        <v>43.31908358742817</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>49.93812932065344</v>
+        <v>46.39290875414771</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.3885416745345</v>
+        <v>19.93274658194098</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.21302707754919</v>
+        <v>37.24343903454297</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>43.28319013646452</v>
+        <v>41.58613195551115</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>13.37924870296245</v>
+        <v>17.65594488030303</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.67909649756534</v>
+        <v>28.74397385946113</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.25533687309378</v>
+        <v>38.00119659964962</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>4.977539690926875</v>
+        <v>10.06705226411216</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.21391875088988</v>
+        <v>29.88528288930076</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.17202003430508</v>
+        <v>33.87419013245052</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>8.945891823710451</v>
+        <v>13.23899847633942</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>47.5668165184924</v>
+        <v>45.61154848626033</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>62.35933941468541</v>
+        <v>56.94166928228765</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>47.1944067100077</v>
+        <v>45.3474359085341</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>60.03492177007685</v>
+        <v>54.57749380488126</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>64.32030738995715</v>
+        <v>57.90833765823348</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>14.36835059092803</v>
+        <v>18.80366479913344</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>49.60971697629824</v>
+        <v>47.12477050688389</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>60.96753265498805</v>
+        <v>55.64062738177306</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.943516002364987</v>
+        <v>14.5260467338236</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.59321294847286</v>
+        <v>15.30756868379222</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.64935635748527</v>
+        <v>16.27742544248701</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>6.190988786851076</v>
+        <v>10.52270624213766</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>8.234984012534941</v>
+        <v>13.64486729382639</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>10.80746486848456</v>
+        <v>15.15353417404914</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>9.40992192608045</v>
+        <v>12.73998042783039</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>14.00934362391865</v>
+        <v>17.7248966354849</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.69440625719727</v>
+        <v>18.8856457766409</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>13.64873525915231</v>
+        <v>17.35018435410057</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.67092460372791</v>
+        <v>19.33065995193063</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.90681263391871</v>
+        <v>21.05171866318318</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>8.804610671507564</v>
+        <v>12.32619771103242</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>8.665479246301693</v>
+        <v>13.5847664634982</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>11.44484478546259</v>
+        <v>15.89022970287493</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>7.569243870820696</v>
+        <v>11.74447250823199</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>14.32700557847282</v>
+        <v>17.98362400461788</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.26211388305558</v>
+        <v>26.74570377138993</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>3.686490433811812</v>
+        <v>8.755764772189771</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>3.452128318463547</v>
+        <v>9.429132745708021</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>18.30112323582517</v>
+        <v>20.83685527930085</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>5.86537011700738</v>
+        <v>9.887497866734236</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.168734186978064</v>
+        <v>11.10353679954839</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.70101994387265</v>
+        <v>29.46222962919468</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>10.25341134348414</v>
+        <v>15.90921125516068</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.04477486563581</v>
+        <v>23.84162105489335</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.67763820224977</v>
+        <v>35.03613603771259</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>3.346670594056842</v>
+        <v>9.09354955973409</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>11.79126517136186</v>
+        <v>16.63238968613477</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.39415145284267</v>
+        <v>23.97327149240422</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.22357625248075</v>
+        <v>14.36714492133972</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>18.7071849699366</v>
+        <v>22.31089511055225</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.42817248249505</v>
+        <v>30.68921196973494</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>4.064003413007065</v>
+        <v>9.761515985513569</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>8.79540202072527</v>
+        <v>14.87894981331458</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>20.89157936348334</v>
+        <v>23.82842678503393</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>8.984411274964735</v>
+        <v>13.63550787263318</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.93539761687454</v>
+        <v>21.48007201531189</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.94421394033685</v>
+        <v>36.67006896638549</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>19.25057074342996</v>
+        <v>23.26120195514435</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.19661756661021</v>
+        <v>27.84903404412464</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>46.08633504464952</v>
+        <v>44.45533542181154</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.9695452299309</v>
+        <v>18.61399205619335</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>20.68097654370162</v>
+        <v>24.32668113489865</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.16220591794019</v>
+        <v>34.89360338888513</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.686904023484839</v>
+        <v>8.66358080497557</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>4.202150941336694</v>
+        <v>9.153634364220864</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>10.4986782160445</v>
+        <v>13.30800101702795</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>5.688571381928806</v>
+        <v>9.572523035737934</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>4.624057888131489</v>
+        <v>9.136897409150961</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>5.51540390130139</v>
+        <v>10.52450763737938</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.179043902116252</v>
+        <v>12.09826890688941</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.73117125413421</v>
+        <v>12.83072066424139</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.24897181886198</v>
+        <v>13.7756041760277</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7.164409361837709</v>
+        <v>9.976586345699701</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>7.977928674682378</v>
+        <v>10.06936686768176</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.7104258477418</v>
+        <v>19.0337566431663</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.641610806465735</v>
+        <v>9.037926361969355</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>3.686603698218335</v>
+        <v>8.274640039663264</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>3.430029193693098</v>
+        <v>8.91145307991814</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>17.4786136348834</v>
+        <v>20.1938976600551</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.24827444414329</v>
+        <v>30.001009250466</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.70100836111238</v>
+        <v>32.79537267137282</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6.073300980354734</v>
+        <v>10.13023468283317</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.30905919759718</v>
+        <v>22.57432114687088</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.73932577544219</v>
+        <v>27.87412329808359</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.04283274023083</v>
+        <v>13.29062320690512</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>42.5278355635707</v>
+        <v>40.68748512036117</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>47.57977574474575</v>
+        <v>44.73275642757508</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.80479473507279</v>
+        <v>36.3696475180089</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>47.71185592709409</v>
+        <v>45.13708834033473</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>47.00627111905452</v>
+        <v>44.07387644451908</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>16.32179399909603</v>
+        <v>19.17477552898449</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.7814165582449</v>
+        <v>37.04091765908646</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.41661597516029</v>
+        <v>42.45230157141832</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>18.20573701690463</v>
+        <v>20.97114701975977</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.31560176441745</v>
+        <v>32.26233723993377</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43.36783569930404</v>
+        <v>41.25633756460388</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>4.55786182554456</v>
+        <v>9.390214935371887</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.56456908238953</v>
+        <v>25.59665604370262</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.71063296838119</v>
+        <v>29.19398083802621</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>8.954687086539465</v>
+        <v>12.50260604359691</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>44.06828113389194</v>
+        <v>42.34035918937212</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>57.00144468176553</v>
+        <v>52.33049924231354</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>47.81050001315227</v>
+        <v>45.76457160961537</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>59.31560855655908</v>
+        <v>54.96514337669876</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>63.77752225940922</v>
+        <v>57.78170108731882</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>9.875759782061653</v>
+        <v>15.37529099806458</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>45.15640520567698</v>
+        <v>43.63939206636847</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>51.50377627856213</v>
+        <v>48.75404578555028</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>13.38821814991406</v>
+        <v>16.46054649429022</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.47402682879708</v>
+        <v>17.47174164479922</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.31229444418521</v>
+        <v>18.61087155329566</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>7.792273656749767</v>
+        <v>11.37795057936036</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>14.44679989471583</v>
+        <v>17.85385980620328</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>15.1670492466767</v>
+        <v>18.13696568064275</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>15.36412437619905</v>
+        <v>17.30656316992814</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.35369306061539</v>
+        <v>24.47497398705107</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.65936086906377</v>
+        <v>23.73743853420216</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.06872538011414</v>
+        <v>22.22652098973354</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>22.66516637966487</v>
+        <v>24.9536593918653</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.81391161985626</v>
+        <v>26.82026149828723</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>17.15866570799958</v>
+        <v>19.23606750923005</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>11.46428192921562</v>
+        <v>16.56444177257583</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>15.07746181707536</v>
+        <v>18.97422559667116</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>5.737766798850785</v>
+        <v>10.30698711795734</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>12.5494648586688</v>
+        <v>15.49493131278552</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.22717269321375</v>
+        <v>22.72159285803001</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>4.437094487958127</v>
+        <v>9.520724135739144</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>4.360268797314891</v>
+        <v>10.0487879171468</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.66672126445549</v>
+        <v>17.34800076923928</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>4.125362040905955</v>
+        <v>8.44534598135504</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>7.389901603638585</v>
+        <v>12.59475561413991</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>19.91571758852272</v>
+        <v>22.2894660793176</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>11.22359465271189</v>
+        <v>15.11259932258764</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>15.96576505874676</v>
+        <v>20.07850115383533</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.75027243925434</v>
+        <v>28.07204802730108</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>4.376698917470289</v>
+        <v>8.826544770070509</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>8.526910810414599</v>
+        <v>13.36929290189481</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>14.76661516741772</v>
+        <v>18.45729324282762</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>16.03492935941625</v>
+        <v>18.88723149773397</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.86164144907706</v>
+        <v>27.47834338024983</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.79303645549653</v>
+        <v>30.12766416869665</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>4.86451232698705</v>
+        <v>9.950696648087511</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.37730801580279</v>
+        <v>18.81947900593352</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.26008954284638</v>
+        <v>22.12326479919608</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>8.225984324730277</v>
+        <v>12.29937315278707</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.45490161159017</v>
+        <v>29.25761205254013</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.8030943113026</v>
+        <v>39.14979877546372</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.8666516569714</v>
+        <v>30.48767157358783</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.4742217867327</v>
+        <v>34.96917416534158</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>45.86190945466639</v>
+        <v>43.68548631234166</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.707061775735198</v>
+        <v>13.55976579286032</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>27.49024398222152</v>
+        <v>29.07717526789996</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.64899889218631</v>
+        <v>32.99210191870134</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.854518771380967</v>
+        <v>9.966669635680596</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.872087676508968</v>
+        <v>10.92650533342855</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>7.386260387350411</v>
+        <v>11.16249100994731</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.491975354226405</v>
+        <v>10.00512895464682</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.039955034441856</v>
+        <v>10.86213612940109</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>6.525921133352163</v>
+        <v>11.66931954696912</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>9.579288399420829</v>
+        <v>12.89193616787864</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.01847865992792</v>
+        <v>13.9666962676881</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>9.94633790579153</v>
+        <v>13.23392793383047</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.930104263241532</v>
+        <v>11.2785026366925</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>5.51964887350692</v>
+        <v>10.42867143138113</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>10.69933681118113</v>
+        <v>13.79787722924653</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.906269283691774</v>
+        <v>9.79345153526074</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>6.636302986895224</v>
+        <v>11.3270503376709</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>7.28968546254028</v>
+        <v>11.1964007070422</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>4.657560906296084</v>
+        <v>9.611773761116595</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>6.863712524136123</v>
+        <v>10.70428041942102</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>7.331238946693123</v>
+        <v>11.22620108159989</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>5.554085601698674</v>
+        <v>9.402596203845111</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>3.882684029706944</v>
+        <v>8.971972159299501</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>6.168715064605994</v>
+        <v>10.58288463608595</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.653927798937463</v>
+        <v>9.545449873184932</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>5.056146691913682</v>
+        <v>10.15125208326512</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>7.04499171504235</v>
+        <v>11.34332574293139</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.339264995471019</v>
+        <v>9.634300998392394</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.828731144422754</v>
+        <v>10.36003174011035</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.603663166308696</v>
+        <v>10.83684889084322</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>5.080120089015466</v>
+        <v>9.327190910305088</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>4.123485437553011</v>
+        <v>9.528731207531933</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.422262807210259</v>
+        <v>10.42307122992447</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>18.20653937778007</v>
+        <v>20.5272300270028</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.38469447560418</v>
+        <v>23.58522965256543</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.03900747406423</v>
+        <v>23.77586038337115</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>6.175409521844752</v>
+        <v>10.19780837074202</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>11.60057597411521</v>
+        <v>15.71416597233302</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.76805863726084</v>
+        <v>17.15921268878429</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>11.81705439259727</v>
+        <v>14.74895501626833</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>23.22614169461848</v>
+        <v>24.57044029821378</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.11182599182555</v>
+        <v>28.09364558554815</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.50385587553292</v>
+        <v>23.73549403514366</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.43328605732194</v>
+        <v>26.19285511305699</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.43294414006165</v>
+        <v>27.90934516632986</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.20385692817615</v>
+        <v>19.16371584658053</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>20.95876725526533</v>
+        <v>22.84067443598651</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.37535487660477</v>
+        <v>26.04876696615838</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>17.06158763499036</v>
+        <v>19.66135510787043</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.44536190854225</v>
+        <v>28.10907433223544</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.9219838926732</v>
+        <v>35.02493903747238</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>5.483340537716785</v>
+        <v>10.28557320906822</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.74618293325149</v>
+        <v>20.14202270781966</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.20768707021493</v>
+        <v>22.99336395539009</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.91245030638036</v>
+        <v>15.5873415378713</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.61913518157049</v>
+        <v>35.79086840054759</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.22880825872482</v>
+        <v>40.04917059279211</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.49871335910649</v>
+        <v>33.26873181483685</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.72581456308475</v>
+        <v>37.93551234073047</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>40.57065872350488</v>
+        <v>39.39182806397996</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.00418481014935</v>
+        <v>25.42999983261339</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>39.40033505528287</v>
+        <v>38.58204146948562</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>44.6137852701315</v>
+        <v>42.52846355212594</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>15.35285994311659</v>
+        <v>18.36667358080793</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.8905978368691</v>
+        <v>25.97884371117535</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.29631005123382</v>
+        <v>29.86042337656782</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>6.038190604595091</v>
+        <v>9.949966526517166</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.191864011799098</v>
+        <v>12.35196370329823</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>12.51223668959345</v>
+        <v>15.559893236874</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>10.56645302265832</v>
+        <v>12.9190378162402</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>21.97045913479342</v>
+        <v>23.749724630243</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.31941512459353</v>
+        <v>27.05044704179754</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.0044545109304</v>
+        <v>22.39668613417764</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.64461403111875</v>
+        <v>26.44133859923349</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.52763009138052</v>
+        <v>29.18066047692678</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.47227799250344</v>
+        <v>17.61135789750834</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.03813744048556</v>
+        <v>27.61961574691902</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.81188355488235</v>
+        <v>30.79303897876898</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>20.33682893329373</v>
+        <v>22.16894277834018</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.96521152275543</v>
+        <v>30.05797238349506</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.58824479772191</v>
+        <v>38.50330253872846</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>5.16829663232491</v>
+        <v>9.616194293617866</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.11967564169357</v>
+        <v>19.14801327431762</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>19.15388717384339</v>
+        <v>21.35716877929191</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.12244136279031</v>
+        <v>14.9281149384818</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.78695436633896</v>
+        <v>33.18786621373168</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>44.25229708416224</v>
+        <v>41.17923605628862</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>39.77099499593152</v>
+        <v>39.47951755556475</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>46.81749326782705</v>
+        <v>44.96577315966975</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>50.04330068653627</v>
+        <v>46.86991188044212</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.71144401135245</v>
+        <v>22.64415411557689</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.69583179007225</v>
+        <v>37.15004576817105</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>41.65999792075304</v>
+        <v>40.40421279580193</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.42395089998185</v>
+        <v>18.78519420941641</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.19621909377928</v>
+        <v>28.437162588973</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.13538654969236</v>
+        <v>34.94495326442732</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.925009534115464</v>
+        <v>10.19447196936303</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.1763950573772</v>
+        <v>29.91636052433601</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.13339681364707</v>
+        <v>33.63772227663166</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.34797505363759</v>
+        <v>14.64424627428789</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>50.52130021906297</v>
+        <v>47.72437007559095</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>58.43071955609955</v>
+        <v>53.6740878031356</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>46.386841876422</v>
+        <v>44.21398887813766</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.70474116139768</v>
+        <v>47.95913599650718</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>54.83169466091941</v>
+        <v>50.39507227159726</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.31311594119259</v>
+        <v>17.32008121780856</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.26667258226292</v>
+        <v>32.07676489839581</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>42.83164839891142</v>
+        <v>42.31289316851321</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>11.5024178598522</v>
+        <v>15.14971372956895</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.05815038773075</v>
+        <v>30.3104538448776</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.87090148211268</v>
+        <v>32.97801837743673</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>5.342695736832134</v>
+        <v>9.812541583483704</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.05087420661087</v>
+        <v>21.01784547682006</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.74237998101283</v>
+        <v>28.22620992827383</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>6.688628537593477</v>
+        <v>10.92663997540491</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.65311869260177</v>
+        <v>34.94370328889266</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>39.60155839815708</v>
+        <v>38.51962436332037</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.07730004932305</v>
+        <v>34.70617137279528</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.98361188461691</v>
+        <v>41.99608153264425</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.7052967785264</v>
+        <v>46.48218547126802</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>7.686107460778945</v>
+        <v>12.29438487222216</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.85218171301792</v>
+        <v>32.11957905453581</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.45861887650273</v>
+        <v>38.78088849176561</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>7.744814016557957</v>
+        <v>12.05355637504582</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.54342417655802</v>
+        <v>27.73806098423015</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.88425954892422</v>
+        <v>34.46396926826882</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>3.804179446892061</v>
+        <v>9.805968310345364</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>17.75627281818525</v>
+        <v>20.95830811874428</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.80911090342738</v>
+        <v>31.99287243285482</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>5.935259270481758</v>
+        <v>10.77384281803297</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>32.42245634043508</v>
+        <v>33.42576404599133</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.01528958132641</v>
+        <v>50.38489152907283</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.87647293914375</v>
+        <v>38.98691744355061</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>53.32806301656412</v>
+        <v>50.24037927512102</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>65.68627029072465</v>
+        <v>59.94171153464401</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>4.468953721303503</v>
+        <v>10.19138905094019</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>38.21686440919565</v>
+        <v>38.22590359900539</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>51.90088535968117</v>
+        <v>48.9429115603441</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>12.28326829742692</v>
+        <v>13.76492947670676</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>18.99610990285932</v>
+        <v>21.60062208254858</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.32796790718973</v>
+        <v>34.02876749064728</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>5.789087473174988</v>
+        <v>9.808995272449252</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.23541879683032</v>
+        <v>37.17995954162898</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.63525422916597</v>
+        <v>41.91935838157126</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>9.691246775006412</v>
+        <v>13.32867823778242</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>55.13828848580579</v>
+        <v>54.26059551346836</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>61.43640095405566</v>
+        <v>56.15038395139214</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>39.45347411912628</v>
+        <v>41.41292589847347</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.05507436785472</v>
+        <v>42.62197970635609</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.79513527068799</v>
+        <v>44.10810977321098</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>14.50853394751418</v>
+        <v>15.3087503723307</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.69500189638657</v>
+        <v>26.89370132364264</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>54.88071638605974</v>
+        <v>54.56817612408457</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>14.40579849077843</v>
+        <v>17.868929432273</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.92876446715359</v>
+        <v>31.19423457663272</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>34.61846900947427</v>
+        <v>33.85455001693832</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>6.010376445532753</v>
+        <v>10.02923292024102</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>22.00869688895783</v>
+        <v>23.70483570972252</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.01089680521533</v>
+        <v>27.62482697486956</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>7.302025568648116</v>
+        <v>11.39987942648177</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.03549410487967</v>
+        <v>35.90133622164821</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.15193366733531</v>
+        <v>38.57046255336208</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>32.53815802044492</v>
+        <v>33.33718610989463</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>41.57338053514451</v>
+        <v>40.62076134886443</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>47.24307428039064</v>
+        <v>44.78838402845344</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>8.749308857182367</v>
+        <v>13.23195723683172</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.14157406972809</v>
+        <v>31.47860458331287</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.64517379054196</v>
+        <v>37.27694332526558</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>10.51837984125625</v>
+        <v>14.55971820209792</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.74476196696893</v>
+        <v>28.71822785792158</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.72537581224483</v>
+        <v>35.44698333223329</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.824253005751064</v>
+        <v>9.819341357181262</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.2085175866739</v>
+        <v>26.63300711452034</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31.83928069459526</v>
+        <v>31.73119848337735</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>7.613798355524374</v>
+        <v>11.47864879374225</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.13733996969918</v>
+        <v>39.32134646686217</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>55.40570021664671</v>
+        <v>51.33148752961549</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>45.63603497315677</v>
+        <v>44.95596961285688</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>57.21592697835443</v>
+        <v>52.77534175527497</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>64.83407470438891</v>
+        <v>59.28171166384374</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>7.937286009061115</v>
+        <v>10.95612080247253</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>41.23429601362882</v>
+        <v>40.5017281271043</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>53.23760301283696</v>
+        <v>50.15542887015144</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>20.42855307048279</v>
+        <v>21.58177050024585</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.43590124011025</v>
+        <v>23.32571047363643</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.18714463041486</v>
+        <v>35.27164776723694</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>11.60265152801686</v>
+        <v>14.88249536012547</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>44.73073370894856</v>
+        <v>42.62574483007367</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>49.49908401597696</v>
+        <v>46.55311990311878</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.19827788499798</v>
+        <v>17.68339370835648</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>53.16881539554473</v>
+        <v>54.04924890584081</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.95120830212728</v>
+        <v>58.20851669437801</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.98393619012279</v>
+        <v>38.58268231615705</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>39.38038305306013</v>
+        <v>40.02610604880537</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.74641332213342</v>
+        <v>41.25677855503553</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.20687639229518</v>
+        <v>26.96469344260434</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.34347678154644</v>
+        <v>23.93546119292256</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.9195570646807</v>
+        <v>40.19194175180567</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.87452589238886</v>
+        <v>23.81528428370608</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.81944735912496</v>
+        <v>31.74689352548283</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.25909592755275</v>
+        <v>36.16412709054195</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>36.09695945581274</v>
+        <v>35.23347562259958</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>45.45502394176147</v>
+        <v>43.38086374341262</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.88502623153779</v>
+        <v>45.28135078343973</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.586948159547</v>
+        <v>14.83460565496289</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.00212216214673</v>
+        <v>36.90431142363222</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>42.79135222050567</v>
+        <v>41.14450378306674</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.63306825355351</v>
+        <v>36.35213632791082</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>42.43302028659519</v>
+        <v>41.30259439134616</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>47.29476578523257</v>
+        <v>44.7701071522927</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>20.25902258395256</v>
+        <v>22.62170213189385</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>34.05663505742385</v>
+        <v>33.75660512978838</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>40.01248609267002</v>
+        <v>39.19190319752611</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.48405817847804</v>
+        <v>22.09435453247658</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.95692824714473</v>
+        <v>29.41227509800175</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.4934033466379</v>
+        <v>36.37227039252418</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>36.87918169749364</v>
+        <v>35.84837215716318</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.09420261495508</v>
+        <v>46.31489198611516</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>49.48369078493558</v>
+        <v>47.99227065680324</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.32800271140564</v>
+        <v>15.92160121034801</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.82992602545794</v>
+        <v>43.32656576445749</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>56.19955040950813</v>
+        <v>53.50661213028255</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>48.6036899456717</v>
+        <v>47.14372155686928</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>58.6896481601905</v>
+        <v>54.55779811636577</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>65.45709860253999</v>
+        <v>60.5278522623386</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>20.0788845698866</v>
+        <v>21.90756851694665</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.29855417138847</v>
+        <v>40.70233782470662</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>54.1663080208873</v>
+        <v>50.75272909876824</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>6.425358529204971</v>
+        <v>11.36104797141294</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.56545394149154</v>
+        <v>23.90524739687061</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.07482699566923</v>
+        <v>32.5185437605632</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>4.235630187900561</v>
+        <v>9.057501453304766</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.20176204958051</v>
+        <v>23.79590268784561</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.6400605393963</v>
+        <v>24.68157602348317</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>6.461847118444105</v>
+        <v>11.10600583778492</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.73285513550928</v>
+        <v>40.50158606949789</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.97208890850088</v>
+        <v>45.84274599329298</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.29212709467957</v>
+        <v>41.64233009851225</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.65655745309483</v>
+        <v>42.44762993907027</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>45.84686339908623</v>
+        <v>43.88146155865755</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3.814134383167087</v>
+        <v>9.718658863432196</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.51145109612546</v>
+        <v>27.37232975489873</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.9329105358538</v>
+        <v>32.93587675528525</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>9.636324920260357</v>
+        <v>14.24900878704348</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.3116770538215</v>
+        <v>29.0690925756434</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.97906975541494</v>
+        <v>30.07757123668435</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>5.238326260096578</v>
+        <v>9.580857639096575</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.76899981775229</v>
+        <v>22.20883736960221</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.21205037194013</v>
+        <v>25.91336343714288</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>6.923115287603771</v>
+        <v>10.606553416712</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.08095670063662</v>
+        <v>31.97488686809303</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>37.15271028033411</v>
+        <v>36.34176839195067</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.2031766209413</v>
+        <v>32.94724600633693</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>39.6028240973105</v>
+        <v>38.89260365753947</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.65427249649251</v>
+        <v>42.19263595408306</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>6.599218176472331</v>
+        <v>11.16616738024465</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.01249511669968</v>
+        <v>32.16028229714686</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.43921023258839</v>
+        <v>36.28383284554371</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>7.848451081585463</v>
+        <v>12.62580828043051</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.02370071441948</v>
+        <v>27.29504124993601</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.17700431588713</v>
+        <v>34.25431341108082</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>4.703974817542214</v>
+        <v>9.299933305259891</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>18.96330043913568</v>
+        <v>21.99566381124368</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>26.07436201990737</v>
+        <v>27.226699424495</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>6.44629548731249</v>
+        <v>10.36513226895779</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.31142580551779</v>
+        <v>32.58090147686721</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.50200838645143</v>
+        <v>45.60204648405249</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>41.36166814657092</v>
+        <v>40.92788860454078</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>57.96019194318654</v>
+        <v>53.82025240622916</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>61.83069723871068</v>
+        <v>56.11409087563389</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>5.781864850496895</v>
+        <v>10.62778349048556</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>38.34503238912236</v>
+        <v>38.22495902445061</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>48.05801995546989</v>
+        <v>46.60989425270071</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.01331010489652</v>
+        <v>17.07023674090404</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.56976481612419</v>
+        <v>18.6790425523667</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>17.05388565548432</v>
+        <v>19.4758804734605</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>7.128358368149026</v>
+        <v>10.92205019541714</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>12.23506497406396</v>
+        <v>16.63053597166011</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>12.47895785540169</v>
+        <v>16.63570220180453</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.5999849696405</v>
+        <v>16.17214076758383</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.79492061750686</v>
+        <v>22.52006005557512</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.75085550862151</v>
+        <v>24.14829066221377</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.61800046355405</v>
+        <v>21.82013044443672</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>21.32002335511035</v>
+        <v>24.22992097601662</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.77424265489507</v>
+        <v>25.6540541928772</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.44148461047832</v>
+        <v>16.32066118858594</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>12.7017884068212</v>
+        <v>17.58582716539271</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.68032406121149</v>
+        <v>20.26583443994714</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.32853937358189</v>
+        <v>14.05447567125278</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>19.93190468290727</v>
+        <v>22.92853997587233</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>27.49325806324484</v>
+        <v>28.67280956727035</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>3.869380831244936</v>
+        <v>8.970600521118133</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.692821495075922</v>
+        <v>12.32632793896495</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.66033616404012</v>
+        <v>20.68669560657471</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>5.425450911225287</v>
+        <v>9.67134688341504</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>13.55546691948581</v>
+        <v>17.66507380810544</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.30098998592684</v>
+        <v>31.89911617216447</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>19.03059091042168</v>
+        <v>22.87311390634451</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.66439869213634</v>
+        <v>30.51956230783145</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>38.52031415623841</v>
+        <v>37.68316464911234</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>4.054876764960792</v>
+        <v>10.35980359326286</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.49636002933737</v>
+        <v>23.61199773922584</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.32396964063727</v>
+        <v>30.56512267419307</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>13.58524379837162</v>
+        <v>17.34832376818909</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.90180177879956</v>
+        <v>27.6613804097497</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.63611883353939</v>
+        <v>31.57277170271656</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>3.368899454233439</v>
+        <v>9.079467488546463</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>14.64718738676037</v>
+        <v>18.65814738959022</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>22.59959201999504</v>
+        <v>24.69928769815626</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>6.385357229048534</v>
+        <v>11.33548513024198</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.54250261683865</v>
+        <v>27.45337885592013</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>39.84134818361211</v>
+        <v>39.21393243464924</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.82987731487312</v>
+        <v>33.36284492868837</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.87870140457121</v>
+        <v>40.43313418955636</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.70410525402199</v>
+        <v>43.26298909707492</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>4.27520285155736</v>
+        <v>8.531669145778341</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.38370720870312</v>
+        <v>28.48760808414014</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>41.31115366368599</v>
+        <v>40.40526386927586</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>15.16982998310262</v>
+        <v>18.25934738850118</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.58955723279582</v>
+        <v>21.91334745001109</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.74539033212592</v>
+        <v>25.06054568381029</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>6.274517467972267</v>
+        <v>10.12267549472138</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.70734658074453</v>
+        <v>23.68811803877878</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.12259497216155</v>
+        <v>23.92854336701431</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>15.36328956310673</v>
+        <v>17.96766142011928</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.84670313907959</v>
+        <v>33.15137320312399</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.27446392446076</v>
+        <v>35.20794941281767</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.1555015311484</v>
+        <v>25.88257075960885</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.21457289681013</v>
+        <v>29.25318698334573</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>32.37927139308832</v>
+        <v>32.50241043268655</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>12.61162027155169</v>
+        <v>15.76750326231506</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>19.12889155074575</v>
+        <v>23.29986010925203</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.03575754481212</v>
+        <v>28.59031913007225</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>7.450809155781076</v>
+        <v>12.09608375527871</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.23569431417745</v>
+        <v>24.32498089151062</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.11737083471359</v>
+        <v>32.86879244898088</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>6.045761365184209</v>
+        <v>9.856403294521737</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>13.30559606168211</v>
+        <v>16.76732433786466</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.22271169980495</v>
+        <v>28.56761380120593</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>8.43764081698113</v>
+        <v>11.39770241553995</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>22.02758217910657</v>
+        <v>24.20305480876564</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.76608266451196</v>
+        <v>35.46515618173099</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.14371751058736</v>
+        <v>23.24307165334947</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.49808460367764</v>
+        <v>33.03501536471921</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.71327992211658</v>
+        <v>43.41974402362659</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>5.098060298773902</v>
+        <v>9.681844284430657</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>23.82645226858179</v>
+        <v>25.75854305097862</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.28779317133211</v>
+        <v>30.32703742083731</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>8.144242665266219</v>
+        <v>13.33339485116522</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.00786578664275</v>
+        <v>21.90726453168472</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.77546562624708</v>
+        <v>30.39929692480549</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>4.643443082069826</v>
+        <v>9.772029076591522</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>18.38030031712999</v>
+        <v>21.37511710777392</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>22.6617933919891</v>
+        <v>24.36602104306682</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>7.657052629242262</v>
+        <v>11.60028475968449</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.40257852895426</v>
+        <v>30.04303180392218</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>38.61220389390799</v>
+        <v>34.04434238892613</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.82663514646473</v>
+        <v>35.26134984327548</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>40.91757097611833</v>
+        <v>40.18997932550621</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>49.34527186642657</v>
+        <v>46.89539609298647</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>1.29909682236617</v>
+        <v>8.685147128040423</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>19.83373736708444</v>
+        <v>23.35316874738665</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>37.94276152847601</v>
+        <v>33.70848545404041</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.98392279871049</v>
+        <v>20.3108595130056</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>21.65309593240091</v>
+        <v>24.31002632393411</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.07548255937618</v>
+        <v>33.36226710695775</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>6.273560816115602</v>
+        <v>10.26071223037321</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>39.10788827049683</v>
+        <v>37.89350231013057</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>41.95070334229809</v>
+        <v>39.86801338826445</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>14.38250499044013</v>
+        <v>16.91669023678188</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.45478805896958</v>
+        <v>54.58571730497965</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>60.62162017339872</v>
+        <v>55.33181672182014</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.92257337944594</v>
+        <v>42.30220690815112</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.78216083964503</v>
+        <v>41.56676590672227</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>46.91255734222268</v>
+        <v>43.87745051676296</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.54716298735021</v>
+        <v>22.94070360431945</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>24.02942651347302</v>
+        <v>21.53569377908665</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>58.56514758341417</v>
+        <v>54.63211491943855</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>22.20770129243926</v>
+        <v>24.75450255507703</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.86453614949752</v>
+        <v>31.86047406429903</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.07369935438305</v>
+        <v>32.93137444691346</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>6.771409050171219</v>
+        <v>10.96895825796777</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>24.43107900152151</v>
+        <v>25.86930956089218</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.76416614948478</v>
+        <v>29.87243356463321</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>11.12637742013523</v>
+        <v>15.16050862924707</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>40.2152176715963</v>
+        <v>39.03652429186386</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.32373980686184</v>
+        <v>42.83915635277026</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.58414355289711</v>
+        <v>37.90776785047969</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>48.05102303674511</v>
+        <v>45.26481305802495</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>48.64075151348888</v>
+        <v>45.04290650568896</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>18.51574937889541</v>
+        <v>21.3469055306488</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>38.53965901415677</v>
+        <v>37.93750188550288</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>44.48108273888542</v>
+        <v>42.00114293062661</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>22.73386082816067</v>
+        <v>24.66917501716645</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.3372391635859</v>
+        <v>32.17246196568745</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>37.41516538426326</v>
+        <v>36.06408447635224</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>6.00146723941473</v>
+        <v>10.84636739430139</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.07504768863798</v>
+        <v>27.13705065437166</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.10395438580644</v>
+        <v>31.06860205565545</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.58518400490774</v>
+        <v>14.74441783163102</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>44.47452556662353</v>
+        <v>42.86142203835485</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>57.32268485669876</v>
+        <v>52.0149307234887</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>47.35290141573209</v>
+        <v>45.31133028225209</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>57.04625110724137</v>
+        <v>52.28837860106283</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>63.7116989068823</v>
+        <v>58.2424694078568</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>12.17566567374346</v>
+        <v>16.98647007726077</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>42.37012164998895</v>
+        <v>41.57807470195436</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>52.03673659834804</v>
+        <v>48.99393423393401</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>6.706411054944187</v>
+        <v>11.57202633821678</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>19.03829859372965</v>
+        <v>22.04954952774375</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.03186345879743</v>
+        <v>29.87011702369313</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>4.714023808041478</v>
+        <v>9.043918308850095</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>21.56632861508807</v>
+        <v>23.96744621369979</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>22.10907117014629</v>
+        <v>24.23609521592851</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>6.975272080375632</v>
+        <v>10.85978940686049</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.87729573610751</v>
+        <v>36.46561014385954</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>43.21246259167718</v>
+        <v>41.42258855037795</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.93381083959063</v>
+        <v>40.10889317781815</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>46.05731852297087</v>
+        <v>44.20859369242791</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>43.73750328808283</v>
+        <v>41.99442963788275</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>3.729973198002963</v>
+        <v>9.990368560854986</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.54097373953341</v>
+        <v>27.52590966563341</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.46850702360353</v>
+        <v>30.43579017027201</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>10.58000100068135</v>
+        <v>14.36648268627563</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.92973241852133</v>
+        <v>30.16162801733967</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.04905863594011</v>
+        <v>29.69578908382862</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>5.80656669342012</v>
+        <v>9.898316474122105</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>19.71094243521492</v>
+        <v>22.062446969806</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.13948657560422</v>
+        <v>27.27213577928527</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>8.557082615485761</v>
+        <v>11.82927951795467</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>35.14637794448056</v>
+        <v>34.89476149458481</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>45.16964565447084</v>
+        <v>42.72602716873146</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.81917437127466</v>
+        <v>34.83306940590001</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.5361871007906</v>
+        <v>41.21978791994385</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>47.17363959497575</v>
+        <v>44.31039836948005</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>7.200259559442078</v>
+        <v>11.8548812554758</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>33.58988443090013</v>
+        <v>34.64380762158451</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>40.71325434453083</v>
+        <v>39.66585140056151</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>9.27890403624064</v>
+        <v>13.8098440705663</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.71638208625912</v>
+        <v>29.45376099254836</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.88384135003065</v>
+        <v>35.70221948552009</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>4.130597321263096</v>
+        <v>9.211799560947025</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>18.02642410955067</v>
+        <v>21.36291674906589</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>23.36369178956554</v>
+        <v>24.87615599054764</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>6.297045007369853</v>
+        <v>10.35029740900751</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>31.85465358124765</v>
+        <v>32.92406245142372</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>46.83754266551884</v>
+        <v>43.7082762784075</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>42.17499899737623</v>
+        <v>41.40360294764518</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>53.0172717696417</v>
+        <v>49.910644253648</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>59.82767197151617</v>
+        <v>55.21510941885635</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>4.800704919375125</v>
+        <v>10.38198683229142</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>33.4436131026909</v>
+        <v>34.36817421504438</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>47.85585446195276</v>
+        <v>45.7588828161121</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.502</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.85</v>
+        <v>16.439</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.639</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.044</v>
+        <v>15.382</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.537</v>
+        <v>3.98</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.42653235636824</v>
+        <v>6.336024520148783</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.77249590982916</v>
+        <v>9.994230004922452</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.09335307001978</v>
+        <v>17.08344642507927</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.44576230722496</v>
+        <v>0.2668058037692518</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.55517162056624</v>
+        <v>11.32475371843865</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.45076307148068</v>
+        <v>15.46206830731931</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12.40065319871358</v>
+        <v>4.176006470987751</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20.32361941937381</v>
+        <v>22.01049628996842</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.51012609972654</v>
+        <v>25.71534094569802</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>19.77030627014146</v>
+        <v>17.28732396930523</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22.73997077599211</v>
+        <v>20.77541973675993</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.33942568603138</v>
+        <v>26.11224534844107</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.96566765677097</v>
+        <v>0.8834328905741238</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.04639260348171</v>
+        <v>6.961433076876268</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18.13422282812117</v>
+        <v>18.616055131108</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.27828669496269</v>
+        <v>9.911162233520995</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.98538009729914</v>
+        <v>23.67572822206527</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.1876779324668</v>
+        <v>35.08528894316046</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.860476955849599</v>
+        <v>-2.060512343070787</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.05326428382841</v>
+        <v>8.460439433656347</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.77356854756736</v>
+        <v>20.44567135939145</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.079407726243463</v>
+        <v>-2.779320407300858</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.94786132491818</v>
+        <v>17.08545363726383</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>40.17160012438179</v>
+        <v>39.62978318748649</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.72254345337265</v>
+        <v>21.61256795355234</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.9262505905712</v>
+        <v>39.76257542240931</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>55.73315508715538</v>
+        <v>56.69403584484796</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9.476043620267497</v>
+        <v>1.267861258563652</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.9249814852575</v>
+        <v>28.06103332129818</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.8315887352143</v>
+        <v>42.80811617082222</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.79063384204889</v>
+        <v>10.39857747015221</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.39170081536247</v>
+        <v>26.54785706953831</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.07324022020737</v>
+        <v>36.09074390674143</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9.266916295318552</v>
+        <v>-0.8277187697655961</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>20.16462494777728</v>
+        <v>16.19914739514103</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.7775730046136</v>
+        <v>25.45589344643499</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>9.140204382609785</v>
+        <v>1.266656757386912</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.45559512248655</v>
+        <v>31.38554393531105</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>40.66967056362538</v>
+        <v>43.58101981696697</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.34930939061627</v>
+        <v>36.90172255279507</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.31492071283598</v>
+        <v>49.05605204881472</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>56.98589407568686</v>
+        <v>62.40463516478145</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>15.71719621769536</v>
+        <v>5.703232981969514</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.71691846271919</v>
+        <v>36.11191195579067</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43.76492023463216</v>
+        <v>44.02344608522468</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.29331382495443</v>
+        <v>1.796079529010324</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.71325783963017</v>
+        <v>27.80691620990501</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.44088996156339</v>
+        <v>34.55253375018957</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9.849188369432127</v>
+        <v>4.885354654653362</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.427603546044</v>
+        <v>34.1868867350796</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.4693152713862</v>
+        <v>37.63384885992186</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10.51105383345224</v>
+        <v>9.202761229138384</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>49.36992068848851</v>
+        <v>58.45040742188239</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>55.50616326491064</v>
+        <v>63.05897531047135</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>45.74267723709902</v>
+        <v>51.02103488833601</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52.67023064665781</v>
+        <v>60.07280925598972</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.56021279886273</v>
+        <v>54.7662395863122</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10.91708137092115</v>
+        <v>2.690280659417457</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.28154765748163</v>
+        <v>32.77300303578686</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.06071756673746</v>
+        <v>48.05366978027958</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.53778753376724</v>
+        <v>5.393356722753296</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.38838412955695</v>
+        <v>29.66210014502871</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.6159374389422</v>
+        <v>35.68368450669597</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.216098786644597</v>
+        <v>1.359826633499672</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>20.81641224487135</v>
+        <v>18.07780018674151</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.52533006815542</v>
+        <v>28.26958183397216</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>9.019131684237543</v>
+        <v>2.06134749991482</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.18253648822527</v>
+        <v>35.69741131346392</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.90908109123453</v>
+        <v>48.40534152526374</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.21822670423072</v>
+        <v>40.00850502816061</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>50.31270157549424</v>
+        <v>51.72097734247952</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>56.12680250555165</v>
+        <v>59.34799202778461</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.805856377586924</v>
+        <v>0.3824819840123332</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.96638829309094</v>
+        <v>41.06099067954383</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>44.75597993093912</v>
+        <v>49.26430102508536</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11.76896223217773</v>
+        <v>5.196986551977535</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.89466144294214</v>
+        <v>32.89976677208367</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.95237193398154</v>
+        <v>40.29621277570844</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>9.702635546860662</v>
+        <v>0.6132022220192823</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.07101845657937</v>
+        <v>26.87941906783239</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>32.76179850233108</v>
+        <v>35.0389294128378</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9.988202766450119</v>
+        <v>4.735488238954684</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43.74137047279284</v>
+        <v>50.17579885462395</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>59.0868974082402</v>
+        <v>67.93422273956597</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>44.68714780062803</v>
+        <v>51.56022752365213</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>61.07090989430445</v>
+        <v>64.4198420196542</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>64.9214464227494</v>
+        <v>73.28100706508783</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10.18978007075347</v>
+        <v>-1.613041360555908</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>47.55512357510828</v>
+        <v>50.23712789294387</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>53.56465180259518</v>
+        <v>59.51861562958221</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.11025814514327</v>
+        <v>15.01209651627783</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.58108123171501</v>
+        <v>23.99076051639758</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.0369169076988</v>
+        <v>33.39205647355784</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>9.538125214322019</v>
+        <v>2.065485489945516</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.39975430323873</v>
+        <v>26.24401154343477</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.34228261176655</v>
+        <v>29.11053724379145</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.73281944914498</v>
+        <v>6.767102054668413</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>49.13908160418813</v>
+        <v>50.13782708186159</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>49.51238775151761</v>
+        <v>51.97673187613739</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>37.41684740970879</v>
+        <v>38.28716581795624</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.92771994753591</v>
+        <v>45.86432177908095</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>41.96960280836518</v>
+        <v>44.77276895792331</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.90052264880957</v>
+        <v>9.708113574029124</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.13778471914858</v>
+        <v>25.19442878122836</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.72095513674268</v>
+        <v>32.20606913379979</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.12677592761482</v>
+        <v>15.51419446668822</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.96331443094252</v>
+        <v>34.5081516946797</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.44604465371964</v>
+        <v>38.22993086763205</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10.27610036561117</v>
+        <v>3.958666559364485</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.67044658944117</v>
+        <v>23.08921475136573</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.4022394588961</v>
+        <v>30.01502450342292</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10.99132974079048</v>
+        <v>4.95087627510626</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>43.12435688365809</v>
+        <v>42.14458367434996</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>45.66167059642017</v>
+        <v>52.56945736051348</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.85751204477296</v>
+        <v>43.85409463276896</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.94875102458125</v>
+        <v>54.72320978563209</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>55.7086049748381</v>
+        <v>59.00160191678799</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.27733729754092</v>
+        <v>15.80721785353675</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.47365732076189</v>
+        <v>41.6016324421843</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.43563554538449</v>
+        <v>47.79797729765269</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.3292978643177</v>
+        <v>20.66593740920291</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.26975078784917</v>
+        <v>35.46190505469778</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.01482067837372</v>
+        <v>43.45260688836046</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.0721581851401</v>
+        <v>2.227485602413569</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.00946025264875</v>
+        <v>27.50857845634429</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.62299607300432</v>
+        <v>33.59639450893031</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.16610385279271</v>
+        <v>5.296124767158329</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.27963651578868</v>
+        <v>48.83138089961871</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>58.09153368295663</v>
+        <v>66.2162176004377</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>47.99841922871099</v>
+        <v>53.45597345423022</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>57.06775104658126</v>
+        <v>64.01026584263792</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>63.87604813005345</v>
+        <v>72.27511692343121</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>20.04328288335385</v>
+        <v>16.85893437262831</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>46.27030898062667</v>
+        <v>48.7610994447783</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>52.97793707470233</v>
+        <v>58.28414410295598</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.30708049686979</v>
+        <v>7.605061413617417</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>17.70583661526191</v>
+        <v>11.12265502075642</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.81437749696245</v>
+        <v>18.07777274949557</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.930538325358775</v>
+        <v>0.9948894366209764</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.24595546944634</v>
+        <v>11.99730356855216</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>14.81467534798913</v>
+        <v>13.29292087624581</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>13.29838119107646</v>
+        <v>4.98495820495684</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.73758902415317</v>
+        <v>23.06405646168259</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>23.17829441913124</v>
+        <v>26.26765091612206</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.24703357074307</v>
+        <v>18.00675610688373</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.55557979605381</v>
+        <v>20.06575896501452</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.98734970324355</v>
+        <v>26.11321119878033</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>51.48972300527265</v>
+        <v>51.13289071957266</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>53.68161448818225</v>
+        <v>54.05242520492409</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>52.55852453108881</v>
+        <v>55.16038881992094</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14.57814345415156</v>
+        <v>7.621143854498307</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.13640688771889</v>
+        <v>22.50568070802396</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.90071768519247</v>
+        <v>34.02468943738126</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>8.217705079990044</v>
+        <v>-4.633675587053464</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>10.15336216786179</v>
+        <v>4.122765681308096</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.80411898819035</v>
+        <v>17.14517388639454</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>8.767417114767081</v>
+        <v>-0.4281175504523205</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.66161295829849</v>
+        <v>16.55229895535852</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.81541968643648</v>
+        <v>36.06448645901179</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.175637226528</v>
+        <v>18.80117695217066</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.96580986920059</v>
+        <v>37.28974623843806</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.00838020338543</v>
+        <v>49.25250310923145</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10.67575545873227</v>
+        <v>1.137618094548287</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.14741679238481</v>
+        <v>24.3286289637964</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.48807242255227</v>
+        <v>35.61708219189562</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.75856114807297</v>
+        <v>13.70901508801806</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.05695849352023</v>
+        <v>25.68878665125279</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.58960457998975</v>
+        <v>35.3018307856311</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>8.817614211699514</v>
+        <v>-3.86147096657896</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>14.64506002695325</v>
+        <v>11.09193233666151</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.5823416136651</v>
+        <v>20.09116698059889</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>11.90681631616092</v>
+        <v>3.032954016294926</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.71436180280107</v>
+        <v>28.33098639411913</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.9841172162902</v>
+        <v>43.97169530637284</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>27.9378569932828</v>
+        <v>25.13150894441482</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>39.41938215453085</v>
+        <v>40.0284935240857</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>52.13850805138668</v>
+        <v>55.44630898558171</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>19.88762431295012</v>
+        <v>9.188897209311788</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>39.17896635316065</v>
+        <v>36.5413059848112</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.94314589430189</v>
+        <v>43.59652588302825</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.33513816144952</v>
+        <v>6.179328570577624</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>18.59696013562579</v>
+        <v>16.71138119271512</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.22550157898233</v>
+        <v>25.65070787214456</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.731843773992122</v>
+        <v>2.875666317960942</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.396490067502</v>
+        <v>25.99177728244448</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.76571712347894</v>
+        <v>31.54225229919769</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.04643246206184</v>
+        <v>7.684344269342198</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>48.50730428032664</v>
+        <v>58.47354446398153</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>51.02147698607759</v>
+        <v>55.52706673549584</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.34563883412538</v>
+        <v>37.24643827556736</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>41.63934824139365</v>
+        <v>45.36263345964247</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.48383038976325</v>
+        <v>46.87965608569426</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.57918897529947</v>
+        <v>7.872813314008791</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.45804890382234</v>
+        <v>6.711676043263587</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18.11342525116824</v>
+        <v>13.93829469749943</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.78394982541393</v>
+        <v>22.30115939718659</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.91824001733656</v>
+        <v>37.39196568817081</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.25061938209883</v>
+        <v>40.97786755654109</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.5032053690661</v>
+        <v>4.302705815811034</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.37859412326968</v>
+        <v>24.51714256160642</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.00354971561958</v>
+        <v>32.29142422153123</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.2597244090936</v>
+        <v>6.368832779249679</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>44.30267107871504</v>
+        <v>44.04816119710044</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>47.10733185607119</v>
+        <v>51.5299766251555</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>44.5897559119806</v>
+        <v>45.75243952951868</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>55.91732351721979</v>
+        <v>56.84951572114892</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>57.63905099058584</v>
+        <v>63.67108088206611</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.38352114095047</v>
+        <v>24.94769883274318</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>45.00757686089053</v>
+        <v>43.62585866008942</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>49.14136207939028</v>
+        <v>52.66241256491641</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.00353427382045</v>
+        <v>22.3670174829868</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.91766318541362</v>
+        <v>35.91506333135637</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.88789628982298</v>
+        <v>42.24011652725344</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>10.15829038179526</v>
+        <v>2.532512154624072</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.76878003216256</v>
+        <v>23.45875700440404</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.89576745015169</v>
+        <v>32.24005630654561</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>13.77271154359696</v>
+        <v>7.301967216452194</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.23671852359671</v>
+        <v>44.2766102486239</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>54.6875315448149</v>
+        <v>60.37464085941134</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>47.06135166265562</v>
+        <v>47.82602580362393</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>56.32589577005483</v>
+        <v>60.36651498063308</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>60.72072516864292</v>
+        <v>67.92197500412354</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.18655427850612</v>
+        <v>24.83948261751961</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>47.31691529154267</v>
+        <v>48.3672117391706</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>54.55231308900978</v>
+        <v>57.77732528292138</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9.310933013724952</v>
+        <v>4.566525278492332</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>18.07291473802988</v>
+        <v>16.35082481515568</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.5257280604863</v>
+        <v>27.73528129887021</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.986217833466796</v>
+        <v>5.379629861428111</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.44444033675221</v>
+        <v>29.98191360788159</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.13150156012588</v>
+        <v>33.92369165341476</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.58086721939197</v>
+        <v>10.41786493877162</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.28707393179018</v>
+        <v>57.80353483346207</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>55.09299798507238</v>
+        <v>59.11960149626415</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.65795154596812</v>
+        <v>39.91837583286029</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.72661433059582</v>
+        <v>49.38215450601105</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>45.58440560305812</v>
+        <v>50.22027714068146</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>13.40779964829964</v>
+        <v>4.979030955692753</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.89828683741203</v>
+        <v>5.143694515106862</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>15.75803145252608</v>
+        <v>9.83190529551897</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.30330910106752</v>
+        <v>16.83707335565076</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.95110778989229</v>
+        <v>39.03663235543547</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.142181115722</v>
+        <v>41.19266742692437</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9.941141613835615</v>
+        <v>6.227819568253185</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>32.59662654113899</v>
+        <v>31.85595407885019</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>37.84969284225888</v>
+        <v>37.64310756616337</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>10.28852988115952</v>
+        <v>6.646213047780734</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.72443035770674</v>
+        <v>53.06240241424098</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>52.05990250343032</v>
+        <v>56.60087854825593</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>42.44506577804339</v>
+        <v>48.48336002249892</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>53.7206236738335</v>
+        <v>59.64834828187638</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>59.59951448489798</v>
+        <v>64.33984574814133</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>17.92770896149473</v>
+        <v>16.28884782133788</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>49.38629112879156</v>
+        <v>53.83176000580553</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>52.73170680111937</v>
+        <v>58.63657296308448</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>21.60610416887939</v>
+        <v>19.66183994511735</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.51676427617999</v>
+        <v>39.45337778037175</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>40.26118079313022</v>
+        <v>45.35972417490861</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>10.03633558689989</v>
+        <v>5.486398735631429</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.57252440812388</v>
+        <v>29.3713714582004</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32.89304980926833</v>
+        <v>35.0759836087126</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>11.87686603895185</v>
+        <v>9.799174053361718</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>49.07864571779844</v>
+        <v>51.92524018051538</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>57.22869711005303</v>
+        <v>65.55142286587156</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>50.14865367623874</v>
+        <v>55.20765169312554</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>61.16591133480135</v>
+        <v>67.76666680608326</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>64.99425181170304</v>
+        <v>73.61421619316421</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>17.09236353259179</v>
+        <v>12.67324322399628</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>50.91319017493468</v>
+        <v>55.42839530654441</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>55.76913627489093</v>
+        <v>62.64973788835401</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.10611662181161</v>
+        <v>4.136197477458342</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>14.11096720424112</v>
+        <v>5.501037527033898</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>15.64192005355845</v>
+        <v>11.2115102517411</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>10.35001806776308</v>
+        <v>0.3297789816593415</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.89249420257518</v>
+        <v>9.736769191957375</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>13.58297039450641</v>
+        <v>11.85831890240087</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12.28167702446761</v>
+        <v>3.060849557181573</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.01328158716797</v>
+        <v>18.04259405932577</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.47600832555899</v>
+        <v>21.18192746842255</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.63450584877009</v>
+        <v>18.53263141081854</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.49277632215455</v>
+        <v>23.23871460479889</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.46049055562933</v>
+        <v>25.07014067610063</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>12.92630171128532</v>
+        <v>3.200518990234148</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>13.2084936215715</v>
+        <v>4.356741059573945</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.30541007332714</v>
+        <v>9.607052562056216</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>15.05168138141747</v>
+        <v>9.00982383630574</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.47770136758287</v>
+        <v>22.44569475296905</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.08773346393901</v>
+        <v>29.74600907324753</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>9.958567321527681</v>
+        <v>2.211144333655771</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>17.8731145587109</v>
+        <v>13.16048603440032</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.77539280168554</v>
+        <v>22.81145457677443</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.47794721166707</v>
+        <v>3.169165951669363</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.93253166978065</v>
+        <v>22.27956609250099</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>39.82711939742421</v>
+        <v>38.49146709232088</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.94341431469831</v>
+        <v>27.22503228582651</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.18910550832427</v>
+        <v>38.84247878148201</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>44.58599207222072</v>
+        <v>45.94035142763023</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>13.65634752888252</v>
+        <v>6.307873566188121</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>33.14460539010106</v>
+        <v>28.42028782763074</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>40.14955947362109</v>
+        <v>37.08478139028381</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>13.83857950602342</v>
+        <v>8.640376546109422</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.58740255651252</v>
+        <v>25.01455607942206</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.48879767733294</v>
+        <v>33.27041749007638</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>9.190935699494418</v>
+        <v>0.3522480174265716</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>21.19662699666556</v>
+        <v>19.81076975479266</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>27.5623034958291</v>
+        <v>27.27672902037252</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>11.77074767482293</v>
+        <v>3.812804841213794</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.75400992241514</v>
+        <v>34.31691855725903</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.15321231425867</v>
+        <v>46.68050633225446</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>42.77883839957746</v>
+        <v>43.56737884767085</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>54.63990898375961</v>
+        <v>55.56320274357344</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>54.85537311618485</v>
+        <v>60.50603873731075</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>12.06808010074068</v>
+        <v>7.205255141961619</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.00406709365018</v>
+        <v>39.75923944812433</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>48.35930913889155</v>
+        <v>51.19207164599516</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>9.599145096176873</v>
+        <v>0.8778267811483786</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.76284840175202</v>
+        <v>5.051891260658408</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>16.45346978757589</v>
+        <v>10.51859159281386</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>9.141381578078107</v>
+        <v>-0.3141786158926116</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>13.87954642295132</v>
+        <v>9.533058347553546</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.32335982961355</v>
+        <v>11.20384979335939</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>9.741950892720354</v>
+        <v>1.729157783728667</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.50537117769222</v>
+        <v>16.73964412569861</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.43260906534625</v>
+        <v>15.83273622311328</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>15.59193041407648</v>
+        <v>12.03663867473944</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>17.09158607834258</v>
+        <v>13.69114946220389</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>17.85357459216134</v>
+        <v>14.69620876467424</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>11.78492034999867</v>
+        <v>3.434394434430914</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.77666660736759</v>
+        <v>9.25863804064041</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.4874381475932</v>
+        <v>13.0198184775078</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>9.002098345145221</v>
+        <v>4.748276319852831</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.20941258087794</v>
+        <v>10.32922400632085</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>21.96252542294729</v>
+        <v>18.5490190127966</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>9.570603364799759</v>
+        <v>1.146145814233101</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>9.927046448631106</v>
+        <v>2.439288303568485</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>15.11047228079129</v>
+        <v>11.99333741623207</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>10.44633372504868</v>
+        <v>2.049982943257184</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>12.03341566760285</v>
+        <v>3.445327376710381</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.62565059788331</v>
+        <v>22.49751201919045</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.00173999939257</v>
+        <v>3.847672241637738</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.67655560131958</v>
+        <v>22.05865818664091</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.07549984229091</v>
+        <v>39.25522135608528</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.934066759409522</v>
+        <v>-0.8707661209041184</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>13.99689689073733</v>
+        <v>5.7746261454026</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>15.99003716664213</v>
+        <v>10.5813729467291</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.601668419444973</v>
+        <v>-0.2338108906736771</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>13.59575600588045</v>
+        <v>7.549569194370921</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>24.88150717123278</v>
+        <v>20.06837419374299</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.382046293875398</v>
+        <v>-1.508799009344713</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>10.53583442298833</v>
+        <v>4.589304644684113</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.10362065615346</v>
+        <v>15.23720694622125</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.586878966775799</v>
+        <v>-0.8529471994160005</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>13.36071919017393</v>
+        <v>5.958692213022083</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.80159379872539</v>
+        <v>32.91891451943974</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>18.09765865273926</v>
+        <v>8.986747840903854</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.0409522376196</v>
+        <v>40.19873207535684</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.92160868440524</v>
+        <v>53.67198223579311</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.274746880176661</v>
+        <v>-4.473533479820457</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>13.73577224369347</v>
+        <v>4.589709608468507</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.89934880514978</v>
+        <v>15.11734030853248</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>17.15342232726671</v>
+        <v>4.990714623241324</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.65933604526094</v>
+        <v>11.53369702594414</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>34.13799337442443</v>
+        <v>31.51771655268097</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.08887365887012</v>
+        <v>3.547701140926875</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>37.94572709147823</v>
+        <v>34.89848757299045</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>38.51371061416427</v>
+        <v>39.92324760441155</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>13.05669146634139</v>
+        <v>8.032147608268311</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>51.47953997112696</v>
+        <v>55.78631516725439</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>54.88668604750434</v>
+        <v>61.89373923111296</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>39.66158589434893</v>
+        <v>43.28696976934756</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>43.10827694380445</v>
+        <v>48.55213108673706</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>44.09905970397358</v>
+        <v>47.42600874943194</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.12502968610737</v>
+        <v>18.28659086518792</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.93052428309255</v>
+        <v>28.64556160210614</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>57.42748489971397</v>
+        <v>58.24520096673483</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>13.73788455701522</v>
+        <v>9.231610751268756</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.04312776376981</v>
+        <v>28.78453544608082</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.91428727707205</v>
+        <v>32.53387640065664</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.09782311116689</v>
+        <v>3.209873906175456</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.99325024244407</v>
+        <v>23.17848581314463</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.26655300112951</v>
+        <v>27.443674541556</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>12.58630536616183</v>
+        <v>4.436293603220737</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>39.30106039301682</v>
+        <v>38.56413776521131</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>41.66796389287128</v>
+        <v>45.40987885376867</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.48971981957584</v>
+        <v>37.84818643373329</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>43.31908358742817</v>
+        <v>47.04326662733289</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>46.39290875414771</v>
+        <v>50.86822909329225</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.93274658194098</v>
+        <v>16.44740455663003</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>37.24343903454297</v>
+        <v>39.08612346285496</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>41.58613195551115</v>
+        <v>45.34523751738494</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>17.65594488030303</v>
+        <v>12.53457898670788</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.74397385946113</v>
+        <v>28.33080781680579</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.00119659964962</v>
+        <v>37.86357697576786</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10.06705226411216</v>
+        <v>4.64447937454889</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.88528288930076</v>
+        <v>29.35704420715043</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>33.87419013245052</v>
+        <v>34.7907721339562</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>13.23899847633942</v>
+        <v>9.301568612819382</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.61154848626033</v>
+        <v>47.11505124423461</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>56.94166928228765</v>
+        <v>63.88941041624309</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>45.3474359085341</v>
+        <v>51.36696448663177</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>54.57749380488126</v>
+        <v>59.91937979405293</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>57.90833765823348</v>
+        <v>67.35168375534627</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>18.80366479913344</v>
+        <v>17.25321772590281</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.12477050688389</v>
+        <v>47.96175612968921</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>55.64062738177306</v>
+        <v>61.71000490403308</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>14.5260467338236</v>
+        <v>6.032542906380019</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.30756868379222</v>
+        <v>7.339971804095846</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.27742544248701</v>
+        <v>13.5439220972406</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>10.52270624213766</v>
+        <v>0.01957504756786932</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>13.64486729382639</v>
+        <v>4.94133012274612</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.15353417404914</v>
+        <v>7.470120319937234</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>12.73998042783039</v>
+        <v>4.270046457286742</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>17.7248966354849</v>
+        <v>13.32240926372181</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.8856457766409</v>
+        <v>18.1816120449487</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.35018435410057</v>
+        <v>14.0757112192141</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>19.33065995193063</v>
+        <v>16.07045885140862</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>21.05171866318318</v>
+        <v>20.23045852786669</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>12.32619771103242</v>
+        <v>3.752813659208222</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>13.5847664634982</v>
+        <v>2.144819750449692</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>15.89022970287493</v>
+        <v>8.085308363471828</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>11.74447250823199</v>
+        <v>2.956750155133069</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.98362400461788</v>
+        <v>12.36599270540123</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.74570377138993</v>
+        <v>22.94798381059537</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>8.755764772189771</v>
+        <v>-2.20142441708278</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>9.429132745708021</v>
+        <v>2.241221313868582</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.83685527930085</v>
+        <v>15.00543032466515</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.887497866734236</v>
+        <v>-1.940912809731991</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>11.10353679954839</v>
+        <v>5.258630743693935</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.46222962919468</v>
+        <v>26.52709966743429</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.90921125516068</v>
+        <v>9.299670975657245</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>23.84162105489335</v>
+        <v>18.97173136744301</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>35.03613603771259</v>
+        <v>31.24598310400732</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>9.09354955973409</v>
+        <v>-1.433316664727194</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.63238968613477</v>
+        <v>13.22054994555829</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.97327149240422</v>
+        <v>22.94840885342976</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.36714492133972</v>
+        <v>6.469962153720164</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>22.31089511055225</v>
+        <v>16.19202773691031</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.68921196973494</v>
+        <v>29.34064741880842</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>9.761515985513569</v>
+        <v>-1.25845968900709</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>14.87894981331458</v>
+        <v>6.859318032400811</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>23.82842678503393</v>
+        <v>18.1935386616596</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.63550787263318</v>
+        <v>3.063159479366988</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.48007201531189</v>
+        <v>14.84572461593445</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.67006896638549</v>
+        <v>36.3011360914189</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>23.26120195514435</v>
+        <v>16.99784514110611</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.84903404412464</v>
+        <v>26.26850763523478</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>44.45533542181154</v>
+        <v>46.2030221416867</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>18.61399205619335</v>
+        <v>8.680398128387587</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.32668113489865</v>
+        <v>21.60508895753742</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.89360338888513</v>
+        <v>33.70111008384635</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.66358080497557</v>
+        <v>-1.397749983842097</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>9.153634364220864</v>
+        <v>-1.620036349495706</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>13.30800101702795</v>
+        <v>6.588031291319545</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.572523035737934</v>
+        <v>-0.5195572489450626</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.136897409150961</v>
+        <v>2.168652032228177</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10.52450763737938</v>
+        <v>3.984521562290251</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.09826890688941</v>
+        <v>4.684752617280886</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>12.83072066424139</v>
+        <v>9.914544018813739</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.7756041760277</v>
+        <v>13.32013497652428</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>9.976586345699701</v>
+        <v>4.260671634495861</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>10.06936686768176</v>
+        <v>4.054159231449173</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>19.0337566431663</v>
+        <v>12.41852654632576</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.037926361969355</v>
+        <v>0.05784018822406978</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.274640039663264</v>
+        <v>-3.437021317524753</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>8.91145307991814</v>
+        <v>-1.663251772268598</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.1938976600551</v>
+        <v>14.21013296305905</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.001009250466</v>
+        <v>30.06740274339175</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.79537267137282</v>
+        <v>33.94954542492189</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>10.13023468283317</v>
+        <v>6.179357687449162</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22.57432114687088</v>
+        <v>20.55237572392096</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.87412329808359</v>
+        <v>27.71665515610441</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>13.29062320690512</v>
+        <v>8.550255850927829</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.68748512036117</v>
+        <v>39.29435619827392</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>44.73275642757508</v>
+        <v>46.66564566810305</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.3696475180089</v>
+        <v>37.25873996093968</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.13708834033473</v>
+        <v>45.31292819293691</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>44.07387644451908</v>
+        <v>50.43642029309739</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.17477552898449</v>
+        <v>13.35372368035318</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>37.04091765908646</v>
+        <v>37.46215588408378</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.45230157141832</v>
+        <v>42.27216160291054</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.97114701975977</v>
+        <v>17.40366244225662</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.26233723993377</v>
+        <v>32.06454664245796</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>41.25633756460388</v>
+        <v>42.25629952616703</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>9.390214935371887</v>
+        <v>2.392577655414893</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.59665604370262</v>
+        <v>24.9137202659931</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.19398083802621</v>
+        <v>32.42559461453317</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>12.50260604359691</v>
+        <v>6.300994168273697</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.34035918937212</v>
+        <v>44.78731274123538</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>52.33049924231354</v>
+        <v>58.52002588337018</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>45.76457160961537</v>
+        <v>48.80862709080196</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>54.96514337669876</v>
+        <v>57.27314940626303</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>57.78170108731882</v>
+        <v>66.06319403565395</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>15.37529099806458</v>
+        <v>9.606058283068984</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>43.63939206636847</v>
+        <v>45.47120506320695</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.75404578555028</v>
+        <v>52.77343915573091</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.46054649429022</v>
+        <v>10.22946058951397</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.47174164479922</v>
+        <v>12.53480559934552</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.61087155329566</v>
+        <v>16.9772312827187</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>11.37795057936036</v>
+        <v>3.501936104885171</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>17.85385980620328</v>
+        <v>11.46612113349006</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.13696568064275</v>
+        <v>12.70563686312954</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>17.30656316992814</v>
+        <v>12.27061311611533</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.47497398705107</v>
+        <v>24.38125690077134</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.73743853420216</v>
+        <v>23.07381343075388</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.22652098973354</v>
+        <v>20.59819841356722</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.9536593918653</v>
+        <v>22.99257462843598</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.82026149828723</v>
+        <v>26.94507982380395</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>19.23606750923005</v>
+        <v>10.34273939343114</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>16.56444177257583</v>
+        <v>8.771924236387502</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>18.97422559667116</v>
+        <v>16.68136162743717</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.30698711795734</v>
+        <v>3.471544028118448</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>15.49493131278552</v>
+        <v>10.53106460202411</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.72159285803001</v>
+        <v>17.68258221753974</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.520724135739144</v>
+        <v>-1.736625781310401</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>10.0487879171468</v>
+        <v>0.02655474061623053</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>17.34800076923928</v>
+        <v>10.30382796738026</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>8.44534598135504</v>
+        <v>-1.648475302403291</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>12.59475561413991</v>
+        <v>4.072691058341793</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.2894660793176</v>
+        <v>20.59100362715451</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>15.11259932258764</v>
+        <v>7.928938558283559</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.07850115383533</v>
+        <v>15.52337509649276</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.07204802730108</v>
+        <v>27.83742439723364</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.826544770070509</v>
+        <v>-0.549525412920211</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>13.36929290189481</v>
+        <v>9.060013338632658</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>18.45729324282762</v>
+        <v>17.70905548123228</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.88723149773397</v>
+        <v>13.74288388789794</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.47834338024983</v>
+        <v>22.59297266735036</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.12766416869665</v>
+        <v>29.49554758047262</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>9.950696648087511</v>
+        <v>-1.009970157769786</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>18.81947900593352</v>
+        <v>10.79908349549296</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>22.12326479919608</v>
+        <v>17.99294931819217</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.29937315278707</v>
+        <v>4.974769288306348</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.25761205254013</v>
+        <v>26.16832222878817</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.14979877546372</v>
+        <v>40.19056026309504</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.48767157358783</v>
+        <v>25.12064937359635</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.96917416534158</v>
+        <v>34.91860656587072</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>43.68548631234166</v>
+        <v>46.74113658829603</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>13.55976579286032</v>
+        <v>10.61012589473406</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.07717526789996</v>
+        <v>25.84358154677124</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>32.99210191870134</v>
+        <v>31.74780185504949</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.966669635680596</v>
+        <v>2.310997593831573</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.92650533342855</v>
+        <v>3.081007598377433</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.16249100994731</v>
+        <v>6.233673014134496</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.00512895464682</v>
+        <v>1.172855100989736</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.86213612940109</v>
+        <v>3.100825615575776</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.66931954696912</v>
+        <v>3.944352923483727</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>12.89193616787864</v>
+        <v>7.401180882633472</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>13.9666962676881</v>
+        <v>9.372684333140791</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>13.23392793383047</v>
+        <v>10.55609857090298</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.2785026366925</v>
+        <v>7.068491059962344</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>10.42867143138113</v>
+        <v>5.117025944665716</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.79787722924653</v>
+        <v>10.33736630684553</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.79345153526074</v>
+        <v>6.767880233121698</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>11.3270503376709</v>
+        <v>1.402679995139593</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>11.1964007070422</v>
+        <v>5.007235894708554</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.611773761116595</v>
+        <v>1.233268688914904</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>10.70428041942102</v>
+        <v>4.903565237060093</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>11.22620108159989</v>
+        <v>6.786588315678607</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>9.402596203845111</v>
+        <v>-0.5161891527871951</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.971972159299501</v>
+        <v>-3.441750904212959</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.58288463608595</v>
+        <v>2.461401068568804</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>9.545449873184932</v>
+        <v>-0.2408435444379293</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.15125208326512</v>
+        <v>-2.688909954900495</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.34332574293139</v>
+        <v>4.379351211810807</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>9.634300998392394</v>
+        <v>1.073940359241298</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>10.36003174011035</v>
+        <v>4.549610932071012</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.83684889084322</v>
+        <v>6.319948818413668</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>9.327190910305088</v>
+        <v>-1.700014783478604</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>9.528731207531933</v>
+        <v>0.05194534375152671</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.42307122992447</v>
+        <v>2.600682687240656</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.5272300270028</v>
+        <v>14.60645615128472</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.58522965256543</v>
+        <v>18.90841433234688</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.77586038337115</v>
+        <v>23.70898571888933</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>10.19780837074202</v>
+        <v>1.206027354992433</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>15.71416597233302</v>
+        <v>7.447682053901069</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.15921268878429</v>
+        <v>12.2235733928905</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.74895501626833</v>
+        <v>8.651874501076133</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>24.57044029821378</v>
+        <v>19.2798254338506</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.09364558554815</v>
+        <v>27.59635320658871</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.73549403514366</v>
+        <v>20.21622669388124</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.19285511305699</v>
+        <v>23.89306778440715</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>27.90934516632986</v>
+        <v>31.21515693892047</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.16371584658053</v>
+        <v>14.62906600234292</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.84067443598651</v>
+        <v>16.41977387693721</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.04876696615838</v>
+        <v>22.92744303347753</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.66135510787043</v>
+        <v>13.82385384168312</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.10907433223544</v>
+        <v>25.93083337068635</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.02493903747238</v>
+        <v>32.69203115564727</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>10.28557320906822</v>
+        <v>4.158297799205211</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.14202270781966</v>
+        <v>17.43268895607557</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>22.99336395539009</v>
+        <v>23.44452828092926</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>15.5873415378713</v>
+        <v>11.44148346642073</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.79086840054759</v>
+        <v>41.11145117834893</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>40.04917059279211</v>
+        <v>43.22049176315464</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.26873181483685</v>
+        <v>34.88897788292696</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.93551234073047</v>
+        <v>39.83856149871893</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>39.39182806397996</v>
+        <v>42.6076912634509</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.42999983261339</v>
+        <v>20.63413188020843</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.58204146948562</v>
+        <v>38.42908944537301</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.52846355212594</v>
+        <v>45.92325626615359</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>18.36667358080793</v>
+        <v>12.29134343070161</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.97884371117535</v>
+        <v>22.30906269226655</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.86042337656782</v>
+        <v>28.28357347900029</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>9.949966526517166</v>
+        <v>-0.1980799991227897</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>12.35196370329823</v>
+        <v>4.297804931581055</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>15.559893236874</v>
+        <v>10.24432295433335</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>12.9190378162402</v>
+        <v>4.210904068277113</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.749724630243</v>
+        <v>16.53877761800492</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.05044704179754</v>
+        <v>25.37011954755727</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>22.39668613417764</v>
+        <v>17.30413875830939</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.44133859923349</v>
+        <v>25.36092579394905</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.18066047692678</v>
+        <v>31.91938528375156</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>17.61135789750834</v>
+        <v>10.65589932463621</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.61961574691902</v>
+        <v>20.1194218664881</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.79303897876898</v>
+        <v>27.95951222748917</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.16894277834018</v>
+        <v>16.29243029541612</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.05797238349506</v>
+        <v>27.79834005934703</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>38.50330253872846</v>
+        <v>38.36231942589099</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>9.616194293617866</v>
+        <v>2.466306565920512</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>19.14801327431762</v>
+        <v>15.54524895694553</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>21.35716877929191</v>
+        <v>20.78260742529881</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>14.9281149384818</v>
+        <v>7.066781448101736</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.18786621373168</v>
+        <v>31.31494843346723</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.17923605628862</v>
+        <v>43.36793480112793</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>39.47951755556475</v>
+        <v>39.02779559336053</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>44.96577315966975</v>
+        <v>46.92590294749512</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>46.86991188044212</v>
+        <v>52.05671503771944</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.64415411557689</v>
+        <v>18.12909716797341</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>37.15004576817105</v>
+        <v>35.20987975664579</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>40.40421279580193</v>
+        <v>41.34346589826504</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>18.78519420941641</v>
+        <v>11.41824660199545</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.437162588973</v>
+        <v>26.58517430216125</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.94495326442732</v>
+        <v>33.86065752443857</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.19447196936303</v>
+        <v>7.579883258577343</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.91636052433601</v>
+        <v>29.54397803620267</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.63772227663166</v>
+        <v>32.4730241885195</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.64424627428789</v>
+        <v>13.98391556602848</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>47.72437007559095</v>
+        <v>52.09809132024409</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>53.6740878031356</v>
+        <v>56.76009412869404</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>44.21398887813766</v>
+        <v>49.17500953647905</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>47.95913599650718</v>
+        <v>50.10328740971461</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>50.39507227159726</v>
+        <v>56.18875102666905</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>17.32008121780856</v>
+        <v>12.6245049933968</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.07676489839581</v>
+        <v>34.16032363358624</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>42.31289316851321</v>
+        <v>44.29594809589856</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>15.14971372956895</v>
+        <v>9.949268041387839</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.3104538448776</v>
+        <v>26.27965077457212</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>32.97801837743673</v>
+        <v>31.93105554760581</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.812541583483704</v>
+        <v>3.645442951796213</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>21.01784547682006</v>
+        <v>16.36686763120996</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.22620992827383</v>
+        <v>24.43344241645588</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>10.92663997540491</v>
+        <v>3.973631897720072</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.94370328889266</v>
+        <v>30.20807009519049</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.51962436332037</v>
+        <v>41.65604826254382</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.70617137279528</v>
+        <v>34.17161847418444</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.99608153264425</v>
+        <v>41.63679748028674</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>46.48218547126802</v>
+        <v>48.00209556450422</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>12.29438487222216</v>
+        <v>6.672603041606994</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>32.11957905453581</v>
+        <v>31.35386208726957</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.78088849176561</v>
+        <v>39.9827797142495</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>12.05355637504582</v>
+        <v>9.267383825015452</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>27.73806098423015</v>
+        <v>26.93266921473118</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.46396926826882</v>
+        <v>36.61581413580542</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>9.805968310345364</v>
+        <v>1.029718016107843</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>20.95830811874428</v>
+        <v>21.1699087942757</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.99287243285482</v>
+        <v>29.44108028591688</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>10.77384281803297</v>
+        <v>2.829754844516692</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.42576404599133</v>
+        <v>35.2561168018709</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>50.38489152907283</v>
+        <v>54.33162118043525</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.98691744355061</v>
+        <v>40.85159714119019</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.24037927512102</v>
+        <v>51.29010726054764</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>59.94171153464401</v>
+        <v>65.21076367533993</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>10.19138905094019</v>
+        <v>3.814980941215371</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>38.22590359900539</v>
+        <v>37.94138322480779</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>48.9429115603441</v>
+        <v>50.29169439432235</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>13.76492947670676</v>
+        <v>7.293799505068964</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.60062208254858</v>
+        <v>20.97444616268572</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.02876749064728</v>
+        <v>33.38042207266496</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>9.808995272449252</v>
+        <v>5.129213539365804</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.17995954162898</v>
+        <v>35.9035677218918</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.91935838157126</v>
+        <v>42.3639127615652</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.32867823778242</v>
+        <v>9.417809443510944</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>54.26059551346836</v>
+        <v>62.06436419637951</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>56.15038395139214</v>
+        <v>63.1196395085997</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.41292589847347</v>
+        <v>46.86794286118899</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.62197970635609</v>
+        <v>45.30138198487504</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>44.10810977321098</v>
+        <v>48.78660958472661</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>15.3087503723307</v>
+        <v>4.26730201213751</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>26.89370132364264</v>
+        <v>24.39944040751247</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>54.56817612408457</v>
+        <v>60.62087356371202</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>17.868929432273</v>
+        <v>15.78274733558029</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.19423457663272</v>
+        <v>31.05663292935924</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>33.85455001693832</v>
+        <v>36.30360215443892</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>10.02923292024102</v>
+        <v>1.963354334671241</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>23.70483570972252</v>
+        <v>18.57492168563648</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.62482697486956</v>
+        <v>23.37193094384613</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>11.39987942648177</v>
+        <v>2.186636383732072</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.90133622164821</v>
+        <v>33.26181076936016</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.57046255336208</v>
+        <v>41.68253681914034</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.33718610989463</v>
+        <v>31.33856625921296</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.62076134886443</v>
+        <v>43.64218271820878</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>44.78838402845344</v>
+        <v>49.86815022585266</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>13.23195723683172</v>
+        <v>7.734799361413916</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.47860458331287</v>
+        <v>29.52528437093331</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.27694332526558</v>
+        <v>42.1186569565055</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.55971820209792</v>
+        <v>12.49327311862085</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.71822785792158</v>
+        <v>29.01355244521588</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.44698333223329</v>
+        <v>37.86642218920385</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>9.819341357181262</v>
+        <v>2.835384308339243</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.63300711452034</v>
+        <v>25.08655303786992</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31.73119848337735</v>
+        <v>32.00447273793121</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>11.47864879374225</v>
+        <v>4.59091997213454</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.32134646686217</v>
+        <v>41.53954751186834</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>51.33148752961549</v>
+        <v>56.74989461783588</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.95596961285688</v>
+        <v>46.29216002222557</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>52.77534175527497</v>
+        <v>55.77828824341746</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>59.28171166384374</v>
+        <v>66.71150045823924</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.95612080247253</v>
+        <v>3.556945386257105</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>40.5017281271043</v>
+        <v>35.65348600301013</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>50.15542887015144</v>
+        <v>49.57155451004972</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.58177050024585</v>
+        <v>15.2667999958842</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.32571047363643</v>
+        <v>24.4806726221156</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.27164776723694</v>
+        <v>35.94849855200619</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.88249536012547</v>
+        <v>12.24646586348718</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>42.62574483007367</v>
+        <v>47.67814879506641</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>46.55311990311878</v>
+        <v>49.11194210174637</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>17.68339370835648</v>
+        <v>17.62193900400957</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>54.04924890584081</v>
+        <v>63.26434133336589</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>58.20851669437801</v>
+        <v>67.67579877693339</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.58268231615705</v>
+        <v>42.09770173368901</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>40.02610604880537</v>
+        <v>42.50403399869347</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.25677855503553</v>
+        <v>43.62727621233806</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>26.96469344260434</v>
+        <v>13.05707217544765</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>23.93546119292256</v>
+        <v>19.54644577853507</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>40.19194175180567</v>
+        <v>44.43912376893798</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.81528428370608</v>
+        <v>24.2812756411482</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.74689352548283</v>
+        <v>34.15048772970227</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.16412709054195</v>
+        <v>40.72919143088116</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.23347562259958</v>
+        <v>34.2552334762108</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.38086374341262</v>
+        <v>43.35175670582203</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>45.28135078343973</v>
+        <v>47.30558417953051</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.83460565496289</v>
+        <v>14.21996799168993</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.90431142363222</v>
+        <v>37.48385431039782</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>41.14450378306674</v>
+        <v>48.21100391885265</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.35213632791082</v>
+        <v>35.68026028430881</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>41.30259439134616</v>
+        <v>44.54721057653695</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>44.7701071522927</v>
+        <v>51.25878884200432</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.62170213189385</v>
+        <v>19.18985869981206</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.75660512978838</v>
+        <v>31.83385225545391</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.19190319752611</v>
+        <v>43.59789340166198</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>22.09435453247658</v>
+        <v>19.56391013363986</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.41227509800175</v>
+        <v>32.49749651958903</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.37227039252418</v>
+        <v>39.94660532515807</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>35.84837215716318</v>
+        <v>33.94732111867496</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>46.31489198611516</v>
+        <v>52.28674502094972</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>47.99227065680324</v>
+        <v>51.17777387778396</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>15.92160121034801</v>
+        <v>13.61012238671323</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.32656576445749</v>
+        <v>47.40953817583379</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>53.50661213028255</v>
+        <v>60.2437236931538</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.14372155686928</v>
+        <v>49.00904852333977</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>54.55779811636577</v>
+        <v>58.74431984456756</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>60.5278522623386</v>
+        <v>68.41621285514935</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>21.90756851694665</v>
+        <v>16.93924227342005</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.70233782470662</v>
+        <v>38.17927934504434</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>50.75272909876824</v>
+        <v>51.50010334104657</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>11.36104797141294</v>
+        <v>6.234911299127241</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.90524739687061</v>
+        <v>20.05540914409263</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.5185437605632</v>
+        <v>31.42453349830106</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>9.057501453304766</v>
+        <v>0.5790770372219072</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.79590268784561</v>
+        <v>21.59929947630613</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.68157602348317</v>
+        <v>23.2290092148385</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>11.10600583778492</v>
+        <v>3.61895121933448</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>40.50158606949789</v>
+        <v>41.81718612097509</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.84274599329298</v>
+        <v>48.03308818075549</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>41.64233009851225</v>
+        <v>44.01719008395175</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.44762993907027</v>
+        <v>42.6732599191581</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>43.88146155865755</v>
+        <v>46.30425339474223</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>9.718658863432196</v>
+        <v>-3.173895513291868</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.37232975489873</v>
+        <v>27.22103018936536</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>32.93587675528525</v>
+        <v>35.18684617366447</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>14.24900878704348</v>
+        <v>9.149925265538217</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.0690925756434</v>
+        <v>25.74590873014838</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.07757123668435</v>
+        <v>30.42026227643201</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>9.580857639096575</v>
+        <v>2.002809444670877</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.20883736960221</v>
+        <v>17.43523601585363</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.91336343714288</v>
+        <v>21.66614761695144</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>10.606553416712</v>
+        <v>2.062099792226537</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.97488686809303</v>
+        <v>29.22604086524067</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.34176839195067</v>
+        <v>39.72262618126658</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.94724600633693</v>
+        <v>32.45997545997209</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.89260365753947</v>
+        <v>39.59901008315823</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.19263595408306</v>
+        <v>45.57163925319396</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>11.16616738024465</v>
+        <v>2.75259306383111</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.16028229714686</v>
+        <v>30.14414728949015</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.28383284554371</v>
+        <v>36.82272363203245</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>12.62580828043051</v>
+        <v>8.574690633175265</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.29504124993601</v>
+        <v>26.08517182287318</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.25431341108082</v>
+        <v>35.2968328296059</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>9.299933305259891</v>
+        <v>0.01034603653779342</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>21.99566381124368</v>
+        <v>21.74548524196314</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.226699424495</v>
+        <v>25.96808333222732</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>10.36513226895779</v>
+        <v>1.487280314555779</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.58090147686721</v>
+        <v>35.30291161501749</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>45.60204648405249</v>
+        <v>51.12274649061081</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>40.92788860454078</v>
+        <v>44.55120441524895</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>53.82025240622916</v>
+        <v>54.26654807594099</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>56.11409087563389</v>
+        <v>62.43443348748019</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.62778349048556</v>
+        <v>-0.9856455079795978</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>38.22495902445061</v>
+        <v>37.55486118143025</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.60989425270071</v>
+        <v>47.68539147781226</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.07023674090404</v>
+        <v>7.963861853593563</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.6790425523667</v>
+        <v>11.65648181871027</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.4758804734605</v>
+        <v>17.89577910464848</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>10.92205019541714</v>
+        <v>2.523212331678131</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>16.63053597166011</v>
+        <v>12.30135770503263</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.63570220180453</v>
+        <v>14.92193205174803</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.17214076758383</v>
+        <v>8.525509755903236</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.52006005557512</v>
+        <v>23.62258086693877</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.14829066221377</v>
+        <v>26.23572006485128</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>21.82013044443672</v>
+        <v>18.15525238357649</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.22992097601662</v>
+        <v>20.7389561974468</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.6540541928772</v>
+        <v>23.53788241090933</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>16.32066118858594</v>
+        <v>4.565158417876802</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>17.58582716539271</v>
+        <v>8.731353376413328</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.26583443994714</v>
+        <v>18.77235130824466</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>14.05447567125278</v>
+        <v>6.634607514007651</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.92853997587233</v>
+        <v>18.56733866412238</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.67280956727035</v>
+        <v>26.43892199532135</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>8.970600521118133</v>
+        <v>-0.7464745520406382</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>12.32632793896495</v>
+        <v>8.573631793634046</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>20.68669560657471</v>
+        <v>17.43752764594218</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>9.67134688341504</v>
+        <v>-1.771580628450327</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>17.66507380810544</v>
+        <v>14.67014873219898</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.89911617216447</v>
+        <v>30.65257870998999</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>22.87311390634451</v>
+        <v>21.53333964901903</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.51956230783145</v>
+        <v>29.58725013902754</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>37.68316464911234</v>
+        <v>38.23554198873583</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>10.35980359326286</v>
+        <v>-0.8509249869932312</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.61199773922584</v>
+        <v>20.23669634455431</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>30.56512267419307</v>
+        <v>29.83318331177394</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>17.34832376818909</v>
+        <v>8.424442371665634</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.6613804097497</v>
+        <v>22.2813975280528</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.57277170271656</v>
+        <v>30.23882910234077</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>9.079467488546463</v>
+        <v>-1.063444138957497</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>18.65814738959022</v>
+        <v>16.48672907893615</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>24.69928769815626</v>
+        <v>21.88072347608498</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>11.33548513024198</v>
+        <v>2.242513585152924</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>27.45337885592013</v>
+        <v>27.12109515299701</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>39.21393243464924</v>
+        <v>38.81091032254922</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>33.36284492868837</v>
+        <v>32.23070387427953</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.43313418955636</v>
+        <v>40.07658054555015</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>43.26298909707492</v>
+        <v>45.37995743127709</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>8.531669145778341</v>
+        <v>-1.139353435269431</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.48760808414014</v>
+        <v>27.6674051759409</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>40.40526386927586</v>
+        <v>40.07704675914098</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.25934738850118</v>
+        <v>12.55777140276818</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>21.91334745001109</v>
+        <v>17.44219991312851</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.06054568381029</v>
+        <v>24.4174152761175</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>10.12267549472138</v>
+        <v>5.977330868053144</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>23.68811803877878</v>
+        <v>21.1362007840262</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.92854336701431</v>
+        <v>21.12789287275986</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>17.96766142011928</v>
+        <v>16.17463542331753</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>33.15137320312399</v>
+        <v>42.71311686137945</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>35.20794941281767</v>
+        <v>42.63938831343528</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.88257075960885</v>
+        <v>25.27833292516476</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.25318698334573</v>
+        <v>29.25128912789248</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>32.50241043268655</v>
+        <v>36.83006718743961</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>15.76750326231506</v>
+        <v>5.609796679459048</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>23.29986010925203</v>
+        <v>22.61983130265479</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.59031913007225</v>
+        <v>34.09262001935312</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>12.09608375527871</v>
+        <v>10.17364097443323</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>24.32498089151062</v>
+        <v>19.63381965129724</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>32.86879244898088</v>
+        <v>33.31905548028406</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.856403294521737</v>
+        <v>4.37009658512747</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>16.76732433786466</v>
+        <v>7.829206044202376</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.56761380120593</v>
+        <v>28.30787750715553</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>11.39770241553995</v>
+        <v>4.332619900052666</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.20305480876564</v>
+        <v>18.20353569211154</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.46515618173099</v>
+        <v>36.49426166594279</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.24307165334947</v>
+        <v>16.16443686970503</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>33.03501536471921</v>
+        <v>32.01111861426448</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>43.41974402362659</v>
+        <v>43.34148698046365</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>9.681844284430657</v>
+        <v>2.006686800369312</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.75854305097862</v>
+        <v>18.13444006579331</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.32703742083731</v>
+        <v>31.89612128676389</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>13.33339485116522</v>
+        <v>10.1334936908025</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.90726453168472</v>
+        <v>20.40905120398157</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.39929692480549</v>
+        <v>28.96858556873099</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>9.772029076591522</v>
+        <v>4.19139332693965</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.37511710777392</v>
+        <v>16.59328350685106</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>24.36602104306682</v>
+        <v>25.00056546887854</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>11.60028475968449</v>
+        <v>4.599715314485735</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.04303180392218</v>
+        <v>28.02678816677945</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>34.04434238892613</v>
+        <v>38.06373774991768</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.26134984327548</v>
+        <v>33.31514389220888</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>40.18997932550621</v>
+        <v>41.92066524219302</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>46.89539609298647</v>
+        <v>52.30483391870209</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>8.685147128040423</v>
+        <v>-0.2199156358761485</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>23.35316874738665</v>
+        <v>18.53357099408361</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.70848545404041</v>
+        <v>33.98677723030961</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>20.3108595130056</v>
+        <v>13.77249574560638</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>24.31002632393411</v>
+        <v>23.34345298775224</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.36226710695775</v>
+        <v>34.31516954292052</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>10.26071223037321</v>
+        <v>5.892559607412007</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>37.89350231013057</v>
+        <v>34.6870983743737</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>39.86801338826445</v>
+        <v>40.78197941917347</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.91669023678188</v>
+        <v>15.28516700462503</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>54.58571730497965</v>
+        <v>57.12513507990603</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>55.33181672182014</v>
+        <v>60.01756772090334</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.30220690815112</v>
+        <v>45.96523534023017</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.56676590672227</v>
+        <v>43.25033477394938</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>43.87745051676296</v>
+        <v>46.89661026311934</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>22.94070360431945</v>
+        <v>12.20706038117873</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>21.53569377908665</v>
+        <v>14.48627320032138</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>54.63211491943855</v>
+        <v>57.22556262513531</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>24.75450255507703</v>
+        <v>21.20973922524441</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.86047406429903</v>
+        <v>33.0382105109104</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>32.93137444691346</v>
+        <v>36.59675711674021</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>10.96895825796777</v>
+        <v>6.751394367213418</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.86930956089218</v>
+        <v>23.33171672485468</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.87243356463321</v>
+        <v>28.63397151919408</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>15.16050862924707</v>
+        <v>8.607633491967004</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>39.03652429186386</v>
+        <v>37.65168900003359</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.83915635277026</v>
+        <v>45.08282886287647</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.90776785047969</v>
+        <v>38.98478251841069</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>45.26481305802495</v>
+        <v>44.35442154817862</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>45.04290650568896</v>
+        <v>50.71781752273385</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>21.3469055306488</v>
+        <v>16.5087216591663</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>37.93750188550288</v>
+        <v>33.82274589257035</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>42.00114293062661</v>
+        <v>44.75014155910127</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>24.66917501716645</v>
+        <v>18.85098886455762</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.17246196568745</v>
+        <v>31.65487618995315</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>36.06408447635224</v>
+        <v>38.81249303834166</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>10.84636739430139</v>
+        <v>4.722352897139789</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>27.13705065437166</v>
+        <v>26.81141919346101</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.06860205565545</v>
+        <v>32.41325948124177</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>14.74441783163102</v>
+        <v>7.825165378576834</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>42.86142203835485</v>
+        <v>45.15139262976096</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>52.0149307234887</v>
+        <v>57.97419928185461</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>45.31133028225209</v>
+        <v>48.40672659779673</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>52.28837860106283</v>
+        <v>56.46059898660029</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>58.2424694078568</v>
+        <v>66.0964836678144</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>16.98647007726077</v>
+        <v>14.32807218528981</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>41.57807470195436</v>
+        <v>40.8467410162318</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>48.99393423393401</v>
+        <v>54.18468235125306</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>11.57202633821678</v>
+        <v>4.7742927327985</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>22.04954952774375</v>
+        <v>16.70823716732691</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.87011702369313</v>
+        <v>27.53253248374672</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>9.043918308850095</v>
+        <v>0.9088889540271694</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>23.96744621369979</v>
+        <v>20.7365079709207</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>24.23609521592851</v>
+        <v>22.19673805054671</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>10.85978940686049</v>
+        <v>2.897358202582591</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.46561014385954</v>
+        <v>37.63454319918455</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>41.42258855037795</v>
+        <v>44.73552547557431</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.10889317781815</v>
+        <v>39.88720287936251</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>44.20859369242791</v>
+        <v>43.3986353853823</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>41.99442963788275</v>
+        <v>43.7147463110798</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>9.990368560854986</v>
+        <v>-4.892764830391311</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>27.52590966563341</v>
+        <v>24.11117540273588</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.43579017027201</v>
+        <v>31.65755179249397</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>14.36648268627563</v>
+        <v>9.727453527321304</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.16162801733967</v>
+        <v>26.14529602431594</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.69578908382862</v>
+        <v>30.21745522049334</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>9.898316474122105</v>
+        <v>3.598487860052074</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>22.062446969806</v>
+        <v>18.02644488834824</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>27.27213577928527</v>
+        <v>23.19513150694835</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>11.82927951795467</v>
+        <v>5.425788303202715</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>34.89476149458481</v>
+        <v>32.68608289146305</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>42.72602716873146</v>
+        <v>43.72700034420316</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.83306940590001</v>
+        <v>34.40350498858769</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>41.21978791994385</v>
+        <v>42.10990295134259</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>44.31039836948005</v>
+        <v>47.29864821073656</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>11.8548812554758</v>
+        <v>3.928974928187834</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>34.64380762158451</v>
+        <v>31.16266848250935</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>39.66585140056151</v>
+        <v>39.13145061048672</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>13.8098440705663</v>
+        <v>7.697064504867466</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.45376099254836</v>
+        <v>24.96100335288274</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.70221948552009</v>
+        <v>33.82744499280098</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>9.211799560947025</v>
+        <v>0.3276243196858495</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>21.36291674906589</v>
+        <v>21.92565923054722</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>24.87615599054764</v>
+        <v>24.55126486442914</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>10.35029740900751</v>
+        <v>1.528321645508111</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>32.92406245142372</v>
+        <v>34.25513912451149</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>43.7082762784075</v>
+        <v>49.59438012141881</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>41.40360294764518</v>
+        <v>41.95567846728335</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>49.910644253648</v>
+        <v>51.82392088714113</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>55.21510941885635</v>
+        <v>60.49120850672097</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>10.38198683229142</v>
+        <v>0.1236078540595607</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>34.36817421504438</v>
+        <v>35.40991107870823</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>45.7588828161121</v>
+        <v>46.92393076866966</v>
       </c>
     </row>
   </sheetData>
